--- a/HNM qPCR Summary.xlsx
+++ b/HNM qPCR Summary.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/spet4768_ox_ac_uk/Documents/Desktop/Results/HNM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="353" documentId="11_F25DC773A252ABDACC1048A9519B73345BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C349DEF3-9311-4CDC-948D-C220DF0ED32B}"/>
+  <xr:revisionPtr revIDLastSave="413" documentId="11_F25DC773A252ABDACC1048A9519B73345BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50725EA7-AA20-46D5-B4B4-4ADD83343241}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="720" windowWidth="19035" windowHeight="14880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Averages" sheetId="1" r:id="rId1"/>
     <sheet name="For R" sheetId="2" r:id="rId2"/>
+    <sheet name="Normalised to Control" sheetId="3" r:id="rId3"/>
+    <sheet name="Normalised to Control for R" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="72">
   <si>
     <t>Round</t>
   </si>
@@ -62,9 +64,6 @@
     <t>800uM POLA</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
     <t>LC1</t>
   </si>
   <si>
@@ -221,9 +220,6 @@
     <t>NFKB1</t>
   </si>
   <si>
-    <t>Column2</t>
-  </si>
-  <si>
     <t>Column3</t>
   </si>
   <si>
@@ -246,6 +242,18 @@
   </si>
   <si>
     <t>Condition</t>
+  </si>
+  <si>
+    <t>JNK1</t>
+  </si>
+  <si>
+    <t>JNK2</t>
+  </si>
+  <si>
+    <t>Unnormalised</t>
+  </si>
+  <si>
+    <t>Normalised</t>
   </si>
 </sst>
 </file>
@@ -336,7 +344,79 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -730,8 +810,8 @@
     <tableColumn id="8" xr3:uid="{F87EFFB2-DFEB-444F-8AE4-390721A53A22}" name="YWHAZ"/>
     <tableColumn id="9" xr3:uid="{10D93A59-B892-4DB6-B181-A70122E661A2}" name="HMBS"/>
     <tableColumn id="10" xr3:uid="{8514CED0-1D82-4A4B-B295-9CF87DF64DB9}" name="NFKB1"/>
-    <tableColumn id="11" xr3:uid="{E2F7804C-385B-46E0-9390-2921B73785B8}" name="Column1"/>
-    <tableColumn id="12" xr3:uid="{0DC91EE8-27ED-4098-B54C-B05A9CE21517}" name="Column2"/>
+    <tableColumn id="11" xr3:uid="{E2F7804C-385B-46E0-9390-2921B73785B8}" name="JNK1"/>
+    <tableColumn id="12" xr3:uid="{0DC91EE8-27ED-4098-B54C-B05A9CE21517}" name="JNK2"/>
     <tableColumn id="13" xr3:uid="{9ECAD487-ED21-46ED-878C-9BBA03156479}" name="Column3"/>
     <tableColumn id="14" xr3:uid="{75D9D8C1-D22C-44E3-BD83-3AE118AF19F6}" name="Column4"/>
     <tableColumn id="15" xr3:uid="{12919DB5-8140-4956-9CAB-BBCAC7596767}" name="Column5"/>
@@ -744,17 +824,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4773263E-B173-4791-B48F-23559BC8A877}" name="Table2" displayName="Table2" ref="Y10:AF31" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
-  <autoFilter ref="Y10:AF31" xr:uid="{4773263E-B173-4791-B48F-23559BC8A877}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{C30DE3D8-9591-4260-A464-CE42CEC9CF71}" name="Round" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{FD9B6DD4-A438-4D7E-ABB5-48EE35BAFC47}" name="Condition" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{1141554C-9B32-495F-9E28-9CE85D42E522}" name="Fat" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{FF34C0D3-B7DB-467D-A6A7-A9939D9328EC}" name="Insulin (nM)" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{3DAF0E04-39D7-4A07-9C37-0202A2849C98}" name="B2M" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{6C32B31E-66A2-48D6-BC85-7E0C8E55327D}" name="YWHAZ" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{C1151B84-B188-4F45-95ED-03793DD4A76F}" name="HMBS" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{37FAB617-5067-44AA-B331-2CB553136DAD}" name="NFKB1" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4773263E-B173-4791-B48F-23559BC8A877}" name="Table2" displayName="Table2" ref="Y10:AH31" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+  <autoFilter ref="Y10:AH31" xr:uid="{4773263E-B173-4791-B48F-23559BC8A877}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{C30DE3D8-9591-4260-A464-CE42CEC9CF71}" name="Round" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{FD9B6DD4-A438-4D7E-ABB5-48EE35BAFC47}" name="Condition" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{1141554C-9B32-495F-9E28-9CE85D42E522}" name="Fat" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{FF34C0D3-B7DB-467D-A6A7-A9939D9328EC}" name="Insulin (nM)" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{3DAF0E04-39D7-4A07-9C37-0202A2849C98}" name="B2M" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{6C32B31E-66A2-48D6-BC85-7E0C8E55327D}" name="YWHAZ" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{C1151B84-B188-4F45-95ED-03793DD4A76F}" name="HMBS" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{37FAB617-5067-44AA-B331-2CB553136DAD}" name="NFKB1" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{A18F7956-2DD1-47F2-8ABD-B2C131955775}" name="JNK1" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{30412466-77B3-4FDB-8451-DAFCFC8D4EB1}" name="JNK2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1023,10 +1105,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF43"/>
+  <dimension ref="A1:AH43"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Z7" sqref="Z7"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Y10" sqref="Y10:AH31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,21 +1122,21 @@
     <col min="27" max="27" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -1063,57 +1145,57 @@
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
       </c>
       <c r="J1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" t="s">
         <v>60</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2">
+        <v>0.1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N1" t="s">
-        <v>63</v>
-      </c>
-      <c r="O1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2">
-        <v>0.1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
       </c>
       <c r="G2">
         <v>0.25259462337531574</v>
@@ -1127,13 +1209,19 @@
       <c r="J2">
         <v>1.2717235187143567</v>
       </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>1.3111178199937292</v>
+      </c>
+      <c r="L2">
+        <v>1.2163212181937832</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1145,7 +1233,7 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3">
         <v>0.29458280951248617</v>
@@ -1159,13 +1247,19 @@
       <c r="J3">
         <v>1.2606425634615255</v>
       </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>1.2896006733634646</v>
+      </c>
+      <c r="L3">
+        <v>1.3167430656239851</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -1177,7 +1271,7 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4">
         <v>0.26458474588532643</v>
@@ -1191,16 +1285,22 @@
       <c r="J4">
         <v>1.5147145174718104</v>
       </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>1.1402173189573699</v>
+      </c>
+      <c r="L4">
+        <v>1.3089537036346754</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5">
         <v>100</v>
@@ -1209,7 +1309,7 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5">
         <v>7.448954302207389E-2</v>
@@ -1223,13 +1323,19 @@
       <c r="J5">
         <v>0.91845184657956302</v>
       </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>1.6873775863536862</v>
+      </c>
+      <c r="L5">
+        <v>0.9019949759091257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -1241,7 +1347,7 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6">
         <v>0.31040770617863872</v>
@@ -1255,13 +1361,19 @@
       <c r="J6">
         <v>1.5924107835212036</v>
       </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>1.2346946935633774</v>
+      </c>
+      <c r="L6">
+        <v>1.6389540244454761</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -1273,7 +1385,7 @@
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7">
         <v>3.2630420370542548E-2</v>
@@ -1287,16 +1399,22 @@
       <c r="J7">
         <v>0.69275214721980316</v>
       </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>1.3831168265722871</v>
+      </c>
+      <c r="L7">
+        <v>1.5200269294000184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8">
         <v>0.1</v>
@@ -1305,7 +1423,7 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8">
         <v>0.32119579736674247</v>
@@ -1319,13 +1437,19 @@
       <c r="J8">
         <v>1.2872361852557701</v>
       </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>1.4185125980771465</v>
+      </c>
+      <c r="L8">
+        <v>1.2844633011667097</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -1337,7 +1461,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9">
         <v>5.5929408634268294E-3</v>
@@ -1351,13 +1475,19 @@
       <c r="J9">
         <v>0.72431982115779447</v>
       </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <v>1.2927745613021906</v>
+      </c>
+      <c r="L9">
+        <v>1.0542765806997041</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -1369,7 +1499,7 @@
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10">
         <v>7.3560766986536944E-3</v>
@@ -1383,14 +1513,20 @@
       <c r="J10">
         <v>1.1565528228511497</v>
       </c>
+      <c r="K10">
+        <v>2.4690407659316507</v>
+      </c>
+      <c r="L10">
+        <v>2.9721125790225287</v>
+      </c>
       <c r="Y10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB10" s="3" t="s">
         <v>1</v>
@@ -1399,24 +1535,30 @@
         <v>2</v>
       </c>
       <c r="AD10" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AF10" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="AG10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH10" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11">
         <v>100</v>
@@ -1425,7 +1567,7 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G11">
         <v>3.1006618465725991E-3</v>
@@ -1439,41 +1581,55 @@
       <c r="J11">
         <v>0.43127705186835341</v>
       </c>
+      <c r="K11">
+        <v>1.8628681249413019</v>
+      </c>
+      <c r="L11">
+        <v>1.2389086479893165</v>
+      </c>
       <c r="Y11" s="1">
         <v>1</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB11" s="1">
         <v>0.1</v>
       </c>
       <c r="AC11" s="1">
-        <f t="shared" ref="AC11:AC16" si="0">AVERAGE(G2,G8)</f>
+        <f>AVERAGE(G2,G8)</f>
         <v>0.28689521037102911</v>
       </c>
       <c r="AD11" s="1">
-        <f t="shared" ref="AD11:AF11" si="1">AVERAGE(H2,H8)</f>
+        <f t="shared" ref="AD11:AF11" si="0">AVERAGE(H2,H8)</f>
         <v>0.27022615466399769</v>
       </c>
       <c r="AE11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.19612937569316419</v>
       </c>
       <c r="AF11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.2794798519850634</v>
       </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG11" s="1">
+        <f t="shared" ref="AG11:AG16" si="1">AVERAGE(K2,K8)</f>
+        <v>1.364815209035438</v>
+      </c>
+      <c r="AH11" s="1">
+        <f>AVERAGE(L2,L8)</f>
+        <v>1.2503922596802464</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -1485,7 +1641,7 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12">
         <v>0.13342126644415436</v>
@@ -1499,11 +1655,17 @@
       <c r="J12">
         <v>1.4379646216368136</v>
       </c>
+      <c r="K12">
+        <v>1.617841117827955</v>
+      </c>
+      <c r="L12">
+        <v>1.4815740820007601</v>
+      </c>
       <c r="Y12" s="2">
         <v>1</v>
       </c>
       <c r="Z12" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA12" s="2" t="s">
         <v>6</v>
@@ -1512,28 +1674,36 @@
         <v>0.1</v>
       </c>
       <c r="AC12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AC12:AC16" si="2">AVERAGE(G3,G9)</f>
         <v>0.15008787518795649</v>
       </c>
       <c r="AD12" s="2">
-        <f t="shared" ref="AD12:AF12" si="2">AVERAGE(H3,H9)</f>
+        <f t="shared" ref="AD12:AF12" si="3">AVERAGE(H3,H9)</f>
         <v>0.16684891915212</v>
       </c>
       <c r="AE12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.7389984722547618E-2</v>
       </c>
       <c r="AF12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.99248119230965992</v>
       </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG12" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2911876173328276</v>
+      </c>
+      <c r="AH12" s="2">
+        <f t="shared" ref="AH12:AH16" si="4">AVERAGE(L3,L9)</f>
+        <v>1.1855098231618446</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -1545,7 +1715,7 @@
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G13">
         <v>0.24132502066184658</v>
@@ -1559,11 +1729,17 @@
       <c r="J13">
         <v>1.3778035998162819</v>
       </c>
+      <c r="K13">
+        <v>1.1333391017468735</v>
+      </c>
+      <c r="L13">
+        <v>1.3918074943654122</v>
+      </c>
       <c r="Y13" s="1">
         <v>1</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA13" s="1" t="s">
         <v>7</v>
@@ -1572,31 +1748,39 @@
         <v>0.1</v>
       </c>
       <c r="AC13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.13597041129199006</v>
       </c>
       <c r="AD13" s="1">
-        <f t="shared" ref="AD13:AF13" si="3">AVERAGE(H4,H10)</f>
+        <f t="shared" ref="AD13:AF13" si="5">AVERAGE(H4,H10)</f>
         <v>0.15209349657235291</v>
       </c>
       <c r="AE13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.6128608624427005E-2</v>
       </c>
       <c r="AF13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.3356336701614802</v>
       </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG13" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8046290424445104</v>
+      </c>
+      <c r="AH13" s="1">
+        <f t="shared" si="4"/>
+        <v>2.1405331413286022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14">
         <v>0.1</v>
@@ -1619,41 +1803,55 @@
       <c r="J14">
         <v>1.1062498401051197</v>
       </c>
+      <c r="K14">
+        <v>1.2532861483781301</v>
+      </c>
+      <c r="L14">
+        <v>1.2164906457043636</v>
+      </c>
       <c r="Y14" s="2">
         <v>1</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB14" s="2">
         <v>100</v>
       </c>
       <c r="AC14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.8795102434323242E-2</v>
       </c>
       <c r="AD14" s="2">
-        <f t="shared" ref="AD14:AF14" si="4">AVERAGE(H5,H11)</f>
+        <f t="shared" ref="AD14:AF14" si="6">AVERAGE(H5,H11)</f>
         <v>2.7796260779966244E-2</v>
       </c>
       <c r="AE14" s="2">
+        <f t="shared" si="6"/>
+        <v>1.6365129847331097E-2</v>
+      </c>
+      <c r="AF14" s="2">
+        <f t="shared" si="6"/>
+        <v>0.67486444922395816</v>
+      </c>
+      <c r="AG14" s="2">
+        <f t="shared" si="1"/>
+        <v>1.7751228556474941</v>
+      </c>
+      <c r="AH14" s="2">
         <f t="shared" si="4"/>
-        <v>1.6365129847331097E-2</v>
-      </c>
-      <c r="AF14" s="2">
-        <f t="shared" si="4"/>
-        <v>0.67486444922395816</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+        <v>1.070451811949221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
@@ -1665,7 +1863,7 @@
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G15">
         <v>0.17467177939383408</v>
@@ -1679,11 +1877,17 @@
       <c r="J15">
         <v>1.3751429109511233</v>
       </c>
+      <c r="K15">
+        <v>1.3095790575616679</v>
+      </c>
+      <c r="L15">
+        <v>1.4615680713836277</v>
+      </c>
       <c r="Y15" s="1">
         <v>1</v>
       </c>
       <c r="Z15" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA15" s="1" t="s">
         <v>6</v>
@@ -1692,28 +1896,36 @@
         <v>100</v>
       </c>
       <c r="AC15" s="1">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(G6,G12)</f>
         <v>0.22191448631139654</v>
       </c>
       <c r="AD15" s="1">
-        <f t="shared" ref="AD15:AF15" si="5">AVERAGE(H6,H12)</f>
+        <f t="shared" ref="AD15:AF15" si="7">AVERAGE(H6,H12)</f>
         <v>0.26401312170395269</v>
       </c>
       <c r="AE15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.15335188999965108</v>
       </c>
       <c r="AF15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.5151877025790086</v>
       </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG15" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4262679056956662</v>
+      </c>
+      <c r="AH15" s="1">
+        <f t="shared" si="4"/>
+        <v>1.560264053223118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
@@ -1725,7 +1937,7 @@
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G16">
         <v>0.13876761839588933</v>
@@ -1739,11 +1951,17 @@
       <c r="J16">
         <v>1.2789587672305556</v>
       </c>
+      <c r="K16">
+        <v>1.4952428415821408</v>
+      </c>
+      <c r="L16">
+        <v>1.5910576397230087</v>
+      </c>
       <c r="Y16" s="2">
         <v>1</v>
       </c>
       <c r="Z16" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA16" s="2" t="s">
         <v>7</v>
@@ -1752,31 +1970,39 @@
         <v>100</v>
       </c>
       <c r="AC16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.13697772051619456</v>
       </c>
       <c r="AD16" s="2">
-        <f t="shared" ref="AD16:AF16" si="6">AVERAGE(H7,H13)</f>
+        <f t="shared" ref="AD16:AF16" si="8">AVERAGE(H7,H13)</f>
         <v>0.17168410142202084</v>
       </c>
       <c r="AE16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.1631050421084922E-2</v>
       </c>
       <c r="AF16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0352778735180426</v>
       </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG16" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2582279641595804</v>
+      </c>
+      <c r="AH16" s="2">
+        <f t="shared" si="4"/>
+        <v>1.4559172118827153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17">
         <v>100</v>
@@ -1785,7 +2011,7 @@
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G17">
         <v>4.8798716555436918E-2</v>
@@ -1799,14 +2025,20 @@
       <c r="J17">
         <v>1.403719640645771</v>
       </c>
+      <c r="K17">
+        <v>1.5322230450273886</v>
+      </c>
+      <c r="L17">
+        <v>1.7151939001327161</v>
+      </c>
       <c r="Y17" s="1">
         <v>1</v>
       </c>
       <c r="Z17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA17" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="AA17" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="AB17" s="1">
         <v>0.1</v>
@@ -1816,24 +2048,32 @@
         <v>0.43975412260751356</v>
       </c>
       <c r="AD17" s="1">
-        <f t="shared" ref="AD17:AF17" si="7">AVERAGE(H38,H39)</f>
+        <f t="shared" ref="AD17:AF17" si="9">AVERAGE(H38,H39)</f>
         <v>0.70246176157041873</v>
       </c>
       <c r="AE17" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0756831382274579</v>
       </c>
       <c r="AF17" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.4445532069407205</v>
       </c>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG17" s="1">
+        <f t="shared" ref="AG17" si="10">AVERAGE(K38,K39)</f>
+        <v>0.7945449780924736</v>
+      </c>
+      <c r="AH17" s="1">
+        <f t="shared" ref="AH17" si="11">AVERAGE(L38,L39)</f>
+        <v>0.50444432981007503</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
@@ -1845,7 +2085,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G18">
         <v>7.4272547056265362E-2</v>
@@ -1859,41 +2099,55 @@
       <c r="J18">
         <v>1.3959652747543496</v>
       </c>
+      <c r="K18">
+        <v>1.288279519657078</v>
+      </c>
+      <c r="L18">
+        <v>1.3747997539644499</v>
+      </c>
       <c r="Y18" s="2">
         <v>2</v>
       </c>
       <c r="Z18" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB18" s="2">
         <v>0.1</v>
       </c>
       <c r="AC18" s="2">
-        <f t="shared" ref="AC18:AC23" si="8">AVERAGE(G14,G20)</f>
+        <f>AVERAGE(G14,G20)</f>
         <v>0.27930108691509004</v>
       </c>
       <c r="AD18" s="2">
-        <f t="shared" ref="AD18:AE18" si="9">AVERAGE(H14,H20)</f>
+        <f t="shared" ref="AD18:AE18" si="12">AVERAGE(H14,H20)</f>
         <v>0.24241527159586684</v>
       </c>
       <c r="AE18" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.1888209658547422</v>
       </c>
       <c r="AF18" s="2">
         <f>AVERAGE(J14,J20)</f>
         <v>1.0905732372959951</v>
       </c>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG18" s="2">
+        <f t="shared" ref="AG18:AH23" si="13">AVERAGE(K14,K20)</f>
+        <v>1.1297236354088531</v>
+      </c>
+      <c r="AH18" s="2">
+        <f t="shared" si="13"/>
+        <v>1.1101855114849379</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -1905,7 +2159,7 @@
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G19">
         <v>0.14781324055996814</v>
@@ -1919,11 +2173,17 @@
       <c r="J19">
         <v>1.4213281354547485</v>
       </c>
+      <c r="K19">
+        <v>1.8863469062099185</v>
+      </c>
+      <c r="L19">
+        <v>2.210574367601235</v>
+      </c>
       <c r="Y19" s="1">
         <v>2</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA19" s="1" t="s">
         <v>6</v>
@@ -1932,31 +2192,39 @@
         <v>0.1</v>
       </c>
       <c r="AC19" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="AC19:AC22" si="14">AVERAGE(G15,G21)</f>
         <v>0.22085908751344979</v>
       </c>
       <c r="AD19" s="1">
-        <f t="shared" ref="AD19:AF19" si="10">AVERAGE(H15,H21)</f>
+        <f t="shared" ref="AD19:AF19" si="15">AVERAGE(H15,H21)</f>
         <v>0.21812191431598543</v>
       </c>
       <c r="AE19" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.13627493483230119</v>
       </c>
       <c r="AF19" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1.415147955479829</v>
       </c>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG19" s="1">
+        <f t="shared" si="13"/>
+        <v>1.2087700411049518</v>
+      </c>
+      <c r="AH19" s="1">
+        <f t="shared" si="13"/>
+        <v>1.3372643045164261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20">
         <v>0.1</v>
@@ -1965,7 +2233,7 @@
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G20">
         <v>0.38684243333987528</v>
@@ -1979,11 +2247,17 @@
       <c r="J20">
         <v>1.0748966344868705</v>
       </c>
+      <c r="K20">
+        <v>1.0061611224395761</v>
+      </c>
+      <c r="L20">
+        <v>1.0038803772655123</v>
+      </c>
       <c r="Y20" s="2">
         <v>2</v>
       </c>
       <c r="Z20" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA20" s="2" t="s">
         <v>7</v>
@@ -1992,28 +2266,36 @@
         <v>0.1</v>
       </c>
       <c r="AC20" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.16337488611861595</v>
       </c>
       <c r="AD20" s="2">
-        <f t="shared" ref="AD20:AF20" si="11">AVERAGE(H16,H22)</f>
+        <f t="shared" ref="AD20:AF20" si="16">AVERAGE(H16,H22)</f>
         <v>0.19599452955587818</v>
       </c>
       <c r="AE20" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>6.3003950349280233E-2</v>
       </c>
       <c r="AF20" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1.3599372596995611</v>
       </c>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG20" s="2">
+        <f t="shared" si="13"/>
+        <v>1.5398208274816398</v>
+      </c>
+      <c r="AH20" s="2">
+        <f t="shared" si="13"/>
+        <v>1.7354225139602659</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
@@ -2025,7 +2307,7 @@
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G21">
         <v>0.26704639563306554</v>
@@ -2039,41 +2321,55 @@
       <c r="J21">
         <v>1.4551530000085346</v>
       </c>
+      <c r="K21">
+        <v>1.1079610246482356</v>
+      </c>
+      <c r="L21">
+        <v>1.2129605376492243</v>
+      </c>
       <c r="Y21" s="1">
         <v>2</v>
       </c>
       <c r="Z21" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA21" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB21" s="1">
         <v>100</v>
       </c>
       <c r="AC21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.12963411529321747</v>
       </c>
       <c r="AD21" s="1">
-        <f t="shared" ref="AD21:AF21" si="12">AVERAGE(H17,H23)</f>
+        <f t="shared" ref="AD21:AF21" si="17">AVERAGE(H17,H23)</f>
         <v>9.4315670842440733E-2</v>
       </c>
       <c r="AE21" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>5.1677304875675387E-2</v>
       </c>
       <c r="AF21" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1.2640734939470093</v>
       </c>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG21" s="1">
+        <f t="shared" si="13"/>
+        <v>1.3679858145441006</v>
+      </c>
+      <c r="AH21" s="1">
+        <f t="shared" si="13"/>
+        <v>1.4473653326976006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
@@ -2085,7 +2381,7 @@
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G22">
         <v>0.18798215384134259</v>
@@ -2099,11 +2395,17 @@
       <c r="J22">
         <v>1.4409157521685667</v>
       </c>
+      <c r="K22">
+        <v>1.5843988133811386</v>
+      </c>
+      <c r="L22">
+        <v>1.8797873881975231</v>
+      </c>
       <c r="Y22" s="2">
         <v>2</v>
       </c>
       <c r="Z22" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA22" s="2" t="s">
         <v>6</v>
@@ -2112,31 +2414,39 @@
         <v>100</v>
       </c>
       <c r="AC22" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5.5260211196447917E-2</v>
       </c>
       <c r="AD22" s="2">
-        <f t="shared" ref="AD22:AF22" si="13">AVERAGE(H18,H24)</f>
+        <f t="shared" ref="AD22:AF22" si="18">AVERAGE(H18,H24)</f>
         <v>5.6507458970582056E-2</v>
       </c>
       <c r="AE22" s="2">
+        <f t="shared" si="18"/>
+        <v>2.4985972357239698E-2</v>
+      </c>
+      <c r="AF22" s="2">
+        <f t="shared" si="18"/>
+        <v>1.2531501122598296</v>
+      </c>
+      <c r="AG22" s="2">
         <f t="shared" si="13"/>
-        <v>2.4985972357239698E-2</v>
-      </c>
-      <c r="AF22" s="2">
+        <v>1.5985591831447235</v>
+      </c>
+      <c r="AH22" s="2">
         <f t="shared" si="13"/>
-        <v>1.2531501122598296</v>
-      </c>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+        <v>1.5831381667373383</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23">
         <v>100</v>
@@ -2145,7 +2455,7 @@
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G23">
         <v>0.21046951403099803</v>
@@ -2159,11 +2469,17 @@
       <c r="J23">
         <v>1.1244273472482478</v>
       </c>
+      <c r="K23">
+        <v>1.2037485840608124</v>
+      </c>
+      <c r="L23">
+        <v>1.1795367652624849</v>
+      </c>
       <c r="Y23" s="1">
         <v>2</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA23" s="1" t="s">
         <v>7</v>
@@ -2172,28 +2488,36 @@
         <v>100</v>
       </c>
       <c r="AC23" s="1">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(G19,G25)</f>
         <v>0.22237345437896094</v>
       </c>
       <c r="AD23" s="1">
-        <f t="shared" ref="AD23:AF23" si="14">AVERAGE(H19,H25)</f>
+        <f t="shared" ref="AD23:AF23" si="19">AVERAGE(H19,H25)</f>
         <v>0.22553175642055184</v>
       </c>
       <c r="AE23" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>8.8449849718028439E-2</v>
       </c>
       <c r="AF23" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.4358394154985801</v>
       </c>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG23" s="1">
+        <f t="shared" si="13"/>
+        <v>1.5068883615521056</v>
+      </c>
+      <c r="AH23" s="1">
+        <f t="shared" si="13"/>
+        <v>1.7995597385432631</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
@@ -2205,7 +2529,7 @@
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G24">
         <v>3.6247875336630465E-2</v>
@@ -2219,14 +2543,20 @@
       <c r="J24">
         <v>1.1103349497653097</v>
       </c>
+      <c r="K24">
+        <v>1.9088388466323689</v>
+      </c>
+      <c r="L24">
+        <v>1.7914765795102268</v>
+      </c>
       <c r="Y24" s="2">
         <v>2</v>
       </c>
       <c r="Z24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA24" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="AA24" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="AB24" s="2">
         <v>0.1</v>
@@ -2236,24 +2566,32 @@
         <v>0.6019702754798083</v>
       </c>
       <c r="AD24" s="1">
-        <f t="shared" ref="AD24:AF24" si="15">AVERAGE(H40:H41)</f>
+        <f t="shared" ref="AD24:AF24" si="20">AVERAGE(H40:H41)</f>
         <v>1.1382086029351339</v>
       </c>
       <c r="AE24" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>1.475942836910664</v>
       </c>
       <c r="AF24" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>1.3457210912533966</v>
       </c>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG24" s="1">
+        <f t="shared" ref="AG24" si="21">AVERAGE(K40:K41)</f>
+        <v>1.102299432142515</v>
+      </c>
+      <c r="AH24" s="1">
+        <f t="shared" ref="AH24" si="22">AVERAGE(L40:L41)</f>
+        <v>0.99818006677862248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
@@ -2265,7 +2603,7 @@
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G25">
         <v>0.29693366819795375</v>
@@ -2279,14 +2617,20 @@
       <c r="J25">
         <v>1.4503506955424115</v>
       </c>
+      <c r="K25">
+        <v>1.1274298168942927</v>
+      </c>
+      <c r="L25">
+        <v>1.3885451094852912</v>
+      </c>
       <c r="Y25" s="1">
         <v>3</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA25" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB25" s="1">
         <v>0.1</v>
@@ -2296,27 +2640,35 @@
         <v>0.83692584840771878</v>
       </c>
       <c r="AD25" s="1">
-        <f t="shared" ref="AD25:AF25" si="16">AVERAGE(H20,H26)</f>
+        <f t="shared" ref="AD25:AF25" si="23">AVERAGE(H20,H26)</f>
         <v>0.51613441224578105</v>
       </c>
       <c r="AE25" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>0.37359239878671069</v>
       </c>
       <c r="AF25" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1.133546250236604</v>
       </c>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG25" s="1">
+        <f t="shared" ref="AG25:AG30" si="24">AVERAGE(K20,K26)</f>
+        <v>0.9291707546041359</v>
+      </c>
+      <c r="AH25" s="1">
+        <f t="shared" ref="AH25:AH30" si="25">AVERAGE(L20,L26)</f>
+        <v>1.0959569522272021</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D26">
         <v>0.1</v>
@@ -2325,7 +2677,7 @@
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G26">
         <v>0.72918672176257271</v>
@@ -2339,11 +2691,17 @@
       <c r="J26">
         <v>1.1921958659863376</v>
       </c>
+      <c r="K26">
+        <v>0.85218038676869579</v>
+      </c>
+      <c r="L26">
+        <v>1.1880335271888922</v>
+      </c>
       <c r="Y26" s="2">
         <v>3</v>
       </c>
       <c r="Z26" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA26" s="2" t="s">
         <v>6</v>
@@ -2356,24 +2714,32 @@
         <v>0.88906574141031514</v>
       </c>
       <c r="AD26" s="1">
-        <f t="shared" ref="AD26:AF26" si="17">AVERAGE(H21,H27)</f>
+        <f t="shared" ref="AD26:AF26" si="26">AVERAGE(H21,H27)</f>
         <v>0.53805620654963449</v>
       </c>
       <c r="AE26" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>0.47156440373431685</v>
       </c>
       <c r="AF26" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>1.1360657053878203</v>
       </c>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG26" s="1">
+        <f t="shared" si="24"/>
+        <v>0.98302999437149985</v>
+      </c>
+      <c r="AH26" s="1">
+        <f t="shared" si="25"/>
+        <v>1.0753036525473896</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -2385,7 +2751,7 @@
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G27">
         <v>0.92662530823741007</v>
@@ -2399,11 +2765,17 @@
       <c r="J27">
         <v>0.81697841076710587</v>
       </c>
+      <c r="K27">
+        <v>0.85809896409476405</v>
+      </c>
+      <c r="L27">
+        <v>0.93764676744555497</v>
+      </c>
       <c r="Y27" s="1">
         <v>3</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA27" s="1" t="s">
         <v>7</v>
@@ -2412,28 +2784,36 @@
         <v>0.1</v>
       </c>
       <c r="AC27" s="1">
-        <f t="shared" ref="AC27:AC30" si="18">AVERAGE(G28,G34)</f>
+        <f t="shared" ref="AC27:AC30" si="27">AVERAGE(G28,G34)</f>
         <v>0.77349240843444211</v>
       </c>
       <c r="AD27" s="2">
-        <f t="shared" ref="AD27:AF27" si="19">AVERAGE(H22,H28)</f>
+        <f t="shared" ref="AD27:AF27" si="28">AVERAGE(H22,H28)</f>
         <v>0.51408662747209355</v>
       </c>
       <c r="AE27" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0.20558275279760085</v>
       </c>
       <c r="AF27" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>1.3130085215076766</v>
       </c>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG27" s="2">
+        <f t="shared" si="24"/>
+        <v>1.3166591601294111</v>
+      </c>
+      <c r="AH27" s="2">
+        <f t="shared" si="25"/>
+        <v>1.6048547370966033</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -2445,7 +2825,7 @@
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G28">
         <v>0.70550128184412875</v>
@@ -2459,44 +2839,58 @@
       <c r="J28">
         <v>1.1851012908467864</v>
       </c>
+      <c r="K28">
+        <v>1.0489195068776838</v>
+      </c>
+      <c r="L28">
+        <v>1.3299220859956835</v>
+      </c>
       <c r="Y28" s="2">
         <v>3</v>
       </c>
       <c r="Z28" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA28" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB28" s="2">
         <v>100</v>
       </c>
       <c r="AC28" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>0.93402301270494181</v>
       </c>
       <c r="AD28" s="1">
-        <f t="shared" ref="AD28:AF28" si="20">AVERAGE(H23,H29)</f>
+        <f t="shared" ref="AD28:AF28" si="29">AVERAGE(H23,H29)</f>
         <v>0.43607198777638512</v>
       </c>
       <c r="AE28" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>0.28988112132334559</v>
       </c>
       <c r="AF28" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>1.1112712545796222</v>
       </c>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG28" s="1">
+        <f t="shared" si="24"/>
+        <v>1.0792750305655159</v>
+      </c>
+      <c r="AH28" s="1">
+        <f t="shared" si="25"/>
+        <v>1.0303390005359256</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D29">
         <v>100</v>
@@ -2505,7 +2899,7 @@
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G29">
         <v>1.0645807008136723</v>
@@ -2519,11 +2913,17 @@
       <c r="J29">
         <v>1.0981151619109963</v>
       </c>
+      <c r="K29">
+        <v>0.95480147707021912</v>
+      </c>
+      <c r="L29">
+        <v>0.88114123580936665</v>
+      </c>
       <c r="Y29" s="1">
         <v>3</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA29" s="1" t="s">
         <v>6</v>
@@ -2532,28 +2932,36 @@
         <v>100</v>
       </c>
       <c r="AC29" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>1.1062600377687439</v>
       </c>
       <c r="AD29" s="1">
-        <f t="shared" ref="AD29:AF29" si="21">AVERAGE(H24,H30)</f>
+        <f t="shared" ref="AD29:AF29" si="30">AVERAGE(H24,H30)</f>
         <v>0.50089439794615143</v>
       </c>
       <c r="AE29" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0.45185114985562475</v>
       </c>
       <c r="AF29" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0.97256148899428219</v>
       </c>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG29" s="1">
+        <f t="shared" si="24"/>
+        <v>1.4118457109943106</v>
+      </c>
+      <c r="AH29" s="1">
+        <f t="shared" si="25"/>
+        <v>1.3702389340535137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
@@ -2565,7 +2973,7 @@
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G30">
         <v>1.2410366547043292</v>
@@ -2579,11 +2987,17 @@
       <c r="J30">
         <v>0.83478802822325482</v>
       </c>
+      <c r="K30">
+        <v>0.91485257535625208</v>
+      </c>
+      <c r="L30">
+        <v>0.94900128859680055</v>
+      </c>
       <c r="Y30" s="2">
         <v>3</v>
       </c>
       <c r="Z30" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA30" s="2" t="s">
         <v>7</v>
@@ -2592,28 +3006,36 @@
         <v>100</v>
       </c>
       <c r="AC30" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>1.0045900495800446</v>
       </c>
       <c r="AD30" s="2">
-        <f t="shared" ref="AD30:AF30" si="22">AVERAGE(H25,H31)</f>
+        <f t="shared" ref="AD30:AF30" si="31">AVERAGE(H25,H31)</f>
         <v>0.57185909214126418</v>
       </c>
       <c r="AE30" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>0.47242294654253225</v>
       </c>
       <c r="AF30" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>1.096127060858995</v>
       </c>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG30" s="2">
+        <f t="shared" si="24"/>
+        <v>1.018324253350315</v>
+      </c>
+      <c r="AH30" s="2">
+        <f t="shared" si="25"/>
+        <v>1.1677899470865736</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
@@ -2625,7 +3047,7 @@
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G31">
         <v>1.0077737222523606</v>
@@ -2639,14 +3061,20 @@
       <c r="J31">
         <v>0.74190342617557858</v>
       </c>
+      <c r="K31">
+        <v>0.90921868980633724</v>
+      </c>
+      <c r="L31">
+        <v>0.94703478468785596</v>
+      </c>
       <c r="Y31" s="1">
         <v>3</v>
       </c>
       <c r="Z31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA31" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="AA31" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="AB31" s="1">
         <v>0.1</v>
@@ -2656,27 +3084,35 @@
         <v>0.51962577460668224</v>
       </c>
       <c r="AD31" s="1">
-        <f t="shared" ref="AD31:AF31" si="23">AVERAGE(H42:H43)</f>
+        <f t="shared" ref="AD31:AF31" si="32">AVERAGE(H42:H43)</f>
         <v>0.94641451009635436</v>
       </c>
       <c r="AE31" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>0.94794813781524201</v>
       </c>
       <c r="AF31" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>1.4612955836560211</v>
       </c>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG31" s="1">
+        <f t="shared" ref="AG31" si="33">AVERAGE(K42:K43)</f>
+        <v>1.2405818075985968</v>
+      </c>
+      <c r="AH31" s="1">
+        <f t="shared" ref="AH31" si="34">AVERAGE(L42:L43)</f>
+        <v>1.0873787247169562</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D32">
         <v>0.1</v>
@@ -2685,7 +3121,7 @@
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G32">
         <v>0.94466497505286484</v>
@@ -2699,13 +3135,19 @@
       <c r="J32">
         <v>1.096461529022732</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <v>0.83211025499803037</v>
+      </c>
+      <c r="L32">
+        <v>1.0636048536689533</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
@@ -2717,7 +3159,7 @@
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G33">
         <v>0.8515061745832202</v>
@@ -2731,13 +3173,19 @@
       <c r="J33">
         <v>0.97190914984487797</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33">
+        <v>0.9046435132245586</v>
+      </c>
+      <c r="L33">
+        <v>1.1248003557443784</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
@@ -2749,7 +3197,7 @@
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G34">
         <v>0.84148353502475559</v>
@@ -2763,16 +3211,22 @@
       <c r="J34">
         <v>1.0377629562131556</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34">
+        <v>0.88784515633569594</v>
+      </c>
+      <c r="L34">
+        <v>1.1660761224751257</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D35">
         <v>100</v>
@@ -2781,7 +3235,7 @@
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G35">
         <v>0.80346532459621123</v>
@@ -2795,13 +3249,19 @@
       <c r="J35">
         <v>1.0778460999933452</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35">
+        <v>0.95657185805278333</v>
+      </c>
+      <c r="L35">
+        <v>1.1069552660272901</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C36" t="s">
         <v>6</v>
@@ -2813,7 +3273,7 @@
         <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G36">
         <v>0.97148342083315886</v>
@@ -2827,13 +3287,19 @@
       <c r="J36">
         <v>0.89636466502125312</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36">
+        <v>0.89973607259631516</v>
+      </c>
+      <c r="L36">
+        <v>0.97298292253335161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
@@ -2845,7 +3311,7 @@
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G37">
         <v>1.0014063769077286</v>
@@ -2859,16 +3325,22 @@
       <c r="J37">
         <v>0.77961753209437812</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37">
+        <v>0.85095882301169168</v>
+      </c>
+      <c r="L37">
+        <v>0.97660242536366759</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
       <c r="B38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" t="s">
         <v>56</v>
-      </c>
-      <c r="C38" t="s">
-        <v>57</v>
       </c>
       <c r="D38">
         <v>0.1</v>
@@ -2877,7 +3349,7 @@
         <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G38">
         <v>0.68008447704234487</v>
@@ -2891,16 +3363,22 @@
       <c r="J38">
         <v>1.1509076088370243</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38">
+        <v>1.0636726583437464</v>
+      </c>
+      <c r="L38">
+        <v>0.86453672197037856</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
       <c r="B39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" t="s">
         <v>56</v>
-      </c>
-      <c r="C39" t="s">
-        <v>57</v>
       </c>
       <c r="D39">
         <v>0.1</v>
@@ -2909,7 +3387,7 @@
         <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G39">
         <v>0.19942376817268223</v>
@@ -2923,16 +3401,22 @@
       <c r="J39">
         <v>1.738198805044417</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39">
+        <v>0.52541729784120095</v>
+      </c>
+      <c r="L39">
+        <v>0.14435193764977156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2</v>
       </c>
       <c r="B40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" t="s">
         <v>56</v>
-      </c>
-      <c r="C40" t="s">
-        <v>57</v>
       </c>
       <c r="D40">
         <v>0.1</v>
@@ -2941,7 +3425,7 @@
         <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G40">
         <v>0.53458986116921337</v>
@@ -2955,16 +3439,22 @@
       <c r="J40">
         <v>1.3366737140572904</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40">
+        <v>1.0966402089845089</v>
+      </c>
+      <c r="L40">
+        <v>0.99304228118421234</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2</v>
       </c>
       <c r="B41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" t="s">
         <v>56</v>
-      </c>
-      <c r="C41" t="s">
-        <v>57</v>
       </c>
       <c r="D41">
         <v>0.1</v>
@@ -2973,7 +3463,7 @@
         <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G41">
         <v>0.66935068979040324</v>
@@ -2987,16 +3477,22 @@
       <c r="J41">
         <v>1.3547684684495029</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41">
+        <v>1.107958655300521</v>
+      </c>
+      <c r="L41">
+        <v>1.0033178523730326</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3</v>
       </c>
       <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" t="s">
         <v>56</v>
-      </c>
-      <c r="C42" t="s">
-        <v>57</v>
       </c>
       <c r="D42">
         <v>0.1</v>
@@ -3005,7 +3501,7 @@
         <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G42">
         <v>0.6126179152479172</v>
@@ -3019,16 +3515,22 @@
       <c r="J42">
         <v>1.2532472062421003</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42">
+        <v>1.1733255975580237</v>
+      </c>
+      <c r="L42">
+        <v>0.9841683002405851</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3</v>
       </c>
       <c r="B43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" t="s">
         <v>56</v>
-      </c>
-      <c r="C43" t="s">
-        <v>57</v>
       </c>
       <c r="D43">
         <v>0.1</v>
@@ -3037,7 +3539,7 @@
         <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G43">
         <v>0.42663363396544729</v>
@@ -3050,6 +3552,12 @@
       </c>
       <c r="J43">
         <v>1.6693439610699419</v>
+      </c>
+      <c r="K43">
+        <v>1.30783801763917</v>
+      </c>
+      <c r="L43">
+        <v>1.1905891491933274</v>
       </c>
     </row>
   </sheetData>
@@ -3064,23 +3572,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B02CF51-5187-4B53-8E13-4B1ED98A1456}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -3089,47 +3597,1678 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="I1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2">
+        <v>0.1</v>
+      </c>
+      <c r="E2">
+        <v>0.28689521037102911</v>
+      </c>
+      <c r="F2">
+        <v>0.27022615466399769</v>
+      </c>
+      <c r="G2">
+        <v>0.19612937569316419</v>
+      </c>
+      <c r="H2">
+        <v>1.2794798519850634</v>
+      </c>
+      <c r="I2">
+        <v>1.364815209035438</v>
+      </c>
+      <c r="J2">
+        <v>1.2503922596802464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>0.1</v>
+      </c>
+      <c r="E3">
+        <v>0.15008787518795649</v>
+      </c>
+      <c r="F3">
+        <v>0.16684891915212</v>
+      </c>
+      <c r="G3">
+        <v>9.7389984722547618E-2</v>
+      </c>
+      <c r="H3">
+        <v>0.99248119230965992</v>
+      </c>
+      <c r="I3">
+        <v>1.2911876173328276</v>
+      </c>
+      <c r="J3">
+        <v>1.1855098231618446</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>0.1</v>
+      </c>
+      <c r="E4">
+        <v>0.13597041129199006</v>
+      </c>
+      <c r="F4">
+        <v>0.15209349657235291</v>
+      </c>
+      <c r="G4">
+        <v>8.6128608624427005E-2</v>
+      </c>
+      <c r="H4">
+        <v>1.3356336701614802</v>
+      </c>
+      <c r="I4">
+        <v>1.8046290424445104</v>
+      </c>
+      <c r="J4">
+        <v>2.1405331413286022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
         <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>3.8795102434323242E-2</v>
+      </c>
+      <c r="F5">
+        <v>2.7796260779966244E-2</v>
+      </c>
+      <c r="G5">
+        <v>1.6365129847331097E-2</v>
+      </c>
+      <c r="H5">
+        <v>0.67486444922395816</v>
+      </c>
+      <c r="I5">
+        <v>1.7751228556474941</v>
+      </c>
+      <c r="J5">
+        <v>1.070451811949221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>0.22191448631139654</v>
+      </c>
+      <c r="F6">
+        <v>0.26401312170395269</v>
+      </c>
+      <c r="G6">
+        <v>0.15335188999965108</v>
+      </c>
+      <c r="H6">
+        <v>1.5151877025790086</v>
+      </c>
+      <c r="I6">
+        <v>1.4262679056956662</v>
+      </c>
+      <c r="J6">
+        <v>1.560264053223118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>0.13697772051619456</v>
+      </c>
+      <c r="F7">
+        <v>0.17168410142202084</v>
+      </c>
+      <c r="G7">
+        <v>9.1631050421084922E-2</v>
+      </c>
+      <c r="H7">
+        <v>1.0352778735180426</v>
+      </c>
+      <c r="I7">
+        <v>1.2582279641595804</v>
+      </c>
+      <c r="J7">
+        <v>1.4559172118827153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8">
+        <v>0.1</v>
+      </c>
+      <c r="E8">
+        <v>0.43975412260751356</v>
+      </c>
+      <c r="F8">
+        <v>0.70246176157041873</v>
+      </c>
+      <c r="G8">
+        <v>1.0756831382274579</v>
+      </c>
+      <c r="H8">
+        <v>1.4445532069407205</v>
+      </c>
+      <c r="I8">
+        <v>0.7945449780924736</v>
+      </c>
+      <c r="J8">
+        <v>0.50444432981007503</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9">
+        <v>0.1</v>
+      </c>
+      <c r="E9">
+        <v>0.27930108691509004</v>
+      </c>
+      <c r="F9">
+        <v>0.24241527159586684</v>
+      </c>
+      <c r="G9">
+        <v>0.1888209658547422</v>
+      </c>
+      <c r="H9">
+        <v>1.0905732372959951</v>
+      </c>
+      <c r="I9">
+        <v>1.1297236354088531</v>
+      </c>
+      <c r="J9">
+        <v>1.1101855114849379</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>0.1</v>
+      </c>
+      <c r="E10">
+        <v>0.22085908751344979</v>
+      </c>
+      <c r="F10">
+        <v>0.21812191431598543</v>
+      </c>
+      <c r="G10">
+        <v>0.13627493483230119</v>
+      </c>
+      <c r="H10">
+        <v>1.415147955479829</v>
+      </c>
+      <c r="I10">
+        <v>1.2087700411049518</v>
+      </c>
+      <c r="J10">
+        <v>1.3372643045164261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>0.1</v>
+      </c>
+      <c r="E11">
+        <v>0.16337488611861595</v>
+      </c>
+      <c r="F11">
+        <v>0.19599452955587818</v>
+      </c>
+      <c r="G11">
+        <v>6.3003950349280233E-2</v>
+      </c>
+      <c r="H11">
+        <v>1.3599372596995611</v>
+      </c>
+      <c r="I11">
+        <v>1.5398208274816398</v>
+      </c>
+      <c r="J11">
+        <v>1.7354225139602659</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <v>0.12963411529321747</v>
+      </c>
+      <c r="F12">
+        <v>9.4315670842440733E-2</v>
+      </c>
+      <c r="G12">
+        <v>5.1677304875675387E-2</v>
+      </c>
+      <c r="H12">
+        <v>1.2640734939470093</v>
+      </c>
+      <c r="I12">
+        <v>1.3679858145441006</v>
+      </c>
+      <c r="J12">
+        <v>1.4473653326976006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <v>5.5260211196447917E-2</v>
+      </c>
+      <c r="F13">
+        <v>5.6507458970582056E-2</v>
+      </c>
+      <c r="G13">
+        <v>2.4985972357239698E-2</v>
+      </c>
+      <c r="H13">
+        <v>1.2531501122598296</v>
+      </c>
+      <c r="I13">
+        <v>1.5985591831447235</v>
+      </c>
+      <c r="J13">
+        <v>1.5831381667373383</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14">
+        <v>0.22237345437896094</v>
+      </c>
+      <c r="F14">
+        <v>0.22553175642055184</v>
+      </c>
+      <c r="G14">
+        <v>8.8449849718028439E-2</v>
+      </c>
+      <c r="H14">
+        <v>1.4358394154985801</v>
+      </c>
+      <c r="I14">
+        <v>1.5068883615521056</v>
+      </c>
+      <c r="J14">
+        <v>1.7995597385432631</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15">
+        <v>0.1</v>
+      </c>
+      <c r="E15">
+        <v>0.6019702754798083</v>
+      </c>
+      <c r="F15">
+        <v>1.1382086029351339</v>
+      </c>
+      <c r="G15">
+        <v>1.475942836910664</v>
+      </c>
+      <c r="H15">
+        <v>1.3457210912533966</v>
+      </c>
+      <c r="I15">
+        <v>1.102299432142515</v>
+      </c>
+      <c r="J15">
+        <v>0.99818006677862248</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16">
+        <v>0.1</v>
+      </c>
+      <c r="E16">
+        <v>0.83692584840771878</v>
+      </c>
+      <c r="F16">
+        <v>0.51613441224578105</v>
+      </c>
+      <c r="G16">
+        <v>0.37359239878671069</v>
+      </c>
+      <c r="H16">
+        <v>1.133546250236604</v>
+      </c>
+      <c r="I16">
+        <v>0.9291707546041359</v>
+      </c>
+      <c r="J16">
+        <v>1.0959569522272021</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>0.1</v>
+      </c>
+      <c r="E17">
+        <v>0.88906574141031514</v>
+      </c>
+      <c r="F17">
+        <v>0.53805620654963449</v>
+      </c>
+      <c r="G17">
+        <v>0.47156440373431685</v>
+      </c>
+      <c r="H17">
+        <v>1.1360657053878203</v>
+      </c>
+      <c r="I17">
+        <v>0.98302999437149985</v>
+      </c>
+      <c r="J17">
+        <v>1.0753036525473896</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>0.1</v>
+      </c>
+      <c r="E18">
+        <v>0.77349240843444211</v>
+      </c>
+      <c r="F18">
+        <v>0.51408662747209355</v>
+      </c>
+      <c r="G18">
+        <v>0.20558275279760085</v>
+      </c>
+      <c r="H18">
+        <v>1.3130085215076766</v>
+      </c>
+      <c r="I18">
+        <v>1.3166591601294111</v>
+      </c>
+      <c r="J18">
+        <v>1.6048547370966033</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19">
+        <v>100</v>
+      </c>
+      <c r="E19">
+        <v>0.93402301270494181</v>
+      </c>
+      <c r="F19">
+        <v>0.43607198777638512</v>
+      </c>
+      <c r="G19">
+        <v>0.28988112132334559</v>
+      </c>
+      <c r="H19">
+        <v>1.1112712545796222</v>
+      </c>
+      <c r="I19">
+        <v>1.0792750305655159</v>
+      </c>
+      <c r="J19">
+        <v>1.0303390005359256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>100</v>
+      </c>
+      <c r="E20">
+        <v>1.1062600377687439</v>
+      </c>
+      <c r="F20">
+        <v>0.50089439794615143</v>
+      </c>
+      <c r="G20">
+        <v>0.45185114985562475</v>
+      </c>
+      <c r="H20">
+        <v>0.97256148899428219</v>
+      </c>
+      <c r="I20">
+        <v>1.4118457109943106</v>
+      </c>
+      <c r="J20">
+        <v>1.3702389340535137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>100</v>
+      </c>
+      <c r="E21">
+        <v>1.0045900495800446</v>
+      </c>
+      <c r="F21">
+        <v>0.57185909214126418</v>
+      </c>
+      <c r="G21">
+        <v>0.47242294654253225</v>
+      </c>
+      <c r="H21">
+        <v>1.096127060858995</v>
+      </c>
+      <c r="I21">
+        <v>1.018324253350315</v>
+      </c>
+      <c r="J21">
+        <v>1.1677899470865736</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22">
+        <v>0.1</v>
+      </c>
+      <c r="E22">
+        <v>0.51962577460668224</v>
+      </c>
+      <c r="F22">
+        <v>0.94641451009635436</v>
+      </c>
+      <c r="G22">
+        <v>0.94794813781524201</v>
+      </c>
+      <c r="H22">
+        <v>1.4612955836560211</v>
+      </c>
+      <c r="I22">
+        <v>1.2405818075985968</v>
+      </c>
+      <c r="J22">
+        <v>1.0873787247169562</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609E32FF-4F93-454B-830C-59719C58BF3B}">
+  <dimension ref="A1:R20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:R20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="13" max="13" width="22.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
       </c>
       <c r="C2" t="s">
         <v>57</v>
       </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3">
+        <v>0.1</v>
+      </c>
+      <c r="E3">
+        <v>1.2794798519850634</v>
+      </c>
+      <c r="F3">
+        <v>1.364815209035438</v>
+      </c>
+      <c r="G3">
+        <v>1.2503922596802464</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3">
+        <v>0.1</v>
+      </c>
+      <c r="P3">
+        <f>E3/E$3</f>
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:R3" si="0">F3/F$3</f>
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>0.1</v>
+      </c>
+      <c r="E4">
+        <v>0.99248119230965992</v>
+      </c>
+      <c r="F4">
+        <v>1.2911876173328276</v>
+      </c>
+      <c r="G4">
+        <v>1.1855098231618446</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4">
+        <v>0.1</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P5" si="1">E4/$E$3</f>
+        <v>0.7756911457182103</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q5" si="2">F4/$E$3</f>
+        <v>1.0091504100901629</v>
+      </c>
+      <c r="R4">
+        <f t="shared" ref="R4:R5" si="3">G4/$E$3</f>
+        <v>0.92655606989244266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>0.1</v>
+      </c>
+      <c r="E5">
+        <v>1.3356336701614802</v>
+      </c>
+      <c r="F5">
+        <v>1.8046290424445104</v>
+      </c>
+      <c r="G5">
+        <v>2.1405331413286022</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5">
+        <v>0.1</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>1.0438880050274306</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="2"/>
+        <v>1.4104395935932077</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="3"/>
+        <v>1.6729713547326657</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>0.67486444922395816</v>
+      </c>
+      <c r="F6">
+        <v>1.7751228556474941</v>
+      </c>
+      <c r="G6">
+        <v>1.070451811949221</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6">
+        <v>100</v>
+      </c>
+      <c r="P6">
+        <f>E6/E$6</f>
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" ref="Q6:R6" si="4">F6/F$6</f>
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>1.5151877025790086</v>
+      </c>
+      <c r="F7">
+        <v>1.4262679056956662</v>
+      </c>
+      <c r="G7">
+        <v>1.560264053223118</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7">
+        <v>100</v>
+      </c>
+      <c r="P7">
+        <f t="shared" ref="P7:P8" si="5">E7/$E$6</f>
+        <v>2.2451733889988681</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" ref="Q7:Q8" si="6">F7/$E$6</f>
+        <v>2.113413897169667</v>
+      </c>
+      <c r="R7">
+        <f t="shared" ref="R7:R8" si="7">G7/$E$6</f>
+        <v>2.3119665808701302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>1.0352778735180426</v>
+      </c>
+      <c r="F8">
+        <v>1.2582279641595804</v>
+      </c>
+      <c r="G8">
+        <v>1.4559172118827153</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>54</v>
+      </c>
+      <c r="N8" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8">
+        <v>100</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="5"/>
+        <v>1.5340530601493854</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="6"/>
+        <v>1.8644158328482781</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="7"/>
+        <v>2.1573476178170408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9">
+        <v>0.1</v>
+      </c>
+      <c r="E9">
+        <v>1.0905732372959951</v>
+      </c>
+      <c r="F9">
+        <v>1.1297236354088531</v>
+      </c>
+      <c r="G9">
+        <v>1.1101855114849379</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" t="s">
+        <v>56</v>
+      </c>
+      <c r="O9">
+        <v>0.1</v>
+      </c>
+      <c r="P9">
+        <f>E9/E$9</f>
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" ref="Q9:R9" si="8">F9/F$9</f>
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>0.1</v>
+      </c>
+      <c r="E10">
+        <v>1.415147955479829</v>
+      </c>
+      <c r="F10">
+        <v>1.2087700411049518</v>
+      </c>
+      <c r="G10">
+        <v>1.3372643045164261</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N10" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10">
+        <v>0.1</v>
+      </c>
+      <c r="P10">
+        <f t="shared" ref="P10:P11" si="9">E10/$E$9</f>
+        <v>1.2976184515481011</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" ref="Q10:Q11" si="10">F10/$E$9</f>
+        <v>1.1083804367893879</v>
+      </c>
+      <c r="R10">
+        <f t="shared" ref="R10:R11" si="11">G10/$E$9</f>
+        <v>1.2262031184921476</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>0.1</v>
+      </c>
+      <c r="E11">
+        <v>1.3599372596995611</v>
+      </c>
+      <c r="F11">
+        <v>1.5398208274816398</v>
+      </c>
+      <c r="G11">
+        <v>1.7354225139602659</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11" t="s">
+        <v>52</v>
+      </c>
+      <c r="N11" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11">
+        <v>0.1</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="9"/>
+        <v>1.2469930612559652</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="10"/>
+        <v>1.4119371123570983</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="11"/>
+        <v>1.5912938761115507</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <v>1.2640734939470093</v>
+      </c>
+      <c r="F12">
+        <v>1.3679858145441006</v>
+      </c>
+      <c r="G12">
+        <v>1.4473653326976006</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N12" t="s">
+        <v>56</v>
+      </c>
+      <c r="O12">
+        <v>100</v>
+      </c>
+      <c r="P12">
+        <f>E12/E$12</f>
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" ref="Q12:R12" si="12">F12/F$12</f>
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <v>1.2531501122598296</v>
+      </c>
+      <c r="F13">
+        <v>1.5985591831447235</v>
+      </c>
+      <c r="G13">
+        <v>1.5831381667373383</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13" t="s">
+        <v>53</v>
+      </c>
+      <c r="N13" t="s">
+        <v>6</v>
+      </c>
+      <c r="O13">
+        <v>100</v>
+      </c>
+      <c r="P13">
+        <f t="shared" ref="P13:P14" si="13">E13/$E$12</f>
+        <v>0.99135858655411568</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" ref="Q13:Q14" si="14">F13/$E$12</f>
+        <v>1.2646093686794257</v>
+      </c>
+      <c r="R13">
+        <f t="shared" ref="R13:R14" si="15">G13/$E$12</f>
+        <v>1.2524099067958974</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14">
+        <v>1.4358394154985801</v>
+      </c>
+      <c r="F14">
+        <v>1.5068883615521056</v>
+      </c>
+      <c r="G14">
+        <v>1.7995597385432631</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14" t="s">
+        <v>54</v>
+      </c>
+      <c r="N14" t="s">
+        <v>7</v>
+      </c>
+      <c r="O14">
+        <v>100</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="13"/>
+        <v>1.1358828599555868</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="14"/>
+        <v>1.1920892011167155</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="15"/>
+        <v>1.4236195499394766</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15">
+        <v>0.1</v>
+      </c>
+      <c r="E15">
+        <v>1.133546250236604</v>
+      </c>
+      <c r="F15">
+        <v>0.9291707546041359</v>
+      </c>
+      <c r="G15">
+        <v>1.0959569522272021</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="M15" t="s">
+        <v>49</v>
+      </c>
+      <c r="N15" t="s">
+        <v>56</v>
+      </c>
+      <c r="O15">
+        <v>0.1</v>
+      </c>
+      <c r="P15">
+        <f>E15/E$15</f>
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" ref="Q15:R15" si="16">F15/F$15</f>
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>0.1</v>
+      </c>
+      <c r="E16">
+        <v>1.1360657053878203</v>
+      </c>
+      <c r="F16">
+        <v>0.98302999437149985</v>
+      </c>
+      <c r="G16">
+        <v>1.0753036525473896</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="M16" t="s">
+        <v>51</v>
+      </c>
+      <c r="N16" t="s">
+        <v>6</v>
+      </c>
+      <c r="O16">
+        <v>0.1</v>
+      </c>
+      <c r="P16">
+        <f t="shared" ref="P16:P17" si="17">E16/$E$15</f>
+        <v>1.0022226311018985</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" ref="Q16:Q17" si="18">F16/$E$15</f>
+        <v>0.8672164846968643</v>
+      </c>
+      <c r="R16">
+        <f t="shared" ref="R16:R17" si="19">G16/$E$15</f>
+        <v>0.94861912544189742</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>0.1</v>
+      </c>
+      <c r="E17">
+        <v>1.3130085215076766</v>
+      </c>
+      <c r="F17">
+        <v>1.3166591601294111</v>
+      </c>
+      <c r="G17">
+        <v>1.6048547370966033</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17" t="s">
+        <v>52</v>
+      </c>
+      <c r="N17" t="s">
+        <v>7</v>
+      </c>
+      <c r="O17">
+        <v>0.1</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="17"/>
+        <v>1.1583193197750983</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="18"/>
+        <v>1.1615398664629573</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="19"/>
+        <v>1.4157823174498823</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18">
+        <v>100</v>
+      </c>
+      <c r="E18">
+        <v>1.1112712545796222</v>
+      </c>
+      <c r="F18">
+        <v>1.0792750305655159</v>
+      </c>
+      <c r="G18">
+        <v>1.0303390005359256</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="M18" t="s">
+        <v>50</v>
+      </c>
+      <c r="N18" t="s">
+        <v>56</v>
+      </c>
+      <c r="O18">
+        <v>100</v>
+      </c>
+      <c r="P18">
+        <f>E18/E$18</f>
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" ref="Q18:R18" si="20">F18/F$18</f>
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>100</v>
+      </c>
+      <c r="E19">
+        <v>0.97256148899428219</v>
+      </c>
+      <c r="F19">
+        <v>1.4118457109943106</v>
+      </c>
+      <c r="G19">
+        <v>1.3702389340535137</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="M19" t="s">
+        <v>53</v>
+      </c>
+      <c r="N19" t="s">
+        <v>6</v>
+      </c>
+      <c r="O19">
+        <v>100</v>
+      </c>
+      <c r="P19">
+        <f t="shared" ref="P19:P20" si="21">E19/$E$18</f>
+        <v>0.87517920128527771</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" ref="Q19:Q20" si="22">F19/$E$18</f>
+        <v>1.2704780270127578</v>
+      </c>
+      <c r="R19">
+        <f t="shared" ref="R19:R20" si="23">G19/$E$18</f>
+        <v>1.2330373240616714</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>100</v>
+      </c>
+      <c r="E20">
+        <v>1.096127060858995</v>
+      </c>
+      <c r="F20">
+        <v>1.018324253350315</v>
+      </c>
+      <c r="G20">
+        <v>1.1677899470865736</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="M20" t="s">
+        <v>54</v>
+      </c>
+      <c r="N20" t="s">
+        <v>7</v>
+      </c>
+      <c r="O20">
+        <v>100</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="21"/>
+        <v>0.98637218981574759</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="22"/>
+        <v>0.91635975388883095</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="23"/>
+        <v>1.0508594929222133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{775E79B0-2923-48BE-94DD-57D5267F2EA9}">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
       <c r="D2">
         <v>0.1</v>
       </c>
       <c r="E2">
-        <v>0.28689521037102911</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.27022615466399769</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.19612937569316419</v>
-      </c>
-      <c r="H2">
-        <v>1.2794798519850634</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -3138,24 +5277,21 @@
         <v>0.1</v>
       </c>
       <c r="E3">
-        <v>0.15008787518795649</v>
+        <v>0.7756911457182103</v>
       </c>
       <c r="F3">
-        <v>0.16684891915212</v>
+        <v>1.0091504100901629</v>
       </c>
       <c r="G3">
-        <v>9.7389984722547618E-2</v>
-      </c>
-      <c r="H3">
-        <v>0.99248119230965992</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.92655606989244266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -3164,50 +5300,44 @@
         <v>0.1</v>
       </c>
       <c r="E4">
-        <v>0.13597041129199006</v>
+        <v>1.0438880050274306</v>
       </c>
       <c r="F4">
-        <v>0.15209349657235291</v>
+        <v>1.4104395935932077</v>
       </c>
       <c r="G4">
-        <v>8.6128608624427005E-2</v>
-      </c>
-      <c r="H4">
-        <v>1.3356336701614802</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.6729713547326657</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5">
         <v>100</v>
       </c>
       <c r="E5">
-        <v>3.8795102434323242E-2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>2.7796260779966244E-2</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.6365129847331097E-2</v>
-      </c>
-      <c r="H5">
-        <v>0.67486444922395816</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -3216,24 +5346,21 @@
         <v>100</v>
       </c>
       <c r="E6">
-        <v>0.22191448631139654</v>
+        <v>2.2451733889988681</v>
       </c>
       <c r="F6">
-        <v>0.26401312170395269</v>
+        <v>2.113413897169667</v>
       </c>
       <c r="G6">
-        <v>0.15335188999965108</v>
-      </c>
-      <c r="H6">
-        <v>1.5151877025790086</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2.3119665808701302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -3242,71 +5369,62 @@
         <v>100</v>
       </c>
       <c r="E7">
-        <v>0.13697772051619456</v>
+        <v>1.5340530601493854</v>
       </c>
       <c r="F7">
-        <v>0.17168410142202084</v>
+        <v>1.8644158328482781</v>
       </c>
       <c r="G7">
-        <v>9.1631050421084922E-2</v>
-      </c>
-      <c r="H7">
-        <v>1.0352778735180426</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2.1573476178170408</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
         <v>56</v>
       </c>
-      <c r="C8" t="s">
-        <v>57</v>
-      </c>
       <c r="D8">
         <v>0.1</v>
       </c>
       <c r="E8">
-        <v>0.43975412260751356</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.70246176157041873</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>1.0756831382274579</v>
-      </c>
-      <c r="H8">
-        <v>1.4445532069407205</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <v>0.1</v>
       </c>
       <c r="E9">
-        <v>0.27930108691509004</v>
+        <v>1.2976184515481011</v>
       </c>
       <c r="F9">
-        <v>0.24241527159586684</v>
+        <v>1.1083804367893879</v>
       </c>
       <c r="G9">
-        <v>0.1888209658547422</v>
-      </c>
-      <c r="H9">
-        <v>1.0905732372959951</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.2262031184921476</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -3314,77 +5432,68 @@
         <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <v>0.1</v>
       </c>
       <c r="E10">
-        <v>0.22085908751344979</v>
+        <v>1.2469930612559652</v>
       </c>
       <c r="F10">
-        <v>0.21812191431598543</v>
+        <v>1.4119371123570983</v>
       </c>
       <c r="G10">
-        <v>0.13627493483230119</v>
-      </c>
-      <c r="H10">
-        <v>1.415147955479829</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.5912938761115507</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="D11">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="E11">
-        <v>0.16337488611861595</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.19599452955587818</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>6.3003950349280233E-2</v>
-      </c>
-      <c r="H11">
-        <v>1.3599372596995611</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="D12">
         <v>100</v>
       </c>
       <c r="E12">
-        <v>0.12963411529321747</v>
+        <v>0.99135858655411568</v>
       </c>
       <c r="F12">
-        <v>9.4315670842440733E-2</v>
+        <v>1.2646093686794257</v>
       </c>
       <c r="G12">
-        <v>5.1677304875675387E-2</v>
-      </c>
-      <c r="H12">
-        <v>1.2640734939470093</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.2524099067958974</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -3392,129 +5501,114 @@
         <v>54</v>
       </c>
       <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <v>1.1358828599555868</v>
+      </c>
+      <c r="F13">
+        <v>1.1920892011167155</v>
+      </c>
+      <c r="G13">
+        <v>1.4236195499394766</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14">
+        <v>0.1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
         <v>6</v>
       </c>
-      <c r="D13">
-        <v>100</v>
-      </c>
-      <c r="E13">
-        <v>5.5260211196447917E-2</v>
-      </c>
-      <c r="F13">
-        <v>5.6507458970582056E-2</v>
-      </c>
-      <c r="G13">
-        <v>2.4985972357239698E-2</v>
-      </c>
-      <c r="H13">
-        <v>1.2531501122598296</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14">
-        <v>100</v>
-      </c>
-      <c r="E14">
-        <v>0.22237345437896094</v>
-      </c>
-      <c r="F14">
-        <v>0.22553175642055184</v>
-      </c>
-      <c r="G14">
-        <v>8.8449849718028439E-2</v>
-      </c>
-      <c r="H14">
-        <v>1.4358394154985801</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" t="s">
-        <v>57</v>
-      </c>
       <c r="D15">
         <v>0.1</v>
       </c>
       <c r="E15">
-        <v>0.6019702754798083</v>
+        <v>1.0022226311018985</v>
       </c>
       <c r="F15">
-        <v>1.1382086029351339</v>
+        <v>0.8672164846968643</v>
       </c>
       <c r="G15">
-        <v>1.475942836910664</v>
-      </c>
-      <c r="H15">
-        <v>1.3457210912533966</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.94861912544189742</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="D16">
         <v>0.1</v>
       </c>
       <c r="E16">
-        <v>0.55801457755122397</v>
+        <v>1.1583193197750983</v>
       </c>
       <c r="F16">
-        <v>0.51613441224578105</v>
+        <v>1.1615398664629573</v>
       </c>
       <c r="G16">
-        <v>0.37359239878671069</v>
-      </c>
-      <c r="H16">
-        <v>1.133546250236604</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.4157823174498823</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D17">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="E17">
-        <v>0.5968358519352378</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.53805620654963449</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.47156440373431685</v>
-      </c>
-      <c r="H17">
-        <v>1.1360657053878203</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
@@ -3522,126 +5616,42 @@
         <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="E18">
-        <v>0.44674171784273564</v>
+        <v>0.87517920128527771</v>
       </c>
       <c r="F18">
-        <v>0.51408662747209355</v>
+        <v>1.2704780270127578</v>
       </c>
       <c r="G18">
-        <v>0.20558275279760085</v>
-      </c>
-      <c r="H18">
-        <v>1.3130085215076766</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.2330373240616714</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="D19">
         <v>100</v>
       </c>
       <c r="E19">
-        <v>0.63752510742233515</v>
+        <v>0.98637218981574759</v>
       </c>
       <c r="F19">
-        <v>0.43607198777638512</v>
+        <v>0.91635975388883095</v>
       </c>
       <c r="G19">
-        <v>0.28988112132334559</v>
-      </c>
-      <c r="H19">
-        <v>1.1112712545796222</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20">
-        <v>100</v>
-      </c>
-      <c r="E20">
-        <v>0.63864226502047983</v>
-      </c>
-      <c r="F20">
-        <v>0.50089439794615143</v>
-      </c>
-      <c r="G20">
-        <v>0.45185114985562475</v>
-      </c>
-      <c r="H20">
-        <v>0.97256148899428219</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>3</v>
-      </c>
-      <c r="B21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21">
-        <v>100</v>
-      </c>
-      <c r="E21">
-        <v>0.65235369522515718</v>
-      </c>
-      <c r="F21">
-        <v>0.57185909214126418</v>
-      </c>
-      <c r="G21">
-        <v>0.47242294654253225</v>
-      </c>
-      <c r="H21">
-        <v>1.096127060858995</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>3</v>
-      </c>
-      <c r="B22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22">
-        <v>0.1</v>
-      </c>
-      <c r="E22">
-        <v>0.51962577460668224</v>
-      </c>
-      <c r="F22">
-        <v>0.94641451009635436</v>
-      </c>
-      <c r="G22">
-        <v>0.94794813781524201</v>
-      </c>
-      <c r="H22">
-        <v>1.4612955836560211</v>
+        <v>1.0508594929222133</v>
       </c>
     </row>
   </sheetData>

--- a/HNM qPCR Summary.xlsx
+++ b/HNM qPCR Summary.xlsx
@@ -8,16 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/spet4768_ox_ac_uk/Documents/Desktop/Results/HNM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="413" documentId="11_F25DC773A252ABDACC1048A9519B73345BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50725EA7-AA20-46D5-B4B4-4ADD83343241}"/>
+  <xr:revisionPtr revIDLastSave="475" documentId="11_F25DC773A252ABDACC1048A9519B73345BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF23FB0C-1ED4-4C95-9761-6EA207CABDAD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Averages" sheetId="1" r:id="rId1"/>
     <sheet name="For R" sheetId="2" r:id="rId2"/>
-    <sheet name="Normalised to Control" sheetId="3" r:id="rId3"/>
-    <sheet name="Normalised to Control for R" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Averages!$K$2:$K$43</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Averages!$J$2:$J$43</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Averages!$K$2:$K$43</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Averages!$L$2:$L$43</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="74">
   <si>
     <t>Round</t>
   </si>
@@ -250,10 +254,16 @@
     <t>JNK2</t>
   </si>
   <si>
-    <t>Unnormalised</t>
-  </si>
-  <si>
-    <t>Normalised</t>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>95%CI Lower</t>
+  </si>
+  <si>
+    <t>95%CI Upper</t>
   </si>
 </sst>
 </file>
@@ -1105,9 +1115,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH43"/>
+  <dimension ref="A1:AH48"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="Y10" sqref="Y10:AH31"/>
     </sheetView>
   </sheetViews>
@@ -1513,12 +1523,6 @@
       <c r="J10">
         <v>1.1565528228511497</v>
       </c>
-      <c r="K10">
-        <v>2.4690407659316507</v>
-      </c>
-      <c r="L10">
-        <v>2.9721125790225287</v>
-      </c>
       <c r="Y10" s="3" t="s">
         <v>0</v>
       </c>
@@ -1578,9 +1582,6 @@
       <c r="I11">
         <v>1.9875002981871869E-3</v>
       </c>
-      <c r="J11">
-        <v>0.43127705186835341</v>
-      </c>
       <c r="K11">
         <v>1.8628681249413019</v>
       </c>
@@ -1765,11 +1766,11 @@
       </c>
       <c r="AG13" s="1">
         <f t="shared" si="1"/>
-        <v>1.8046290424445104</v>
+        <v>1.1402173189573699</v>
       </c>
       <c r="AH13" s="1">
         <f t="shared" si="4"/>
-        <v>2.1405331413286022</v>
+        <v>1.3089537036346754</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
@@ -1835,7 +1836,7 @@
       </c>
       <c r="AF14" s="2">
         <f t="shared" si="6"/>
-        <v>0.67486444922395816</v>
+        <v>0.91845184657956302</v>
       </c>
       <c r="AG14" s="2">
         <f t="shared" si="1"/>
@@ -2057,15 +2058,15 @@
       </c>
       <c r="AF17" s="1">
         <f t="shared" si="9"/>
-        <v>1.4445532069407205</v>
+        <v>1.1509076088370243</v>
       </c>
       <c r="AG17" s="1">
         <f t="shared" ref="AG17" si="10">AVERAGE(K38,K39)</f>
-        <v>0.7945449780924736</v>
+        <v>1.0636726583437464</v>
       </c>
       <c r="AH17" s="1">
         <f t="shared" ref="AH17" si="11">AVERAGE(L38,L39)</f>
-        <v>0.50444432981007503</v>
+        <v>0.86453672197037856</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
@@ -2176,9 +2177,6 @@
       <c r="K19">
         <v>1.8863469062099185</v>
       </c>
-      <c r="L19">
-        <v>2.210574367601235</v>
-      </c>
       <c r="Y19" s="1">
         <v>2</v>
       </c>
@@ -2509,7 +2507,7 @@
       </c>
       <c r="AH23" s="1">
         <f t="shared" si="13"/>
-        <v>1.7995597385432631</v>
+        <v>1.3885451094852912</v>
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
@@ -3398,15 +3396,6 @@
       <c r="I39">
         <v>0.58538418200609266</v>
       </c>
-      <c r="J39">
-        <v>1.738198805044417</v>
-      </c>
-      <c r="K39">
-        <v>0.52541729784120095</v>
-      </c>
-      <c r="L39">
-        <v>0.14435193764977156</v>
-      </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -3560,8 +3549,100 @@
         <v>1.1905891491933274</v>
       </c>
     </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I45" t="s">
+        <v>70</v>
+      </c>
+      <c r="J45">
+        <f>AVERAGE(Table1[NFKB1])</f>
+        <v>1.1841500112700833</v>
+      </c>
+      <c r="K45">
+        <f>AVERAGE(Table1[JNK1])</f>
+        <v>1.2173582141297781</v>
+      </c>
+      <c r="L45">
+        <f>AVERAGE(Table1[JNK2])</f>
+        <v>1.2268917110822015</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I46" t="s">
+        <v>71</v>
+      </c>
+      <c r="J46">
+        <f>_xlfn.STDEV.S(Table1[NFKB1])</f>
+        <v>0.25032602632950995</v>
+      </c>
+      <c r="K46">
+        <f>_xlfn.STDEV.S(Table1[JNK1])</f>
+        <v>0.29870560844539246</v>
+      </c>
+      <c r="L46">
+        <f>_xlfn.STDEV.S(Table1[JNK2])</f>
+        <v>0.26269467093644716</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I47" t="s">
+        <v>72</v>
+      </c>
+      <c r="J47">
+        <f>J45-1.96*(J46)</f>
+        <v>0.6935109996642439</v>
+      </c>
+      <c r="K47">
+        <f t="shared" ref="K47:L47" si="35">K45-1.96*(K46)</f>
+        <v>0.63189522157680889</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="35"/>
+        <v>0.7120101560467651</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I48" t="s">
+        <v>73</v>
+      </c>
+      <c r="J48">
+        <f>J45+1.96*(J46)</f>
+        <v>1.6747890228759228</v>
+      </c>
+      <c r="K48">
+        <f t="shared" ref="K48:L48" si="36">K45+1.96*(K46)</f>
+        <v>1.8028212066827471</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="36"/>
+        <v>1.7417732661176379</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="J2:J43">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:L43">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
@@ -3574,8 +3655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B02CF51-5187-4B53-8E13-4B1ED98A1456}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3702,10 +3783,10 @@
         <v>1.3356336701614802</v>
       </c>
       <c r="I4">
-        <v>1.8046290424445104</v>
+        <v>1.1402173189573699</v>
       </c>
       <c r="J4">
-        <v>2.1405331413286022</v>
+        <v>1.3089537036346754</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -3731,7 +3812,7 @@
         <v>1.6365129847331097E-2</v>
       </c>
       <c r="H5">
-        <v>0.67486444922395816</v>
+        <v>0.91845184657956302</v>
       </c>
       <c r="I5">
         <v>1.7751228556474941</v>
@@ -3827,13 +3908,13 @@
         <v>1.0756831382274579</v>
       </c>
       <c r="H8">
-        <v>1.4445532069407205</v>
+        <v>1.1509076088370243</v>
       </c>
       <c r="I8">
-        <v>0.7945449780924736</v>
+        <v>1.0636726583437464</v>
       </c>
       <c r="J8">
-        <v>0.50444432981007503</v>
+        <v>0.86453672197037856</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -4025,7 +4106,7 @@
         <v>1.5068883615521056</v>
       </c>
       <c r="J14">
-        <v>1.7995597385432631</v>
+        <v>1.3885451094852912</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -4282,1376 +4363,6 @@
       </c>
       <c r="J22">
         <v>1.0873787247169562</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609E32FF-4F93-454B-830C-59719C58BF3B}">
-  <dimension ref="A1:R20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:R20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
-    <col min="13" max="13" width="22.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E1" t="s">
-        <v>70</v>
-      </c>
-      <c r="P1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" t="s">
-        <v>69</v>
-      </c>
-      <c r="L2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>67</v>
-      </c>
-      <c r="N2" t="s">
-        <v>57</v>
-      </c>
-      <c r="O2" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>68</v>
-      </c>
-      <c r="R2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3">
-        <v>0.1</v>
-      </c>
-      <c r="E3">
-        <v>1.2794798519850634</v>
-      </c>
-      <c r="F3">
-        <v>1.364815209035438</v>
-      </c>
-      <c r="G3">
-        <v>1.2503922596802464</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N3" t="s">
-        <v>56</v>
-      </c>
-      <c r="O3">
-        <v>0.1</v>
-      </c>
-      <c r="P3">
-        <f>E3/E$3</f>
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" ref="Q3:R3" si="0">F3/F$3</f>
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>0.1</v>
-      </c>
-      <c r="E4">
-        <v>0.99248119230965992</v>
-      </c>
-      <c r="F4">
-        <v>1.2911876173328276</v>
-      </c>
-      <c r="G4">
-        <v>1.1855098231618446</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N4" t="s">
-        <v>6</v>
-      </c>
-      <c r="O4">
-        <v>0.1</v>
-      </c>
-      <c r="P4">
-        <f t="shared" ref="P4:P5" si="1">E4/$E$3</f>
-        <v>0.7756911457182103</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" ref="Q4:Q5" si="2">F4/$E$3</f>
-        <v>1.0091504100901629</v>
-      </c>
-      <c r="R4">
-        <f t="shared" ref="R4:R5" si="3">G4/$E$3</f>
-        <v>0.92655606989244266</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>0.1</v>
-      </c>
-      <c r="E5">
-        <v>1.3356336701614802</v>
-      </c>
-      <c r="F5">
-        <v>1.8046290424445104</v>
-      </c>
-      <c r="G5">
-        <v>2.1405331413286022</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5" t="s">
-        <v>52</v>
-      </c>
-      <c r="N5" t="s">
-        <v>7</v>
-      </c>
-      <c r="O5">
-        <v>0.1</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="1"/>
-        <v>1.0438880050274306</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="2"/>
-        <v>1.4104395935932077</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="3"/>
-        <v>1.6729713547326657</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6">
-        <v>100</v>
-      </c>
-      <c r="E6">
-        <v>0.67486444922395816</v>
-      </c>
-      <c r="F6">
-        <v>1.7751228556474941</v>
-      </c>
-      <c r="G6">
-        <v>1.070451811949221</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N6" t="s">
-        <v>56</v>
-      </c>
-      <c r="O6">
-        <v>100</v>
-      </c>
-      <c r="P6">
-        <f>E6/E$6</f>
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" ref="Q6:R6" si="4">F6/F$6</f>
-        <v>1</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>100</v>
-      </c>
-      <c r="E7">
-        <v>1.5151877025790086</v>
-      </c>
-      <c r="F7">
-        <v>1.4262679056956662</v>
-      </c>
-      <c r="G7">
-        <v>1.560264053223118</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7" t="s">
-        <v>53</v>
-      </c>
-      <c r="N7" t="s">
-        <v>6</v>
-      </c>
-      <c r="O7">
-        <v>100</v>
-      </c>
-      <c r="P7">
-        <f t="shared" ref="P7:P8" si="5">E7/$E$6</f>
-        <v>2.2451733889988681</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" ref="Q7:Q8" si="6">F7/$E$6</f>
-        <v>2.113413897169667</v>
-      </c>
-      <c r="R7">
-        <f t="shared" ref="R7:R8" si="7">G7/$E$6</f>
-        <v>2.3119665808701302</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>100</v>
-      </c>
-      <c r="E8">
-        <v>1.0352778735180426</v>
-      </c>
-      <c r="F8">
-        <v>1.2582279641595804</v>
-      </c>
-      <c r="G8">
-        <v>1.4559172118827153</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8" t="s">
-        <v>54</v>
-      </c>
-      <c r="N8" t="s">
-        <v>7</v>
-      </c>
-      <c r="O8">
-        <v>100</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="5"/>
-        <v>1.5340530601493854</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="6"/>
-        <v>1.8644158328482781</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="7"/>
-        <v>2.1573476178170408</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9">
-        <v>0.1</v>
-      </c>
-      <c r="E9">
-        <v>1.0905732372959951</v>
-      </c>
-      <c r="F9">
-        <v>1.1297236354088531</v>
-      </c>
-      <c r="G9">
-        <v>1.1101855114849379</v>
-      </c>
-      <c r="L9">
-        <v>2</v>
-      </c>
-      <c r="M9" t="s">
-        <v>49</v>
-      </c>
-      <c r="N9" t="s">
-        <v>56</v>
-      </c>
-      <c r="O9">
-        <v>0.1</v>
-      </c>
-      <c r="P9">
-        <f>E9/E$9</f>
-        <v>1</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" ref="Q9:R9" si="8">F9/F$9</f>
-        <v>1</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10">
-        <v>0.1</v>
-      </c>
-      <c r="E10">
-        <v>1.415147955479829</v>
-      </c>
-      <c r="F10">
-        <v>1.2087700411049518</v>
-      </c>
-      <c r="G10">
-        <v>1.3372643045164261</v>
-      </c>
-      <c r="L10">
-        <v>2</v>
-      </c>
-      <c r="M10" t="s">
-        <v>51</v>
-      </c>
-      <c r="N10" t="s">
-        <v>6</v>
-      </c>
-      <c r="O10">
-        <v>0.1</v>
-      </c>
-      <c r="P10">
-        <f t="shared" ref="P10:P11" si="9">E10/$E$9</f>
-        <v>1.2976184515481011</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" ref="Q10:Q11" si="10">F10/$E$9</f>
-        <v>1.1083804367893879</v>
-      </c>
-      <c r="R10">
-        <f t="shared" ref="R10:R11" si="11">G10/$E$9</f>
-        <v>1.2262031184921476</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11">
-        <v>0.1</v>
-      </c>
-      <c r="E11">
-        <v>1.3599372596995611</v>
-      </c>
-      <c r="F11">
-        <v>1.5398208274816398</v>
-      </c>
-      <c r="G11">
-        <v>1.7354225139602659</v>
-      </c>
-      <c r="L11">
-        <v>2</v>
-      </c>
-      <c r="M11" t="s">
-        <v>52</v>
-      </c>
-      <c r="N11" t="s">
-        <v>7</v>
-      </c>
-      <c r="O11">
-        <v>0.1</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="9"/>
-        <v>1.2469930612559652</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="10"/>
-        <v>1.4119371123570983</v>
-      </c>
-      <c r="R11">
-        <f t="shared" si="11"/>
-        <v>1.5912938761115507</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12">
-        <v>100</v>
-      </c>
-      <c r="E12">
-        <v>1.2640734939470093</v>
-      </c>
-      <c r="F12">
-        <v>1.3679858145441006</v>
-      </c>
-      <c r="G12">
-        <v>1.4473653326976006</v>
-      </c>
-      <c r="L12">
-        <v>2</v>
-      </c>
-      <c r="M12" t="s">
-        <v>50</v>
-      </c>
-      <c r="N12" t="s">
-        <v>56</v>
-      </c>
-      <c r="O12">
-        <v>100</v>
-      </c>
-      <c r="P12">
-        <f>E12/E$12</f>
-        <v>1</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" ref="Q12:R12" si="12">F12/F$12</f>
-        <v>1</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13">
-        <v>100</v>
-      </c>
-      <c r="E13">
-        <v>1.2531501122598296</v>
-      </c>
-      <c r="F13">
-        <v>1.5985591831447235</v>
-      </c>
-      <c r="G13">
-        <v>1.5831381667373383</v>
-      </c>
-      <c r="L13">
-        <v>2</v>
-      </c>
-      <c r="M13" t="s">
-        <v>53</v>
-      </c>
-      <c r="N13" t="s">
-        <v>6</v>
-      </c>
-      <c r="O13">
-        <v>100</v>
-      </c>
-      <c r="P13">
-        <f t="shared" ref="P13:P14" si="13">E13/$E$12</f>
-        <v>0.99135858655411568</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" ref="Q13:Q14" si="14">F13/$E$12</f>
-        <v>1.2646093686794257</v>
-      </c>
-      <c r="R13">
-        <f t="shared" ref="R13:R14" si="15">G13/$E$12</f>
-        <v>1.2524099067958974</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14">
-        <v>100</v>
-      </c>
-      <c r="E14">
-        <v>1.4358394154985801</v>
-      </c>
-      <c r="F14">
-        <v>1.5068883615521056</v>
-      </c>
-      <c r="G14">
-        <v>1.7995597385432631</v>
-      </c>
-      <c r="L14">
-        <v>2</v>
-      </c>
-      <c r="M14" t="s">
-        <v>54</v>
-      </c>
-      <c r="N14" t="s">
-        <v>7</v>
-      </c>
-      <c r="O14">
-        <v>100</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="13"/>
-        <v>1.1358828599555868</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="14"/>
-        <v>1.1920892011167155</v>
-      </c>
-      <c r="R14">
-        <f t="shared" si="15"/>
-        <v>1.4236195499394766</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15">
-        <v>0.1</v>
-      </c>
-      <c r="E15">
-        <v>1.133546250236604</v>
-      </c>
-      <c r="F15">
-        <v>0.9291707546041359</v>
-      </c>
-      <c r="G15">
-        <v>1.0959569522272021</v>
-      </c>
-      <c r="L15">
-        <v>3</v>
-      </c>
-      <c r="M15" t="s">
-        <v>49</v>
-      </c>
-      <c r="N15" t="s">
-        <v>56</v>
-      </c>
-      <c r="O15">
-        <v>0.1</v>
-      </c>
-      <c r="P15">
-        <f>E15/E$15</f>
-        <v>1</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" ref="Q15:R15" si="16">F15/F$15</f>
-        <v>1</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16">
-        <v>0.1</v>
-      </c>
-      <c r="E16">
-        <v>1.1360657053878203</v>
-      </c>
-      <c r="F16">
-        <v>0.98302999437149985</v>
-      </c>
-      <c r="G16">
-        <v>1.0753036525473896</v>
-      </c>
-      <c r="L16">
-        <v>3</v>
-      </c>
-      <c r="M16" t="s">
-        <v>51</v>
-      </c>
-      <c r="N16" t="s">
-        <v>6</v>
-      </c>
-      <c r="O16">
-        <v>0.1</v>
-      </c>
-      <c r="P16">
-        <f t="shared" ref="P16:P17" si="17">E16/$E$15</f>
-        <v>1.0022226311018985</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" ref="Q16:Q17" si="18">F16/$E$15</f>
-        <v>0.8672164846968643</v>
-      </c>
-      <c r="R16">
-        <f t="shared" ref="R16:R17" si="19">G16/$E$15</f>
-        <v>0.94861912544189742</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17">
-        <v>0.1</v>
-      </c>
-      <c r="E17">
-        <v>1.3130085215076766</v>
-      </c>
-      <c r="F17">
-        <v>1.3166591601294111</v>
-      </c>
-      <c r="G17">
-        <v>1.6048547370966033</v>
-      </c>
-      <c r="L17">
-        <v>3</v>
-      </c>
-      <c r="M17" t="s">
-        <v>52</v>
-      </c>
-      <c r="N17" t="s">
-        <v>7</v>
-      </c>
-      <c r="O17">
-        <v>0.1</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="17"/>
-        <v>1.1583193197750983</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="18"/>
-        <v>1.1615398664629573</v>
-      </c>
-      <c r="R17">
-        <f t="shared" si="19"/>
-        <v>1.4157823174498823</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18">
-        <v>100</v>
-      </c>
-      <c r="E18">
-        <v>1.1112712545796222</v>
-      </c>
-      <c r="F18">
-        <v>1.0792750305655159</v>
-      </c>
-      <c r="G18">
-        <v>1.0303390005359256</v>
-      </c>
-      <c r="L18">
-        <v>3</v>
-      </c>
-      <c r="M18" t="s">
-        <v>50</v>
-      </c>
-      <c r="N18" t="s">
-        <v>56</v>
-      </c>
-      <c r="O18">
-        <v>100</v>
-      </c>
-      <c r="P18">
-        <f>E18/E$18</f>
-        <v>1</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" ref="Q18:R18" si="20">F18/F$18</f>
-        <v>1</v>
-      </c>
-      <c r="R18">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>3</v>
-      </c>
-      <c r="B19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19">
-        <v>100</v>
-      </c>
-      <c r="E19">
-        <v>0.97256148899428219</v>
-      </c>
-      <c r="F19">
-        <v>1.4118457109943106</v>
-      </c>
-      <c r="G19">
-        <v>1.3702389340535137</v>
-      </c>
-      <c r="L19">
-        <v>3</v>
-      </c>
-      <c r="M19" t="s">
-        <v>53</v>
-      </c>
-      <c r="N19" t="s">
-        <v>6</v>
-      </c>
-      <c r="O19">
-        <v>100</v>
-      </c>
-      <c r="P19">
-        <f t="shared" ref="P19:P20" si="21">E19/$E$18</f>
-        <v>0.87517920128527771</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" ref="Q19:Q20" si="22">F19/$E$18</f>
-        <v>1.2704780270127578</v>
-      </c>
-      <c r="R19">
-        <f t="shared" ref="R19:R20" si="23">G19/$E$18</f>
-        <v>1.2330373240616714</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20">
-        <v>100</v>
-      </c>
-      <c r="E20">
-        <v>1.096127060858995</v>
-      </c>
-      <c r="F20">
-        <v>1.018324253350315</v>
-      </c>
-      <c r="G20">
-        <v>1.1677899470865736</v>
-      </c>
-      <c r="L20">
-        <v>3</v>
-      </c>
-      <c r="M20" t="s">
-        <v>54</v>
-      </c>
-      <c r="N20" t="s">
-        <v>7</v>
-      </c>
-      <c r="O20">
-        <v>100</v>
-      </c>
-      <c r="P20">
-        <f t="shared" si="21"/>
-        <v>0.98637218981574759</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" si="22"/>
-        <v>0.91635975388883095</v>
-      </c>
-      <c r="R20">
-        <f t="shared" si="23"/>
-        <v>1.0508594929222133</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{775E79B0-2923-48BE-94DD-57D5267F2EA9}">
-  <dimension ref="A1:G19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2">
-        <v>0.1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>0.1</v>
-      </c>
-      <c r="E3">
-        <v>0.7756911457182103</v>
-      </c>
-      <c r="F3">
-        <v>1.0091504100901629</v>
-      </c>
-      <c r="G3">
-        <v>0.92655606989244266</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>0.1</v>
-      </c>
-      <c r="E4">
-        <v>1.0438880050274306</v>
-      </c>
-      <c r="F4">
-        <v>1.4104395935932077</v>
-      </c>
-      <c r="G4">
-        <v>1.6729713547326657</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5">
-        <v>100</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>100</v>
-      </c>
-      <c r="E6">
-        <v>2.2451733889988681</v>
-      </c>
-      <c r="F6">
-        <v>2.113413897169667</v>
-      </c>
-      <c r="G6">
-        <v>2.3119665808701302</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>100</v>
-      </c>
-      <c r="E7">
-        <v>1.5340530601493854</v>
-      </c>
-      <c r="F7">
-        <v>1.8644158328482781</v>
-      </c>
-      <c r="G7">
-        <v>2.1573476178170408</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8">
-        <v>0.1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>0.1</v>
-      </c>
-      <c r="E9">
-        <v>1.2976184515481011</v>
-      </c>
-      <c r="F9">
-        <v>1.1083804367893879</v>
-      </c>
-      <c r="G9">
-        <v>1.2262031184921476</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>0.1</v>
-      </c>
-      <c r="E10">
-        <v>1.2469930612559652</v>
-      </c>
-      <c r="F10">
-        <v>1.4119371123570983</v>
-      </c>
-      <c r="G10">
-        <v>1.5912938761115507</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11">
-        <v>100</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12">
-        <v>100</v>
-      </c>
-      <c r="E12">
-        <v>0.99135858655411568</v>
-      </c>
-      <c r="F12">
-        <v>1.2646093686794257</v>
-      </c>
-      <c r="G12">
-        <v>1.2524099067958974</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13">
-        <v>100</v>
-      </c>
-      <c r="E13">
-        <v>1.1358828599555868</v>
-      </c>
-      <c r="F13">
-        <v>1.1920892011167155</v>
-      </c>
-      <c r="G13">
-        <v>1.4236195499394766</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14">
-        <v>0.1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15">
-        <v>0.1</v>
-      </c>
-      <c r="E15">
-        <v>1.0022226311018985</v>
-      </c>
-      <c r="F15">
-        <v>0.8672164846968643</v>
-      </c>
-      <c r="G15">
-        <v>0.94861912544189742</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16">
-        <v>0.1</v>
-      </c>
-      <c r="E16">
-        <v>1.1583193197750983</v>
-      </c>
-      <c r="F16">
-        <v>1.1615398664629573</v>
-      </c>
-      <c r="G16">
-        <v>1.4157823174498823</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17">
-        <v>100</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18">
-        <v>100</v>
-      </c>
-      <c r="E18">
-        <v>0.87517920128527771</v>
-      </c>
-      <c r="F18">
-        <v>1.2704780270127578</v>
-      </c>
-      <c r="G18">
-        <v>1.2330373240616714</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>3</v>
-      </c>
-      <c r="B19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19">
-        <v>100</v>
-      </c>
-      <c r="E19">
-        <v>0.98637218981574759</v>
-      </c>
-      <c r="F19">
-        <v>0.91635975388883095</v>
-      </c>
-      <c r="G19">
-        <v>1.0508594929222133</v>
       </c>
     </row>
   </sheetData>

--- a/HNM qPCR Summary.xlsx
+++ b/HNM qPCR Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/spet4768_ox_ac_uk/Documents/Desktop/Results/HNM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="475" documentId="11_F25DC773A252ABDACC1048A9519B73345BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF23FB0C-1ED4-4C95-9761-6EA207CABDAD}"/>
+  <xr:revisionPtr revIDLastSave="514" documentId="11_F25DC773A252ABDACC1048A9519B73345BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61454040-AD9C-4EEC-A7ED-9E097341A649}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Averages!$K$2:$K$43</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Averages!$J$2:$J$43</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Averages!$K$2:$K$43</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Averages!$L$2:$L$43</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Averages!$O$2:$O$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="70">
   <si>
     <t>Round</t>
   </si>
@@ -224,15 +222,6 @@
     <t>NFKB1</t>
   </si>
   <si>
-    <t>Column3</t>
-  </si>
-  <si>
-    <t>Column4</t>
-  </si>
-  <si>
-    <t>Column5</t>
-  </si>
-  <si>
     <t>Column6</t>
   </si>
   <si>
@@ -254,16 +243,13 @@
     <t>JNK2</t>
   </si>
   <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>95%CI Lower</t>
-  </si>
-  <si>
-    <t>95%CI Upper</t>
+    <t>CXCL8</t>
+  </si>
+  <si>
+    <t>CASP3</t>
+  </si>
+  <si>
+    <t>HSPA5</t>
   </si>
 </sst>
 </file>
@@ -354,7 +340,115 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -803,6 +897,678 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{5E9A4731-210A-43AD-9DB9-6DE2EED227BB}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD865DBC-919B-1190-F936-1A274874717C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2857500" y="8634412"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FBE03662-43CB-42C1-A8B8-67AC459D2C7F}" name="Table1" displayName="Table1" ref="A1:R43" totalsRowShown="0">
   <autoFilter ref="A1:R43" xr:uid="{FBE03662-43CB-42C1-A8B8-67AC459D2C7F}"/>
@@ -822,9 +1588,9 @@
     <tableColumn id="10" xr3:uid="{8514CED0-1D82-4A4B-B295-9CF87DF64DB9}" name="NFKB1"/>
     <tableColumn id="11" xr3:uid="{E2F7804C-385B-46E0-9390-2921B73785B8}" name="JNK1"/>
     <tableColumn id="12" xr3:uid="{0DC91EE8-27ED-4098-B54C-B05A9CE21517}" name="JNK2"/>
-    <tableColumn id="13" xr3:uid="{9ECAD487-ED21-46ED-878C-9BBA03156479}" name="Column3"/>
-    <tableColumn id="14" xr3:uid="{75D9D8C1-D22C-44E3-BD83-3AE118AF19F6}" name="Column4"/>
-    <tableColumn id="15" xr3:uid="{12919DB5-8140-4956-9CAB-BBCAC7596767}" name="Column5"/>
+    <tableColumn id="13" xr3:uid="{9ECAD487-ED21-46ED-878C-9BBA03156479}" name="CXCL8"/>
+    <tableColumn id="14" xr3:uid="{75D9D8C1-D22C-44E3-BD83-3AE118AF19F6}" name="CASP3"/>
+    <tableColumn id="15" xr3:uid="{12919DB5-8140-4956-9CAB-BBCAC7596767}" name="HSPA5"/>
     <tableColumn id="16" xr3:uid="{D8AF5874-E84D-48C8-9192-AC2698B06A95}" name="Column6"/>
     <tableColumn id="17" xr3:uid="{F48D1FDE-C7C9-421D-BFB2-D2E3BDEF2006}" name="Column7"/>
     <tableColumn id="18" xr3:uid="{D7BD50A9-4098-4E6A-8841-CF82BEB06758}" name="Column8"/>
@@ -834,19 +1600,22 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4773263E-B173-4791-B48F-23559BC8A877}" name="Table2" displayName="Table2" ref="Y10:AH31" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
-  <autoFilter ref="Y10:AH31" xr:uid="{4773263E-B173-4791-B48F-23559BC8A877}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{C30DE3D8-9591-4260-A464-CE42CEC9CF71}" name="Round" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{FD9B6DD4-A438-4D7E-ABB5-48EE35BAFC47}" name="Condition" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{1141554C-9B32-495F-9E28-9CE85D42E522}" name="Fat" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{FF34C0D3-B7DB-467D-A6A7-A9939D9328EC}" name="Insulin (nM)" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{3DAF0E04-39D7-4A07-9C37-0202A2849C98}" name="B2M" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{6C32B31E-66A2-48D6-BC85-7E0C8E55327D}" name="YWHAZ" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{C1151B84-B188-4F45-95ED-03793DD4A76F}" name="HMBS" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{37FAB617-5067-44AA-B331-2CB553136DAD}" name="NFKB1" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{A18F7956-2DD1-47F2-8ABD-B2C131955775}" name="JNK1" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{30412466-77B3-4FDB-8451-DAFCFC8D4EB1}" name="JNK2" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4773263E-B173-4791-B48F-23559BC8A877}" name="Table2" displayName="Table2" ref="Y10:AK31" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+  <autoFilter ref="Y10:AK31" xr:uid="{4773263E-B173-4791-B48F-23559BC8A877}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{C30DE3D8-9591-4260-A464-CE42CEC9CF71}" name="Round" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{FD9B6DD4-A438-4D7E-ABB5-48EE35BAFC47}" name="Condition" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{1141554C-9B32-495F-9E28-9CE85D42E522}" name="Fat" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{FF34C0D3-B7DB-467D-A6A7-A9939D9328EC}" name="Insulin (nM)" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{3DAF0E04-39D7-4A07-9C37-0202A2849C98}" name="B2M" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{6C32B31E-66A2-48D6-BC85-7E0C8E55327D}" name="YWHAZ" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{C1151B84-B188-4F45-95ED-03793DD4A76F}" name="HMBS" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{37FAB617-5067-44AA-B331-2CB553136DAD}" name="NFKB1" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{A18F7956-2DD1-47F2-8ABD-B2C131955775}" name="JNK1" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{30412466-77B3-4FDB-8451-DAFCFC8D4EB1}" name="JNK2" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{EE0DD0DC-4B7B-4CFE-9C17-53554D6289A1}" name="CXCL8" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{B3AE9179-61DE-4816-A799-9EB2322A5265}" name="CASP3" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{640424D3-40B3-46C6-80AF-F9B4BB3933D5}" name="HSPA5" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1115,10 +1884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH48"/>
+  <dimension ref="A1:AK43"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Y10" sqref="Y10:AH31"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Y10" sqref="Y10:AK31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1132,12 +1901,12 @@
     <col min="27" max="27" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
         <v>57</v>
@@ -1146,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -1164,31 +1933,31 @@
         <v>59</v>
       </c>
       <c r="K1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" t="s">
         <v>68</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>69</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>60</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>61</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>62</v>
       </c>
-      <c r="P1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>64</v>
-      </c>
-      <c r="R1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1225,8 +1994,17 @@
       <c r="L2">
         <v>1.2163212181937832</v>
       </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <v>1.5124889989998362</v>
+      </c>
+      <c r="N2">
+        <v>0.89068550667335478</v>
+      </c>
+      <c r="O2">
+        <v>0.51687617208725822</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1263,8 +2041,17 @@
       <c r="L3">
         <v>1.3167430656239851</v>
       </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <v>2.1857115987568907</v>
+      </c>
+      <c r="N3">
+        <v>0.97372131194549738</v>
+      </c>
+      <c r="O3">
+        <v>0.61510097849124279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1301,8 +2088,17 @@
       <c r="L4">
         <v>1.3089537036346754</v>
       </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <v>1.5868377666851388</v>
+      </c>
+      <c r="N4">
+        <v>1.020168790099405</v>
+      </c>
+      <c r="O4">
+        <v>0.8474299348481148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1339,8 +2135,17 @@
       <c r="L5">
         <v>0.9019949759091257</v>
       </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <v>1.384862511469918</v>
+      </c>
+      <c r="N5">
+        <v>0.71316665792689471</v>
+      </c>
+      <c r="O5">
+        <v>0.58418506038166895</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1377,8 +2182,17 @@
       <c r="L6">
         <v>1.6389540244454761</v>
       </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <v>2.5226330534809489</v>
+      </c>
+      <c r="N6">
+        <v>0.79837513192062748</v>
+      </c>
+      <c r="O6">
+        <v>0.97141052494297842</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1415,8 +2229,14 @@
       <c r="L7">
         <v>1.5200269294000184</v>
       </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <v>1.8147379152898324</v>
+      </c>
+      <c r="O7">
+        <v>0.5778944778457944</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1453,8 +2273,17 @@
       <c r="L8">
         <v>1.2844633011667097</v>
       </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <v>1.4252579330243496</v>
+      </c>
+      <c r="N8">
+        <v>1.0547869482712173</v>
+      </c>
+      <c r="O8">
+        <v>0.66853465842836879</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1491,8 +2320,17 @@
       <c r="L9">
         <v>1.0542765806997041</v>
       </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <v>4.2415420803552166</v>
+      </c>
+      <c r="N9">
+        <v>0.68859697882804805</v>
+      </c>
+      <c r="O9">
+        <v>0.10527976103533762</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1523,11 +2361,20 @@
       <c r="J10">
         <v>1.1565528228511497</v>
       </c>
+      <c r="M10">
+        <v>4.1971236754054706</v>
+      </c>
+      <c r="N10">
+        <v>1.1041929923834368</v>
+      </c>
+      <c r="O10">
+        <v>0.43725548050912394</v>
+      </c>
       <c r="Y10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AA10" s="3" t="s">
         <v>57</v>
@@ -1548,13 +2395,22 @@
         <v>59</v>
       </c>
       <c r="AG10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ10" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AH10" s="3" t="s">
+      <c r="AK10" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1587,6 +2443,15 @@
       </c>
       <c r="L11">
         <v>1.2389086479893165</v>
+      </c>
+      <c r="M11">
+        <v>1.6947329574170356</v>
+      </c>
+      <c r="N11">
+        <v>1.1853663201892486</v>
+      </c>
+      <c r="O11">
+        <v>0.13688365559410379</v>
       </c>
       <c r="Y11" s="1">
         <v>1</v>
@@ -1624,8 +2489,20 @@
         <f>AVERAGE(L2,L8)</f>
         <v>1.2503922596802464</v>
       </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI11" s="1">
+        <f t="shared" ref="AI11:AK16" si="2">AVERAGE(M2,M8)</f>
+        <v>1.4688734660120928</v>
+      </c>
+      <c r="AJ11" s="1">
+        <f t="shared" si="2"/>
+        <v>0.97273622747228605</v>
+      </c>
+      <c r="AK11" s="1">
+        <f t="shared" si="2"/>
+        <v>0.59270541525781351</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1662,6 +2539,15 @@
       <c r="L12">
         <v>1.4815740820007601</v>
       </c>
+      <c r="M12">
+        <v>3.4423209987615793</v>
+      </c>
+      <c r="N12">
+        <v>0.81357652740781028</v>
+      </c>
+      <c r="O12">
+        <v>0.87875689630149345</v>
+      </c>
       <c r="Y12" s="2">
         <v>1</v>
       </c>
@@ -1675,19 +2561,19 @@
         <v>0.1</v>
       </c>
       <c r="AC12" s="2">
-        <f t="shared" ref="AC12:AC16" si="2">AVERAGE(G3,G9)</f>
+        <f t="shared" ref="AC12:AC16" si="3">AVERAGE(G3,G9)</f>
         <v>0.15008787518795649</v>
       </c>
       <c r="AD12" s="2">
-        <f t="shared" ref="AD12:AF12" si="3">AVERAGE(H3,H9)</f>
+        <f t="shared" ref="AD12:AF12" si="4">AVERAGE(H3,H9)</f>
         <v>0.16684891915212</v>
       </c>
       <c r="AE12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.7389984722547618E-2</v>
       </c>
       <c r="AF12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.99248119230965992</v>
       </c>
       <c r="AG12" s="2">
@@ -1695,11 +2581,23 @@
         <v>1.2911876173328276</v>
       </c>
       <c r="AH12" s="2">
-        <f t="shared" ref="AH12:AH16" si="4">AVERAGE(L3,L9)</f>
+        <f t="shared" ref="AH12:AH16" si="5">AVERAGE(L3,L9)</f>
         <v>1.1855098231618446</v>
       </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI12" s="2">
+        <f t="shared" si="2"/>
+        <v>3.2136268395560537</v>
+      </c>
+      <c r="AJ12" s="2">
+        <f t="shared" si="2"/>
+        <v>0.83115914538677271</v>
+      </c>
+      <c r="AK12" s="2">
+        <f t="shared" si="2"/>
+        <v>0.36019036976329022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1736,6 +2634,15 @@
       <c r="L13">
         <v>1.3918074943654122</v>
       </c>
+      <c r="M13">
+        <v>1.6440220197543955</v>
+      </c>
+      <c r="N13">
+        <v>0.9766949821495764</v>
+      </c>
+      <c r="O13">
+        <v>0.8861160723573126</v>
+      </c>
       <c r="Y13" s="1">
         <v>1</v>
       </c>
@@ -1749,19 +2656,19 @@
         <v>0.1</v>
       </c>
       <c r="AC13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.13597041129199006</v>
       </c>
       <c r="AD13" s="1">
-        <f t="shared" ref="AD13:AF13" si="5">AVERAGE(H4,H10)</f>
+        <f t="shared" ref="AD13:AF13" si="6">AVERAGE(H4,H10)</f>
         <v>0.15209349657235291</v>
       </c>
       <c r="AE13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.6128608624427005E-2</v>
       </c>
       <c r="AF13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3356336701614802</v>
       </c>
       <c r="AG13" s="1">
@@ -1769,11 +2676,23 @@
         <v>1.1402173189573699</v>
       </c>
       <c r="AH13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3089537036346754</v>
       </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI13" s="1">
+        <f t="shared" si="2"/>
+        <v>2.8919807210453046</v>
+      </c>
+      <c r="AJ13" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0621808912414208</v>
+      </c>
+      <c r="AK13" s="1">
+        <f t="shared" si="2"/>
+        <v>0.64234270767861934</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1810,6 +2729,15 @@
       <c r="L14">
         <v>1.2164906457043636</v>
       </c>
+      <c r="M14">
+        <v>2.9078535064597646</v>
+      </c>
+      <c r="N14">
+        <v>1.0120820625217828</v>
+      </c>
+      <c r="O14">
+        <v>0.74645348105126252</v>
+      </c>
       <c r="Y14" s="2">
         <v>1</v>
       </c>
@@ -1823,19 +2751,19 @@
         <v>100</v>
       </c>
       <c r="AC14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.8795102434323242E-2</v>
       </c>
       <c r="AD14" s="2">
-        <f t="shared" ref="AD14:AF14" si="6">AVERAGE(H5,H11)</f>
+        <f t="shared" ref="AD14:AF14" si="7">AVERAGE(H5,H11)</f>
         <v>2.7796260779966244E-2</v>
       </c>
       <c r="AE14" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.6365129847331097E-2</v>
       </c>
       <c r="AF14" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.91845184657956302</v>
       </c>
       <c r="AG14" s="2">
@@ -1843,11 +2771,23 @@
         <v>1.7751228556474941</v>
       </c>
       <c r="AH14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.070451811949221</v>
       </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI14" s="2">
+        <f t="shared" si="2"/>
+        <v>1.5397977344434768</v>
+      </c>
+      <c r="AJ14" s="2">
+        <f t="shared" si="2"/>
+        <v>0.94926648905807165</v>
+      </c>
+      <c r="AK14" s="2">
+        <f t="shared" si="2"/>
+        <v>0.36053435798788636</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1883,6 +2823,15 @@
       </c>
       <c r="L15">
         <v>1.4615680713836277</v>
+      </c>
+      <c r="M15">
+        <v>3.5044197363655512</v>
+      </c>
+      <c r="N15">
+        <v>0.94746479493503111</v>
+      </c>
+      <c r="O15">
+        <v>0.93649312143056229</v>
       </c>
       <c r="Y15" s="1">
         <v>1</v>
@@ -1901,15 +2850,15 @@
         <v>0.22191448631139654</v>
       </c>
       <c r="AD15" s="1">
-        <f t="shared" ref="AD15:AF15" si="7">AVERAGE(H6,H12)</f>
+        <f t="shared" ref="AD15:AF15" si="8">AVERAGE(H6,H12)</f>
         <v>0.26401312170395269</v>
       </c>
       <c r="AE15" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.15335188999965108</v>
       </c>
       <c r="AF15" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.5151877025790086</v>
       </c>
       <c r="AG15" s="1">
@@ -1917,11 +2866,23 @@
         <v>1.4262679056956662</v>
       </c>
       <c r="AH15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.560264053223118</v>
       </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI15" s="1">
+        <f t="shared" si="2"/>
+        <v>2.9824770261212641</v>
+      </c>
+      <c r="AJ15" s="1">
+        <f t="shared" si="2"/>
+        <v>0.80597582966421888</v>
+      </c>
+      <c r="AK15" s="1">
+        <f t="shared" si="2"/>
+        <v>0.92508371062223593</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1958,6 +2919,15 @@
       <c r="L16">
         <v>1.5910576397230087</v>
       </c>
+      <c r="M16">
+        <v>3.4952830099644037</v>
+      </c>
+      <c r="N16">
+        <v>1.0193243037725064</v>
+      </c>
+      <c r="O16">
+        <v>0.86898724047251086</v>
+      </c>
       <c r="Y16" s="2">
         <v>1</v>
       </c>
@@ -1971,19 +2941,19 @@
         <v>100</v>
       </c>
       <c r="AC16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.13697772051619456</v>
       </c>
       <c r="AD16" s="2">
-        <f t="shared" ref="AD16:AF16" si="8">AVERAGE(H7,H13)</f>
+        <f t="shared" ref="AD16:AF16" si="9">AVERAGE(H7,H13)</f>
         <v>0.17168410142202084</v>
       </c>
       <c r="AE16" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.1631050421084922E-2</v>
       </c>
       <c r="AF16" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.0352778735180426</v>
       </c>
       <c r="AG16" s="2">
@@ -1991,11 +2961,23 @@
         <v>1.2582279641595804</v>
       </c>
       <c r="AH16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4559172118827153</v>
       </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI16" s="2">
+        <f t="shared" si="2"/>
+        <v>1.729379967522114</v>
+      </c>
+      <c r="AJ16" s="2">
+        <f t="shared" si="2"/>
+        <v>0.9766949821495764</v>
+      </c>
+      <c r="AK16" s="2">
+        <f t="shared" si="2"/>
+        <v>0.73200527510155355</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2031,6 +3013,15 @@
       </c>
       <c r="L17">
         <v>1.7151939001327161</v>
+      </c>
+      <c r="M17">
+        <v>3.290991004029999</v>
+      </c>
+      <c r="N17">
+        <v>0.82526441634449621</v>
+      </c>
+      <c r="O17">
+        <v>0.63645228792668607</v>
       </c>
       <c r="Y17" s="1">
         <v>1</v>
@@ -2049,27 +3040,39 @@
         <v>0.43975412260751356</v>
       </c>
       <c r="AD17" s="1">
-        <f t="shared" ref="AD17:AF17" si="9">AVERAGE(H38,H39)</f>
+        <f t="shared" ref="AD17:AF17" si="10">AVERAGE(H38,H39)</f>
         <v>0.70246176157041873</v>
       </c>
       <c r="AE17" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.0756831382274579</v>
       </c>
       <c r="AF17" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.1509076088370243</v>
       </c>
       <c r="AG17" s="1">
-        <f t="shared" ref="AG17" si="10">AVERAGE(K38,K39)</f>
-        <v>1.0636726583437464</v>
+        <f t="shared" ref="AG17" si="11">AVERAGE(K38,K39)</f>
+        <v>0.7945449780924736</v>
       </c>
       <c r="AH17" s="1">
-        <f t="shared" ref="AH17" si="11">AVERAGE(L38,L39)</f>
+        <f t="shared" ref="AH17" si="12">AVERAGE(L38,L39)</f>
         <v>0.86453672197037856</v>
       </c>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI17" s="1">
+        <f t="shared" ref="AI17" si="13">AVERAGE(M38,M39)</f>
+        <v>0.23926063639344258</v>
+      </c>
+      <c r="AJ17" s="1">
+        <f t="shared" ref="AJ17:AK17" si="14">AVERAGE(N38,N39)</f>
+        <v>0.7490131546172839</v>
+      </c>
+      <c r="AK17" s="1">
+        <f t="shared" si="14"/>
+        <v>2.0942468629100706</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2105,6 +3108,15 @@
       </c>
       <c r="L18">
         <v>1.3747997539644499</v>
+      </c>
+      <c r="M18">
+        <v>3.1673553563962225</v>
+      </c>
+      <c r="N18">
+        <v>0.87836735898363394</v>
+      </c>
+      <c r="O18">
+        <v>0.58676578985738082</v>
       </c>
       <c r="Y18" s="2">
         <v>2</v>
@@ -2123,11 +3135,11 @@
         <v>0.27930108691509004</v>
       </c>
       <c r="AD18" s="2">
-        <f t="shared" ref="AD18:AE18" si="12">AVERAGE(H14,H20)</f>
+        <f t="shared" ref="AD18:AE18" si="15">AVERAGE(H14,H20)</f>
         <v>0.24241527159586684</v>
       </c>
       <c r="AE18" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.1888209658547422</v>
       </c>
       <c r="AF18" s="2">
@@ -2135,15 +3147,27 @@
         <v>1.0905732372959951</v>
       </c>
       <c r="AG18" s="2">
-        <f t="shared" ref="AG18:AH23" si="13">AVERAGE(K14,K20)</f>
+        <f t="shared" ref="AG18:AH23" si="16">AVERAGE(K14,K20)</f>
         <v>1.1297236354088531</v>
       </c>
       <c r="AH18" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1101855114849379</v>
       </c>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI18" s="2">
+        <f t="shared" ref="AI18:AI23" si="17">AVERAGE(M14,M20)</f>
+        <v>2.6385282184657592</v>
+      </c>
+      <c r="AJ18" s="2">
+        <f t="shared" ref="AJ18:AK23" si="18">AVERAGE(N14,N20)</f>
+        <v>0.91667691089407499</v>
+      </c>
+      <c r="AK18" s="2">
+        <f t="shared" si="18"/>
+        <v>0.82118064825162418</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2177,6 +3201,15 @@
       <c r="K19">
         <v>1.8863469062099185</v>
       </c>
+      <c r="M19">
+        <v>4.2289359840814358</v>
+      </c>
+      <c r="N19">
+        <v>0.85131341336028998</v>
+      </c>
+      <c r="O19">
+        <v>0.52922167553637034</v>
+      </c>
       <c r="Y19" s="1">
         <v>2</v>
       </c>
@@ -2190,31 +3223,43 @@
         <v>0.1</v>
       </c>
       <c r="AC19" s="1">
-        <f t="shared" ref="AC19:AC22" si="14">AVERAGE(G15,G21)</f>
+        <f t="shared" ref="AC19:AC22" si="19">AVERAGE(G15,G21)</f>
         <v>0.22085908751344979</v>
       </c>
       <c r="AD19" s="1">
-        <f t="shared" ref="AD19:AF19" si="15">AVERAGE(H15,H21)</f>
+        <f t="shared" ref="AD19:AF19" si="20">AVERAGE(H15,H21)</f>
         <v>0.21812191431598543</v>
       </c>
       <c r="AE19" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.13627493483230119</v>
       </c>
       <c r="AF19" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>1.415147955479829</v>
       </c>
       <c r="AG19" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2087700411049518</v>
       </c>
       <c r="AH19" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.3372643045164261</v>
       </c>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI19" s="1">
+        <f t="shared" si="17"/>
+        <v>3.321257053728127</v>
+      </c>
+      <c r="AJ19" s="1">
+        <f t="shared" si="18"/>
+        <v>0.94341164831948365</v>
+      </c>
+      <c r="AK19" s="1">
+        <f t="shared" si="18"/>
+        <v>1.0976574130798702</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2251,6 +3296,15 @@
       <c r="L20">
         <v>1.0038803772655123</v>
       </c>
+      <c r="M20">
+        <v>2.3692029304717535</v>
+      </c>
+      <c r="N20">
+        <v>0.8212717592663672</v>
+      </c>
+      <c r="O20">
+        <v>0.89590781545198572</v>
+      </c>
       <c r="Y20" s="2">
         <v>2</v>
       </c>
@@ -2264,31 +3318,43 @@
         <v>0.1</v>
       </c>
       <c r="AC20" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.16337488611861595</v>
       </c>
       <c r="AD20" s="2">
-        <f t="shared" ref="AD20:AF20" si="16">AVERAGE(H16,H22)</f>
+        <f t="shared" ref="AD20:AF20" si="21">AVERAGE(H16,H22)</f>
         <v>0.19599452955587818</v>
       </c>
       <c r="AE20" s="2">
+        <f t="shared" si="21"/>
+        <v>6.3003950349280233E-2</v>
+      </c>
+      <c r="AF20" s="2">
+        <f t="shared" si="21"/>
+        <v>1.3599372596995611</v>
+      </c>
+      <c r="AG20" s="2">
         <f t="shared" si="16"/>
-        <v>6.3003950349280233E-2</v>
-      </c>
-      <c r="AF20" s="2">
-        <f t="shared" si="16"/>
-        <v>1.3599372596995611</v>
-      </c>
-      <c r="AG20" s="2">
-        <f t="shared" si="13"/>
         <v>1.5398208274816398</v>
       </c>
       <c r="AH20" s="2">
-        <f t="shared" si="13"/>
+        <f>AVERAGE(L16,L22)</f>
         <v>1.7354225139602659</v>
       </c>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI20" s="2">
+        <f t="shared" si="17"/>
+        <v>3.3311485643501024</v>
+      </c>
+      <c r="AJ20" s="2">
+        <f t="shared" si="18"/>
+        <v>1.0586271449060682</v>
+      </c>
+      <c r="AK20" s="2">
+        <f t="shared" si="18"/>
+        <v>1.0068759742371862</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2325,6 +3391,15 @@
       <c r="L21">
         <v>1.2129605376492243</v>
       </c>
+      <c r="M21">
+        <v>3.1380943710907023</v>
+      </c>
+      <c r="N21">
+        <v>0.93935850170393631</v>
+      </c>
+      <c r="O21">
+        <v>1.2588217047291779</v>
+      </c>
       <c r="Y21" s="1">
         <v>2</v>
       </c>
@@ -2338,31 +3413,43 @@
         <v>100</v>
       </c>
       <c r="AC21" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.12963411529321747</v>
       </c>
       <c r="AD21" s="1">
-        <f t="shared" ref="AD21:AF21" si="17">AVERAGE(H17,H23)</f>
+        <f t="shared" ref="AD21:AF21" si="22">AVERAGE(H17,H23)</f>
         <v>9.4315670842440733E-2</v>
       </c>
       <c r="AE21" s="1">
+        <f t="shared" si="22"/>
+        <v>5.1677304875675387E-2</v>
+      </c>
+      <c r="AF21" s="1">
+        <f t="shared" si="22"/>
+        <v>1.2640734939470093</v>
+      </c>
+      <c r="AG21" s="1">
+        <f t="shared" si="16"/>
+        <v>1.3679858145441006</v>
+      </c>
+      <c r="AH21" s="1">
+        <f t="shared" si="16"/>
+        <v>1.4473653326976006</v>
+      </c>
+      <c r="AI21" s="1">
         <f t="shared" si="17"/>
-        <v>5.1677304875675387E-2</v>
-      </c>
-      <c r="AF21" s="1">
-        <f t="shared" si="17"/>
-        <v>1.2640734939470093</v>
-      </c>
-      <c r="AG21" s="1">
-        <f t="shared" si="13"/>
-        <v>1.3679858145441006</v>
-      </c>
-      <c r="AH21" s="1">
-        <f t="shared" si="13"/>
-        <v>1.4473653326976006</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+        <v>3.1105258098499262</v>
+      </c>
+      <c r="AJ21" s="1">
+        <f t="shared" si="18"/>
+        <v>0.88894838955450683</v>
+      </c>
+      <c r="AK21" s="1">
+        <f t="shared" si="18"/>
+        <v>0.68295217148269982</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2399,6 +3486,15 @@
       <c r="L22">
         <v>1.8797873881975231</v>
       </c>
+      <c r="M22">
+        <v>3.1670141187358012</v>
+      </c>
+      <c r="N22">
+        <v>1.0979299860396301</v>
+      </c>
+      <c r="O22">
+        <v>1.1447647080018615</v>
+      </c>
       <c r="Y22" s="2">
         <v>2</v>
       </c>
@@ -2412,31 +3508,43 @@
         <v>100</v>
       </c>
       <c r="AC22" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>5.5260211196447917E-2</v>
       </c>
       <c r="AD22" s="2">
-        <f t="shared" ref="AD22:AF22" si="18">AVERAGE(H18,H24)</f>
+        <f t="shared" ref="AD22:AF22" si="23">AVERAGE(H18,H24)</f>
         <v>5.6507458970582056E-2</v>
       </c>
       <c r="AE22" s="2">
+        <f t="shared" si="23"/>
+        <v>2.4985972357239698E-2</v>
+      </c>
+      <c r="AF22" s="2">
+        <f t="shared" si="23"/>
+        <v>1.2531501122598296</v>
+      </c>
+      <c r="AG22" s="2">
+        <f t="shared" si="16"/>
+        <v>1.5985591831447235</v>
+      </c>
+      <c r="AH22" s="2">
+        <f t="shared" si="16"/>
+        <v>1.5831381667373383</v>
+      </c>
+      <c r="AI22" s="2">
+        <f t="shared" si="17"/>
+        <v>3.868854937153742</v>
+      </c>
+      <c r="AJ22" s="2">
         <f t="shared" si="18"/>
-        <v>2.4985972357239698E-2</v>
-      </c>
-      <c r="AF22" s="2">
+        <v>0.85747944008125865</v>
+      </c>
+      <c r="AK22" s="2">
         <f t="shared" si="18"/>
-        <v>1.2531501122598296</v>
-      </c>
-      <c r="AG22" s="2">
-        <f t="shared" si="13"/>
-        <v>1.5985591831447235</v>
-      </c>
-      <c r="AH22" s="2">
-        <f t="shared" si="13"/>
-        <v>1.5831381667373383</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+        <v>0.67047110371765961</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -2472,6 +3580,15 @@
       </c>
       <c r="L23">
         <v>1.1795367652624849</v>
+      </c>
+      <c r="M23">
+        <v>2.9300606156698534</v>
+      </c>
+      <c r="N23">
+        <v>0.95263236276451746</v>
+      </c>
+      <c r="O23">
+        <v>0.72945205503871369</v>
       </c>
       <c r="Y23" s="1">
         <v>2</v>
@@ -2490,27 +3607,39 @@
         <v>0.22237345437896094</v>
       </c>
       <c r="AD23" s="1">
-        <f t="shared" ref="AD23:AF23" si="19">AVERAGE(H19,H25)</f>
+        <f t="shared" ref="AD23:AF23" si="24">AVERAGE(H19,H25)</f>
         <v>0.22553175642055184</v>
       </c>
       <c r="AE23" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>8.8449849718028439E-2</v>
       </c>
       <c r="AF23" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>1.4358394154985801</v>
       </c>
       <c r="AG23" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.5068883615521056</v>
       </c>
       <c r="AH23" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.3885451094852912</v>
       </c>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI23" s="1">
+        <f t="shared" si="17"/>
+        <v>3.4723306521597181</v>
+      </c>
+      <c r="AJ23" s="1">
+        <f t="shared" si="18"/>
+        <v>0.87125692653746234</v>
+      </c>
+      <c r="AK23" s="1">
+        <f t="shared" si="18"/>
+        <v>0.77836948155500241</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -2546,6 +3675,15 @@
       </c>
       <c r="L24">
         <v>1.7914765795102268</v>
+      </c>
+      <c r="M24">
+        <v>4.5703545179112615</v>
+      </c>
+      <c r="N24">
+        <v>0.83659152117888347</v>
+      </c>
+      <c r="O24">
+        <v>0.75417641757793852</v>
       </c>
       <c r="Y24" s="2">
         <v>2</v>
@@ -2564,27 +3702,39 @@
         <v>0.6019702754798083</v>
       </c>
       <c r="AD24" s="1">
-        <f t="shared" ref="AD24:AF24" si="20">AVERAGE(H40:H41)</f>
+        <f t="shared" ref="AD24:AF24" si="25">AVERAGE(H40:H41)</f>
         <v>1.1382086029351339</v>
       </c>
       <c r="AE24" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>1.475942836910664</v>
       </c>
       <c r="AF24" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>1.3457210912533966</v>
       </c>
       <c r="AG24" s="1">
-        <f t="shared" ref="AG24" si="21">AVERAGE(K40:K41)</f>
+        <f t="shared" ref="AG24" si="26">AVERAGE(K40:K41)</f>
         <v>1.102299432142515</v>
       </c>
       <c r="AH24" s="1">
-        <f t="shared" ref="AH24" si="22">AVERAGE(L40:L41)</f>
+        <f t="shared" ref="AH24" si="27">AVERAGE(L40:L41)</f>
         <v>0.99818006677862248</v>
       </c>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI24" s="1">
+        <f t="shared" ref="AI24" si="28">AVERAGE(M40:M41)</f>
+        <v>0.24343073402264781</v>
+      </c>
+      <c r="AJ24" s="1">
+        <f t="shared" ref="AJ24:AK24" si="29">AVERAGE(N40:N41)</f>
+        <v>0.74163298429377578</v>
+      </c>
+      <c r="AK24" s="1">
+        <f t="shared" si="29"/>
+        <v>1.9639046601242263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2620,6 +3770,15 @@
       </c>
       <c r="L25">
         <v>1.3885451094852912</v>
+      </c>
+      <c r="M25">
+        <v>2.7157253202380005</v>
+      </c>
+      <c r="N25">
+        <v>0.89120043971463458</v>
+      </c>
+      <c r="O25">
+        <v>1.0275172875736345</v>
       </c>
       <c r="Y25" s="1">
         <v>3</v>
@@ -2638,27 +3797,39 @@
         <v>0.83692584840771878</v>
       </c>
       <c r="AD25" s="1">
-        <f t="shared" ref="AD25:AF25" si="23">AVERAGE(H20,H26)</f>
+        <f t="shared" ref="AD25:AF25" si="30">AVERAGE(H20,H26)</f>
         <v>0.51613441224578105</v>
       </c>
       <c r="AE25" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>0.37359239878671069</v>
       </c>
       <c r="AF25" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>1.133546250236604</v>
       </c>
       <c r="AG25" s="1">
-        <f t="shared" ref="AG25:AG30" si="24">AVERAGE(K20,K26)</f>
+        <f t="shared" ref="AG25:AG30" si="31">AVERAGE(K20,K26)</f>
         <v>0.9291707546041359</v>
       </c>
       <c r="AH25" s="1">
-        <f t="shared" ref="AH25:AH30" si="25">AVERAGE(L20,L26)</f>
+        <f t="shared" ref="AH25:AH30" si="32">AVERAGE(L20,L26)</f>
         <v>1.0959569522272021</v>
       </c>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI25" s="1">
+        <f t="shared" ref="AI25:AI30" si="33">AVERAGE(M20,M26)</f>
+        <v>1.9968828097524098</v>
+      </c>
+      <c r="AJ25" s="1">
+        <f t="shared" ref="AJ25:AK30" si="34">AVERAGE(N20,N26)</f>
+        <v>1.0294091327086803</v>
+      </c>
+      <c r="AK25" s="1">
+        <f t="shared" si="34"/>
+        <v>1.0140327400319715</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
@@ -2694,6 +3865,15 @@
       </c>
       <c r="L26">
         <v>1.1880335271888922</v>
+      </c>
+      <c r="M26">
+        <v>1.6245626890330664</v>
+      </c>
+      <c r="N26">
+        <v>1.2375465061509932</v>
+      </c>
+      <c r="O26">
+        <v>1.1321576646119575</v>
       </c>
       <c r="Y26" s="2">
         <v>3</v>
@@ -2712,27 +3892,39 @@
         <v>0.88906574141031514</v>
       </c>
       <c r="AD26" s="1">
-        <f t="shared" ref="AD26:AF26" si="26">AVERAGE(H21,H27)</f>
+        <f t="shared" ref="AD26:AF26" si="35">AVERAGE(H21,H27)</f>
         <v>0.53805620654963449</v>
       </c>
       <c r="AE26" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>0.47156440373431685</v>
       </c>
       <c r="AF26" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>1.1360657053878203</v>
       </c>
       <c r="AG26" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>0.98302999437149985</v>
       </c>
       <c r="AH26" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>1.0753036525473896</v>
       </c>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI26" s="1">
+        <f t="shared" si="33"/>
+        <v>2.044715658827942</v>
+      </c>
+      <c r="AJ26" s="1">
+        <f t="shared" si="34"/>
+        <v>1.0003377847410699</v>
+      </c>
+      <c r="AK26" s="1">
+        <f t="shared" si="34"/>
+        <v>1.219141227283858</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
@@ -2769,6 +3961,15 @@
       <c r="L27">
         <v>0.93764676744555497</v>
       </c>
+      <c r="M27">
+        <v>0.95133694656518197</v>
+      </c>
+      <c r="N27">
+        <v>1.0613170677782038</v>
+      </c>
+      <c r="O27">
+        <v>1.1794607498385383</v>
+      </c>
       <c r="Y27" s="1">
         <v>3</v>
       </c>
@@ -2782,31 +3983,43 @@
         <v>0.1</v>
       </c>
       <c r="AC27" s="1">
-        <f t="shared" ref="AC27:AC30" si="27">AVERAGE(G28,G34)</f>
+        <f t="shared" ref="AC27:AC30" si="36">AVERAGE(G28,G34)</f>
         <v>0.77349240843444211</v>
       </c>
       <c r="AD27" s="2">
-        <f t="shared" ref="AD27:AF27" si="28">AVERAGE(H22,H28)</f>
+        <f t="shared" ref="AD27:AF27" si="37">AVERAGE(H22,H28)</f>
         <v>0.51408662747209355</v>
       </c>
       <c r="AE27" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>0.20558275279760085</v>
       </c>
       <c r="AF27" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>1.3130085215076766</v>
       </c>
       <c r="AG27" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>1.3166591601294111</v>
       </c>
       <c r="AH27" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>1.6048547370966033</v>
       </c>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI27" s="2">
+        <f t="shared" si="33"/>
+        <v>2.2018103798807949</v>
+      </c>
+      <c r="AJ27" s="2">
+        <f t="shared" si="34"/>
+        <v>1.2415476513426187</v>
+      </c>
+      <c r="AK27" s="2">
+        <f t="shared" si="34"/>
+        <v>1.241794918641522</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -2843,6 +4056,15 @@
       <c r="L28">
         <v>1.3299220859956835</v>
       </c>
+      <c r="M28">
+        <v>1.2366066410257888</v>
+      </c>
+      <c r="N28">
+        <v>1.3851653166456073</v>
+      </c>
+      <c r="O28">
+        <v>1.3388251292811826</v>
+      </c>
       <c r="Y28" s="2">
         <v>3</v>
       </c>
@@ -2856,31 +4078,43 @@
         <v>100</v>
       </c>
       <c r="AC28" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>0.93402301270494181</v>
       </c>
       <c r="AD28" s="1">
-        <f t="shared" ref="AD28:AF28" si="29">AVERAGE(H23,H29)</f>
+        <f t="shared" ref="AD28:AF28" si="38">AVERAGE(H23,H29)</f>
         <v>0.43607198777638512</v>
       </c>
       <c r="AE28" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0.28988112132334559</v>
       </c>
       <c r="AF28" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>1.1112712545796222</v>
       </c>
       <c r="AG28" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>1.0792750305655159</v>
       </c>
       <c r="AH28" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>1.0303390005359256</v>
       </c>
-    </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI28" s="1">
+        <f t="shared" si="33"/>
+        <v>2.2368980777764977</v>
+      </c>
+      <c r="AJ28" s="1">
+        <f t="shared" si="34"/>
+        <v>1.10946070332214</v>
+      </c>
+      <c r="AK28" s="1">
+        <f t="shared" si="34"/>
+        <v>1.0516402437500112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
@@ -2917,6 +4151,15 @@
       <c r="L29">
         <v>0.88114123580936665</v>
       </c>
+      <c r="M29">
+        <v>1.5437355398831418</v>
+      </c>
+      <c r="N29">
+        <v>1.2662890438797627</v>
+      </c>
+      <c r="O29">
+        <v>1.3738284324613088</v>
+      </c>
       <c r="Y29" s="1">
         <v>3</v>
       </c>
@@ -2930,31 +4173,43 @@
         <v>100</v>
       </c>
       <c r="AC29" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>1.1062600377687439</v>
       </c>
       <c r="AD29" s="1">
-        <f t="shared" ref="AD29:AF29" si="30">AVERAGE(H24,H30)</f>
+        <f t="shared" ref="AD29:AF29" si="39">AVERAGE(H24,H30)</f>
         <v>0.50089439794615143</v>
       </c>
       <c r="AE29" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>0.45185114985562475</v>
       </c>
       <c r="AF29" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>0.97256148899428219</v>
       </c>
       <c r="AG29" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>1.4118457109943106</v>
       </c>
       <c r="AH29" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>1.3702389340535137</v>
       </c>
-    </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI29" s="1">
+        <f t="shared" si="33"/>
+        <v>2.7411453314870191</v>
+      </c>
+      <c r="AJ29" s="1">
+        <f t="shared" si="34"/>
+        <v>0.83649795856630793</v>
+      </c>
+      <c r="AK29" s="1">
+        <f t="shared" si="34"/>
+        <v>1.0384748601724922</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -2991,6 +4246,15 @@
       <c r="L30">
         <v>0.94900128859680055</v>
       </c>
+      <c r="M30">
+        <v>0.91193614506277687</v>
+      </c>
+      <c r="N30">
+        <v>0.83640439595373239</v>
+      </c>
+      <c r="O30">
+        <v>1.3227733027670459</v>
+      </c>
       <c r="Y30" s="2">
         <v>3</v>
       </c>
@@ -3004,31 +4268,43 @@
         <v>100</v>
       </c>
       <c r="AC30" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>1.0045900495800446</v>
       </c>
       <c r="AD30" s="2">
-        <f t="shared" ref="AD30:AF30" si="31">AVERAGE(H25,H31)</f>
+        <f t="shared" ref="AD30:AF30" si="40">AVERAGE(H25,H31)</f>
         <v>0.57185909214126418</v>
       </c>
       <c r="AE30" s="2">
+        <f t="shared" si="40"/>
+        <v>0.47242294654253225</v>
+      </c>
+      <c r="AF30" s="2">
+        <f t="shared" si="40"/>
+        <v>1.096127060858995</v>
+      </c>
+      <c r="AG30" s="2">
         <f t="shared" si="31"/>
-        <v>0.47242294654253225</v>
-      </c>
-      <c r="AF30" s="2">
-        <f t="shared" si="31"/>
-        <v>1.096127060858995</v>
-      </c>
-      <c r="AG30" s="2">
-        <f t="shared" si="24"/>
         <v>1.018324253350315</v>
       </c>
       <c r="AH30" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>1.1677899470865736</v>
       </c>
-    </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI30" s="2">
+        <f t="shared" si="33"/>
+        <v>1.7959217877054126</v>
+      </c>
+      <c r="AJ30" s="2">
+        <f t="shared" si="34"/>
+        <v>0.90269132262090368</v>
+      </c>
+      <c r="AK30" s="2">
+        <f t="shared" si="34"/>
+        <v>1.2845861378643186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -3064,6 +4340,15 @@
       </c>
       <c r="L31">
         <v>0.94703478468785596</v>
+      </c>
+      <c r="M31">
+        <v>0.8761182551728246</v>
+      </c>
+      <c r="N31">
+        <v>0.91418220552717266</v>
+      </c>
+      <c r="O31">
+        <v>1.5416549881550026</v>
       </c>
       <c r="Y31" s="1">
         <v>3</v>
@@ -3082,27 +4367,39 @@
         <v>0.51962577460668224</v>
       </c>
       <c r="AD31" s="1">
-        <f t="shared" ref="AD31:AF31" si="32">AVERAGE(H42:H43)</f>
+        <f t="shared" ref="AD31:AF31" si="41">AVERAGE(H42:H43)</f>
         <v>0.94641451009635436</v>
       </c>
       <c r="AE31" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.94794813781524201</v>
       </c>
       <c r="AF31" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>1.4612955836560211</v>
       </c>
       <c r="AG31" s="1">
-        <f t="shared" ref="AG31" si="33">AVERAGE(K42:K43)</f>
+        <f t="shared" ref="AG31" si="42">AVERAGE(K42:K43)</f>
         <v>1.2405818075985968</v>
       </c>
       <c r="AH31" s="1">
-        <f t="shared" ref="AH31" si="34">AVERAGE(L42:L43)</f>
+        <f t="shared" ref="AH31" si="43">AVERAGE(L42:L43)</f>
         <v>1.0873787247169562</v>
       </c>
-    </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI31" s="1">
+        <f t="shared" ref="AI31" si="44">AVERAGE(M42:M43)</f>
+        <v>0.22492706442374549</v>
+      </c>
+      <c r="AJ31" s="1">
+        <f t="shared" ref="AJ31:AK31" si="45">AVERAGE(N42:N43)</f>
+        <v>0.90654897380449695</v>
+      </c>
+      <c r="AK31" s="1">
+        <f t="shared" si="45"/>
+        <v>1.5236789665252861</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
@@ -3139,8 +4436,17 @@
       <c r="L32">
         <v>1.0636048536689533</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32">
+        <v>1.4405813138776045</v>
+      </c>
+      <c r="N32">
+        <v>1.2134702697219621</v>
+      </c>
+      <c r="O32">
+        <v>1.7650804371358415</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -3177,8 +4483,17 @@
       <c r="L33">
         <v>1.1248003557443784</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33">
+        <v>1.1342395225754811</v>
+      </c>
+      <c r="N33">
+        <v>0.96686792302031166</v>
+      </c>
+      <c r="O33">
+        <v>1.4750415949418572</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
@@ -3215,8 +4530,17 @@
       <c r="L34">
         <v>1.1660761224751257</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34">
+        <v>0.99955280831926518</v>
+      </c>
+      <c r="N34">
+        <v>1.1525403796091103</v>
+      </c>
+      <c r="O34">
+        <v>1.3017862153325095</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
@@ -3253,8 +4577,17 @@
       <c r="L35">
         <v>1.1069552660272901</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35">
+        <v>1.2927778288972456</v>
+      </c>
+      <c r="N35">
+        <v>1.2996638496953008</v>
+      </c>
+      <c r="O35">
+        <v>1.3052533695477215</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
@@ -3291,8 +4624,17 @@
       <c r="L36">
         <v>0.97298292253335161</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36">
+        <v>0.97990243064807148</v>
+      </c>
+      <c r="N36">
+        <v>0.97618816204046677</v>
+      </c>
+      <c r="O36">
+        <v>2.1290171575209387</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
@@ -3329,8 +4671,17 @@
       <c r="L37">
         <v>0.97660242536366759</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M37">
+        <v>0.81857436290496655</v>
+      </c>
+      <c r="N37">
+        <v>0.934081264941657</v>
+      </c>
+      <c r="O37">
+        <v>2.1090908038826788</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -3367,8 +4718,17 @@
       <c r="L38">
         <v>0.86453672197037856</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38">
+        <v>0.20471798920174764</v>
+      </c>
+      <c r="N38">
+        <v>0.7490131546172839</v>
+      </c>
+      <c r="O38">
+        <v>2.0942468629100706</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -3396,8 +4756,14 @@
       <c r="I39">
         <v>0.58538418200609266</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K39">
+        <v>0.52541729784120095</v>
+      </c>
+      <c r="M39">
+        <v>0.27380328358513756</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2</v>
       </c>
@@ -3434,8 +4800,17 @@
       <c r="L40">
         <v>0.99304228118421234</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <v>0.2505779742740421</v>
+      </c>
+      <c r="N40">
+        <v>0.7377745762695892</v>
+      </c>
+      <c r="O40">
+        <v>2.061101011968927</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2</v>
       </c>
@@ -3472,8 +4847,17 @@
       <c r="L41">
         <v>1.0033178523730326</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M41">
+        <v>0.23628349377125349</v>
+      </c>
+      <c r="N41">
+        <v>0.74549139231796235</v>
+      </c>
+      <c r="O41">
+        <v>1.8667083082795257</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3</v>
       </c>
@@ -3510,8 +4894,17 @@
       <c r="L42">
         <v>0.9841683002405851</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M42">
+        <v>0.21362408011114725</v>
+      </c>
+      <c r="N42">
+        <v>0.8596216752313981</v>
+      </c>
+      <c r="O42">
+        <v>1.3549445127435906</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3</v>
       </c>
@@ -3548,78 +4941,43 @@
       <c r="L43">
         <v>1.1905891491933274</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I45" t="s">
-        <v>70</v>
-      </c>
-      <c r="J45">
-        <f>AVERAGE(Table1[NFKB1])</f>
-        <v>1.1841500112700833</v>
-      </c>
-      <c r="K45">
-        <f>AVERAGE(Table1[JNK1])</f>
-        <v>1.2173582141297781</v>
-      </c>
-      <c r="L45">
-        <f>AVERAGE(Table1[JNK2])</f>
-        <v>1.2268917110822015</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I46" t="s">
-        <v>71</v>
-      </c>
-      <c r="J46">
-        <f>_xlfn.STDEV.S(Table1[NFKB1])</f>
-        <v>0.25032602632950995</v>
-      </c>
-      <c r="K46">
-        <f>_xlfn.STDEV.S(Table1[JNK1])</f>
-        <v>0.29870560844539246</v>
-      </c>
-      <c r="L46">
-        <f>_xlfn.STDEV.S(Table1[JNK2])</f>
-        <v>0.26269467093644716</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I47" t="s">
-        <v>72</v>
-      </c>
-      <c r="J47">
-        <f>J45-1.96*(J46)</f>
-        <v>0.6935109996642439</v>
-      </c>
-      <c r="K47">
-        <f t="shared" ref="K47:L47" si="35">K45-1.96*(K46)</f>
-        <v>0.63189522157680889</v>
-      </c>
-      <c r="L47">
-        <f t="shared" si="35"/>
-        <v>0.7120101560467651</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I48" t="s">
-        <v>73</v>
-      </c>
-      <c r="J48">
-        <f>J45+1.96*(J46)</f>
-        <v>1.6747890228759228</v>
-      </c>
-      <c r="K48">
-        <f t="shared" ref="K48:L48" si="36">K45+1.96*(K46)</f>
-        <v>1.8028212066827471</v>
-      </c>
-      <c r="L48">
-        <f t="shared" si="36"/>
-        <v>1.7417732661176379</v>
+      <c r="M43">
+        <v>0.23623004873634373</v>
+      </c>
+      <c r="N43">
+        <v>0.95347627237759569</v>
+      </c>
+      <c r="O43">
+        <v>1.6924134203069816</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2:J43">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:L43">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:N43">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3631,7 +4989,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:L43">
+  <conditionalFormatting sqref="O2:O43">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3644,29 +5002,30 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B02CF51-5187-4B53-8E13-4B1ED98A1456}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
         <v>57</v>
@@ -3687,13 +5046,22 @@
         <v>59</v>
       </c>
       <c r="I1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" t="s">
         <v>68</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3724,8 +5092,17 @@
       <c r="J2">
         <v>1.2503922596802464</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>1.4688734660120928</v>
+      </c>
+      <c r="L2">
+        <v>0.97273622747228605</v>
+      </c>
+      <c r="M2">
+        <v>0.59270541525781351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3756,8 +5133,17 @@
       <c r="J3">
         <v>1.1855098231618446</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>3.2136268395560537</v>
+      </c>
+      <c r="L3">
+        <v>0.83115914538677271</v>
+      </c>
+      <c r="M3">
+        <v>0.36019036976329022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3788,8 +5174,17 @@
       <c r="J4">
         <v>1.3089537036346754</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>2.8919807210453046</v>
+      </c>
+      <c r="L4">
+        <v>1.0621808912414208</v>
+      </c>
+      <c r="M4">
+        <v>0.64234270767861934</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3820,8 +5215,17 @@
       <c r="J5">
         <v>1.070451811949221</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>1.5397977344434768</v>
+      </c>
+      <c r="L5">
+        <v>0.94926648905807165</v>
+      </c>
+      <c r="M5">
+        <v>0.36053435798788636</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3852,8 +5256,17 @@
       <c r="J6">
         <v>1.560264053223118</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>2.9824770261212641</v>
+      </c>
+      <c r="L6">
+        <v>0.80597582966421888</v>
+      </c>
+      <c r="M6">
+        <v>0.92508371062223593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3884,8 +5297,17 @@
       <c r="J7">
         <v>1.4559172118827153</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>1.729379967522114</v>
+      </c>
+      <c r="L7">
+        <v>0.9766949821495764</v>
+      </c>
+      <c r="M7">
+        <v>0.73200527510155355</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3911,13 +5333,22 @@
         <v>1.1509076088370243</v>
       </c>
       <c r="I8">
-        <v>1.0636726583437464</v>
+        <v>0.7945449780924736</v>
       </c>
       <c r="J8">
         <v>0.86453672197037856</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>0.23926063639344258</v>
+      </c>
+      <c r="L8">
+        <v>0.7490131546172839</v>
+      </c>
+      <c r="M8">
+        <v>2.0942468629100706</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -3948,8 +5379,17 @@
       <c r="J9">
         <v>1.1101855114849379</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <v>2.6385282184657592</v>
+      </c>
+      <c r="L9">
+        <v>0.91667691089407499</v>
+      </c>
+      <c r="M9">
+        <v>0.82118064825162418</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -3980,8 +5420,17 @@
       <c r="J10">
         <v>1.3372643045164261</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>3.321257053728127</v>
+      </c>
+      <c r="L10">
+        <v>0.94341164831948365</v>
+      </c>
+      <c r="M10">
+        <v>1.0976574130798702</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -4012,8 +5461,17 @@
       <c r="J11">
         <v>1.7354225139602659</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <v>3.3311485643501024</v>
+      </c>
+      <c r="L11">
+        <v>1.0586271449060682</v>
+      </c>
+      <c r="M11">
+        <v>1.0068759742371862</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -4044,8 +5502,17 @@
       <c r="J12">
         <v>1.4473653326976006</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <v>3.1105258098499262</v>
+      </c>
+      <c r="L12">
+        <v>0.88894838955450683</v>
+      </c>
+      <c r="M12">
+        <v>0.68295217148269982</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -4076,8 +5543,17 @@
       <c r="J13">
         <v>1.5831381667373383</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <v>3.868854937153742</v>
+      </c>
+      <c r="L13">
+        <v>0.85747944008125865</v>
+      </c>
+      <c r="M13">
+        <v>0.67047110371765961</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -4108,8 +5584,17 @@
       <c r="J14">
         <v>1.3885451094852912</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <v>3.4723306521597181</v>
+      </c>
+      <c r="L14">
+        <v>0.87125692653746234</v>
+      </c>
+      <c r="M14">
+        <v>0.77836948155500241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -4140,8 +5625,17 @@
       <c r="J15">
         <v>0.99818006677862248</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <v>0.24343073402264781</v>
+      </c>
+      <c r="L15">
+        <v>0.74163298429377578</v>
+      </c>
+      <c r="M15">
+        <v>1.9639046601242263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -4172,8 +5666,17 @@
       <c r="J16">
         <v>1.0959569522272021</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>1.9968828097524098</v>
+      </c>
+      <c r="L16">
+        <v>1.0294091327086803</v>
+      </c>
+      <c r="M16">
+        <v>1.0140327400319715</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -4204,8 +5707,17 @@
       <c r="J17">
         <v>1.0753036525473896</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>2.044715658827942</v>
+      </c>
+      <c r="L17">
+        <v>1.0003377847410699</v>
+      </c>
+      <c r="M17">
+        <v>1.219141227283858</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
@@ -4236,8 +5748,17 @@
       <c r="J18">
         <v>1.6048547370966033</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <v>2.2018103798807949</v>
+      </c>
+      <c r="L18">
+        <v>1.2415476513426187</v>
+      </c>
+      <c r="M18">
+        <v>1.241794918641522</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
@@ -4268,8 +5789,17 @@
       <c r="J19">
         <v>1.0303390005359256</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <v>2.2368980777764977</v>
+      </c>
+      <c r="L19">
+        <v>1.10946070332214</v>
+      </c>
+      <c r="M19">
+        <v>1.0516402437500112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -4300,8 +5830,17 @@
       <c r="J20">
         <v>1.3702389340535137</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>2.7411453314870191</v>
+      </c>
+      <c r="L20">
+        <v>0.83649795856630793</v>
+      </c>
+      <c r="M20">
+        <v>1.0384748601724922</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3</v>
       </c>
@@ -4332,8 +5871,17 @@
       <c r="J21">
         <v>1.1677899470865736</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <v>1.7959217877054126</v>
+      </c>
+      <c r="L21">
+        <v>0.90269132262090368</v>
+      </c>
+      <c r="M21">
+        <v>1.2845861378643186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -4363,6 +5911,15 @@
       </c>
       <c r="J22">
         <v>1.0873787247169562</v>
+      </c>
+      <c r="K22">
+        <v>0.22492706442374549</v>
+      </c>
+      <c r="L22">
+        <v>0.90654897380449695</v>
+      </c>
+      <c r="M22">
+        <v>1.5236789665252861</v>
       </c>
     </row>
   </sheetData>

--- a/HNM qPCR Summary.xlsx
+++ b/HNM qPCR Summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/spet4768_ox_ac_uk/Documents/Desktop/Results/HNM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="514" documentId="11_F25DC773A252ABDACC1048A9519B73345BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61454040-AD9C-4EEC-A7ED-9E097341A649}"/>
+  <xr:revisionPtr revIDLastSave="591" documentId="11_F25DC773A252ABDACC1048A9519B73345BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AAA3D2A-4247-43D2-B2A5-78C4368C8E33}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,7 @@
     <sheet name="For R" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Averages!$K$2:$K$43</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Averages!$O$2:$O$43</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Averages!$U$2:$U$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="73">
   <si>
     <t>Round</t>
   </si>
@@ -222,15 +221,6 @@
     <t>NFKB1</t>
   </si>
   <si>
-    <t>Column6</t>
-  </si>
-  <si>
-    <t>Column7</t>
-  </si>
-  <si>
-    <t>Column8</t>
-  </si>
-  <si>
     <t>Order</t>
   </si>
   <si>
@@ -250,6 +240,24 @@
   </si>
   <si>
     <t>HSPA5</t>
+  </si>
+  <si>
+    <t>IL1B</t>
+  </si>
+  <si>
+    <t>ATF4</t>
+  </si>
+  <si>
+    <t>ATF6</t>
+  </si>
+  <si>
+    <t>IL6</t>
+  </si>
+  <si>
+    <t>MTOR</t>
+  </si>
+  <si>
+    <t>ERN1</t>
   </si>
 </sst>
 </file>
@@ -340,7 +348,223 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -902,7 +1126,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -910,7 +1134,7 @@
     <cx:title pos="t" align="ctr" overlay="0"/>
     <cx:plotArea>
       <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{5E9A4731-210A-43AD-9DB9-6DE2EED227BB}">
+        <cx:series layoutId="boxWhisker" uniqueId="{D2638E0F-3FCB-4536-8D56-563E4812F9FA}">
           <cx:dataId val="0"/>
           <cx:layoutPr>
             <cx:statistics quartileMethod="exclusive"/>
@@ -1490,16 +1714,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -1535,7 +1759,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2857500" y="8634412"/>
+              <a:off x="10696575" y="8834437"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1570,12 +1794,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FBE03662-43CB-42C1-A8B8-67AC459D2C7F}" name="Table1" displayName="Table1" ref="A1:R43" totalsRowShown="0">
-  <autoFilter ref="A1:R43" xr:uid="{FBE03662-43CB-42C1-A8B8-67AC459D2C7F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FBE03662-43CB-42C1-A8B8-67AC459D2C7F}" name="Table1" displayName="Table1" ref="A1:U43" totalsRowShown="0">
+  <autoFilter ref="A1:U43" xr:uid="{FBE03662-43CB-42C1-A8B8-67AC459D2C7F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R43">
     <sortCondition ref="E1:E43"/>
   </sortState>
-  <tableColumns count="18">
+  <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{DA512A4B-BD7E-4132-917E-225A034F5220}" name="Round"/>
     <tableColumn id="2" xr3:uid="{A7ED4474-7BD1-44A8-88DF-F0DF740F631C}" name="Condition"/>
     <tableColumn id="3" xr3:uid="{24BFD542-A364-491A-9071-8A61679D1F8D}" name="Fat"/>
@@ -1591,31 +1815,40 @@
     <tableColumn id="13" xr3:uid="{9ECAD487-ED21-46ED-878C-9BBA03156479}" name="CXCL8"/>
     <tableColumn id="14" xr3:uid="{75D9D8C1-D22C-44E3-BD83-3AE118AF19F6}" name="CASP3"/>
     <tableColumn id="15" xr3:uid="{12919DB5-8140-4956-9CAB-BBCAC7596767}" name="HSPA5"/>
-    <tableColumn id="16" xr3:uid="{D8AF5874-E84D-48C8-9192-AC2698B06A95}" name="Column6"/>
-    <tableColumn id="17" xr3:uid="{F48D1FDE-C7C9-421D-BFB2-D2E3BDEF2006}" name="Column7"/>
-    <tableColumn id="18" xr3:uid="{D7BD50A9-4098-4E6A-8841-CF82BEB06758}" name="Column8"/>
+    <tableColumn id="16" xr3:uid="{D8AF5874-E84D-48C8-9192-AC2698B06A95}" name="IL1B"/>
+    <tableColumn id="17" xr3:uid="{F48D1FDE-C7C9-421D-BFB2-D2E3BDEF2006}" name="ATF4"/>
+    <tableColumn id="18" xr3:uid="{D7BD50A9-4098-4E6A-8841-CF82BEB06758}" name="ATF6"/>
+    <tableColumn id="4" xr3:uid="{43108AAD-62ED-4DD0-90E1-AADE8FBB01B1}" name="IL6"/>
+    <tableColumn id="19" xr3:uid="{148C3C1A-A893-453A-92F3-B19DB61FC39E}" name="MTOR"/>
+    <tableColumn id="21" xr3:uid="{2EF5ED8E-E505-4227-9322-D637287A9E8E}" name="ERN1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4773263E-B173-4791-B48F-23559BC8A877}" name="Table2" displayName="Table2" ref="Y10:AK31" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
-  <autoFilter ref="Y10:AK31" xr:uid="{4773263E-B173-4791-B48F-23559BC8A877}"/>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{C30DE3D8-9591-4260-A464-CE42CEC9CF71}" name="Round" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{FD9B6DD4-A438-4D7E-ABB5-48EE35BAFC47}" name="Condition" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{1141554C-9B32-495F-9E28-9CE85D42E522}" name="Fat" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{FF34C0D3-B7DB-467D-A6A7-A9939D9328EC}" name="Insulin (nM)" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{3DAF0E04-39D7-4A07-9C37-0202A2849C98}" name="B2M" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{6C32B31E-66A2-48D6-BC85-7E0C8E55327D}" name="YWHAZ" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{C1151B84-B188-4F45-95ED-03793DD4A76F}" name="HMBS" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{37FAB617-5067-44AA-B331-2CB553136DAD}" name="NFKB1" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{A18F7956-2DD1-47F2-8ABD-B2C131955775}" name="JNK1" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{30412466-77B3-4FDB-8451-DAFCFC8D4EB1}" name="JNK2" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{EE0DD0DC-4B7B-4CFE-9C17-53554D6289A1}" name="CXCL8" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{B3AE9179-61DE-4816-A799-9EB2322A5265}" name="CASP3" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{640424D3-40B3-46C6-80AF-F9B4BB3933D5}" name="HSPA5" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4773263E-B173-4791-B48F-23559BC8A877}" name="Table2" displayName="Table2" ref="Y10:AQ31" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
+  <autoFilter ref="Y10:AQ31" xr:uid="{4773263E-B173-4791-B48F-23559BC8A877}"/>
+  <tableColumns count="19">
+    <tableColumn id="1" xr3:uid="{C30DE3D8-9591-4260-A464-CE42CEC9CF71}" name="Round" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{FD9B6DD4-A438-4D7E-ABB5-48EE35BAFC47}" name="Condition" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{1141554C-9B32-495F-9E28-9CE85D42E522}" name="Fat" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{FF34C0D3-B7DB-467D-A6A7-A9939D9328EC}" name="Insulin (nM)" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{3DAF0E04-39D7-4A07-9C37-0202A2849C98}" name="B2M" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{6C32B31E-66A2-48D6-BC85-7E0C8E55327D}" name="YWHAZ" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{C1151B84-B188-4F45-95ED-03793DD4A76F}" name="HMBS" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{37FAB617-5067-44AA-B331-2CB553136DAD}" name="NFKB1" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{A18F7956-2DD1-47F2-8ABD-B2C131955775}" name="JNK1" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{30412466-77B3-4FDB-8451-DAFCFC8D4EB1}" name="JNK2" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{EE0DD0DC-4B7B-4CFE-9C17-53554D6289A1}" name="CXCL8" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{B3AE9179-61DE-4816-A799-9EB2322A5265}" name="CASP3" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{640424D3-40B3-46C6-80AF-F9B4BB3933D5}" name="HSPA5" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{F84B3A9B-6B83-4207-83B5-268F79578D61}" name="IL1B" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{1B2D0EBA-0962-4C39-8DE0-B8CB10E9E44C}" name="ATF4" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{4CB88A1C-C7FF-40F1-89EC-A32BF8D60E61}" name="ATF6" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{2025CFD9-1513-4C30-B154-5A5E039E6C5B}" name="IL6" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{BC0C19A6-AEEC-4DEA-979A-01C825F60B3F}" name="MTOR" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{05562301-CD06-4A11-B321-251BA6640B5F}" name="ERN1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1884,10 +2117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK43"/>
+  <dimension ref="A1:AQ43"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Y10" sqref="Y10:AK31"/>
+    <sheetView topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Y10" sqref="Y10:AQ31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1901,12 +2134,12 @@
     <col min="27" max="27" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
         <v>57</v>
@@ -1915,7 +2148,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -1933,31 +2166,40 @@
         <v>59</v>
       </c>
       <c r="K1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" t="s">
         <v>65</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>66</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>67</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>68</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>69</v>
       </c>
-      <c r="P1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>61</v>
-      </c>
-      <c r="R1" t="s">
-        <v>62</v>
+      <c r="S1" t="s">
+        <v>70</v>
+      </c>
+      <c r="T1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U1" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2003,8 +2245,26 @@
       <c r="O2">
         <v>0.51687617208725822</v>
       </c>
+      <c r="P2">
+        <v>1.2715174240466089</v>
+      </c>
+      <c r="Q2">
+        <v>1.2058110722606903</v>
+      </c>
+      <c r="R2">
+        <v>1.0149943136795025</v>
+      </c>
+      <c r="S2">
+        <v>1.8794074900334163</v>
+      </c>
+      <c r="T2">
+        <v>1.206084317924015</v>
+      </c>
+      <c r="U2">
+        <v>1.7092050951429778</v>
+      </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2050,8 +2310,26 @@
       <c r="O3">
         <v>0.61510097849124279</v>
       </c>
+      <c r="P3">
+        <v>2.7126751313851676</v>
+      </c>
+      <c r="Q3">
+        <v>1.1784478232557776</v>
+      </c>
+      <c r="R3">
+        <v>1.2946117767566947</v>
+      </c>
+      <c r="S3">
+        <v>4.0628766723197112</v>
+      </c>
+      <c r="T3">
+        <v>1.2570195359136549</v>
+      </c>
+      <c r="U3">
+        <v>1.6541493137080805</v>
+      </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2097,8 +2375,26 @@
       <c r="O4">
         <v>0.8474299348481148</v>
       </c>
+      <c r="P4">
+        <v>5.8205134229438373</v>
+      </c>
+      <c r="Q4">
+        <v>1.213107868505108</v>
+      </c>
+      <c r="R4">
+        <v>1.2859176672325832</v>
+      </c>
+      <c r="S4">
+        <v>4.079304606152296</v>
+      </c>
+      <c r="T4">
+        <v>1.2851977269445349</v>
+      </c>
+      <c r="U4">
+        <v>1.6959387124034226</v>
+      </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2144,8 +2440,26 @@
       <c r="O5">
         <v>0.58418506038166895</v>
       </c>
+      <c r="P5">
+        <v>9.7007275433230653</v>
+      </c>
+      <c r="Q5">
+        <v>1.7097629368648064</v>
+      </c>
+      <c r="R5">
+        <v>0.8377404346139653</v>
+      </c>
+      <c r="S5">
+        <v>8.4025303817002897</v>
+      </c>
+      <c r="T5">
+        <v>0.99963348454851153</v>
+      </c>
+      <c r="U5">
+        <v>1.4519354365042176</v>
+      </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2191,8 +2505,26 @@
       <c r="O6">
         <v>0.97141052494297842</v>
       </c>
+      <c r="P6">
+        <v>1.5713241586879696</v>
+      </c>
+      <c r="Q6">
+        <v>1.148117952175647</v>
+      </c>
+      <c r="R6">
+        <v>1.166602000900439</v>
+      </c>
+      <c r="S6">
+        <v>2.2040450093351924</v>
+      </c>
+      <c r="T6">
+        <v>1.2210107870283979</v>
+      </c>
+      <c r="U6">
+        <v>1.5098393738353117</v>
+      </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2232,11 +2564,26 @@
       <c r="M7">
         <v>1.8147379152898324</v>
       </c>
+      <c r="N7">
+        <v>0.46658701029961985</v>
+      </c>
       <c r="O7">
         <v>0.5778944778457944</v>
       </c>
+      <c r="P7">
+        <v>11.659712670681644</v>
+      </c>
+      <c r="Q7">
+        <v>1.5312182358049651</v>
+      </c>
+      <c r="R7">
+        <v>1.0287383958929324</v>
+      </c>
+      <c r="T7">
+        <v>0.83210641234325189</v>
+      </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2282,8 +2629,26 @@
       <c r="O8">
         <v>0.66853465842836879</v>
       </c>
+      <c r="P8">
+        <v>1.1811511763130373</v>
+      </c>
+      <c r="Q8">
+        <v>1.2279498383208283</v>
+      </c>
+      <c r="R8">
+        <v>1.161256186271566</v>
+      </c>
+      <c r="S8">
+        <v>7.656620787157844</v>
+      </c>
+      <c r="T8">
+        <v>1.4352265305445728</v>
+      </c>
+      <c r="U8">
+        <v>1.8426037259307064</v>
+      </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2329,8 +2694,20 @@
       <c r="O9">
         <v>0.10527976103533762</v>
       </c>
+      <c r="Q9">
+        <v>1.0514491538915396</v>
+      </c>
+      <c r="R9">
+        <v>0.45599449814689014</v>
+      </c>
+      <c r="S9">
+        <v>25.238532692214772</v>
+      </c>
+      <c r="T9">
+        <v>0.43518577850554258</v>
+      </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2361,6 +2738,12 @@
       <c r="J10">
         <v>1.1565528228511497</v>
       </c>
+      <c r="K10">
+        <v>2.4690407659316507</v>
+      </c>
+      <c r="L10">
+        <v>2.9721125790225287</v>
+      </c>
       <c r="M10">
         <v>4.1971236754054706</v>
       </c>
@@ -2370,11 +2753,20 @@
       <c r="O10">
         <v>0.43725548050912394</v>
       </c>
+      <c r="Q10">
+        <v>1.3527794692428865</v>
+      </c>
+      <c r="R10">
+        <v>0.99493269853596344</v>
+      </c>
+      <c r="T10">
+        <v>0.26134517345535185</v>
+      </c>
       <c r="Y10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AA10" s="3" t="s">
         <v>57</v>
@@ -2395,22 +2787,40 @@
         <v>59</v>
       </c>
       <c r="AG10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ10" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AH10" s="3" t="s">
+      <c r="AK10" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AI10" s="3" t="s">
+      <c r="AL10" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="AJ10" s="3" t="s">
+      <c r="AM10" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AK10" s="3" t="s">
+      <c r="AN10" s="3" t="s">
         <v>69</v>
       </c>
+      <c r="AO10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ10" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2438,6 +2848,9 @@
       <c r="I11">
         <v>1.9875002981871869E-3</v>
       </c>
+      <c r="J11">
+        <v>0.43127705186835341</v>
+      </c>
       <c r="K11">
         <v>1.8628681249413019</v>
       </c>
@@ -2452,6 +2865,15 @@
       </c>
       <c r="O11">
         <v>0.13688365559410379</v>
+      </c>
+      <c r="Q11">
+        <v>0.78688221499663413</v>
+      </c>
+      <c r="R11">
+        <v>0.54509613338007701</v>
+      </c>
+      <c r="T11">
+        <v>0.46376345851317646</v>
       </c>
       <c r="Y11" s="1">
         <v>1</v>
@@ -2490,7 +2912,7 @@
         <v>1.2503922596802464</v>
       </c>
       <c r="AI11" s="1">
-        <f t="shared" ref="AI11:AK16" si="2">AVERAGE(M2,M8)</f>
+        <f t="shared" ref="AI11:AL16" si="2">AVERAGE(M2,M8)</f>
         <v>1.4688734660120928</v>
       </c>
       <c r="AJ11" s="1">
@@ -2501,8 +2923,32 @@
         <f t="shared" si="2"/>
         <v>0.59270541525781351</v>
       </c>
+      <c r="AL11" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2263343001798233</v>
+      </c>
+      <c r="AM11" s="1">
+        <f t="shared" ref="AM11:AM16" si="3">AVERAGE(Q2,Q8)</f>
+        <v>1.2168804552907593</v>
+      </c>
+      <c r="AN11" s="1">
+        <f t="shared" ref="AN11:AO16" si="4">AVERAGE(R2,R8)</f>
+        <v>1.0881252499755343</v>
+      </c>
+      <c r="AO11" s="1">
+        <f t="shared" si="4"/>
+        <v>4.7680141385956301</v>
+      </c>
+      <c r="AP11" s="1">
+        <f t="shared" ref="AP11:AP16" si="5">AVERAGE(T2,T8)</f>
+        <v>1.3206554242342938</v>
+      </c>
+      <c r="AQ11" s="1">
+        <f t="shared" ref="AQ11:AQ16" si="6">AVERAGE(U2,U8)</f>
+        <v>1.775904410536842</v>
+      </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2548,6 +2994,24 @@
       <c r="O12">
         <v>0.87875689630149345</v>
       </c>
+      <c r="P12">
+        <v>6.3796427542062837</v>
+      </c>
+      <c r="Q12">
+        <v>1.6199242751992251</v>
+      </c>
+      <c r="R12">
+        <v>1.1334708588898901</v>
+      </c>
+      <c r="S12">
+        <v>1.926099985587125</v>
+      </c>
+      <c r="T12">
+        <v>1.1902728220813219</v>
+      </c>
+      <c r="U12">
+        <v>2.2904895486569092</v>
+      </c>
       <c r="Y12" s="2">
         <v>1</v>
       </c>
@@ -2561,19 +3025,19 @@
         <v>0.1</v>
       </c>
       <c r="AC12" s="2">
-        <f t="shared" ref="AC12:AC16" si="3">AVERAGE(G3,G9)</f>
+        <f t="shared" ref="AC12:AC16" si="7">AVERAGE(G3,G9)</f>
         <v>0.15008787518795649</v>
       </c>
       <c r="AD12" s="2">
-        <f t="shared" ref="AD12:AF12" si="4">AVERAGE(H3,H9)</f>
+        <f t="shared" ref="AD12:AF12" si="8">AVERAGE(H3,H9)</f>
         <v>0.16684891915212</v>
       </c>
       <c r="AE12" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.7389984722547618E-2</v>
       </c>
       <c r="AF12" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.99248119230965992</v>
       </c>
       <c r="AG12" s="2">
@@ -2581,7 +3045,7 @@
         <v>1.2911876173328276</v>
       </c>
       <c r="AH12" s="2">
-        <f t="shared" ref="AH12:AH16" si="5">AVERAGE(L3,L9)</f>
+        <f t="shared" ref="AH12:AH16" si="9">AVERAGE(L3,L9)</f>
         <v>1.1855098231618446</v>
       </c>
       <c r="AI12" s="2">
@@ -2596,8 +3060,32 @@
         <f t="shared" si="2"/>
         <v>0.36019036976329022</v>
       </c>
+      <c r="AL12" s="2">
+        <f t="shared" si="2"/>
+        <v>2.7126751313851676</v>
+      </c>
+      <c r="AM12" s="2">
+        <f t="shared" si="3"/>
+        <v>1.1149484885736585</v>
+      </c>
+      <c r="AN12" s="2">
+        <f t="shared" si="4"/>
+        <v>0.87530313745179245</v>
+      </c>
+      <c r="AO12" s="2">
+        <f t="shared" si="4"/>
+        <v>14.650704682267241</v>
+      </c>
+      <c r="AP12" s="2">
+        <f t="shared" si="5"/>
+        <v>0.84610265720959876</v>
+      </c>
+      <c r="AQ12" s="2">
+        <f t="shared" si="6"/>
+        <v>1.6541493137080805</v>
+      </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2643,6 +3131,24 @@
       <c r="O13">
         <v>0.8861160723573126</v>
       </c>
+      <c r="P13">
+        <v>1.8943197767810782</v>
+      </c>
+      <c r="Q13">
+        <v>1.2140045077721784</v>
+      </c>
+      <c r="R13">
+        <v>1.2041671878246418</v>
+      </c>
+      <c r="S13">
+        <v>0.50835289923728522</v>
+      </c>
+      <c r="T13">
+        <v>1.3363911990247967</v>
+      </c>
+      <c r="U13">
+        <v>1.6293547381439208</v>
+      </c>
       <c r="Y13" s="1">
         <v>1</v>
       </c>
@@ -2656,28 +3162,28 @@
         <v>0.1</v>
       </c>
       <c r="AC13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.13597041129199006</v>
       </c>
       <c r="AD13" s="1">
-        <f t="shared" ref="AD13:AF13" si="6">AVERAGE(H4,H10)</f>
+        <f t="shared" ref="AD13:AF13" si="10">AVERAGE(H4,H10)</f>
         <v>0.15209349657235291</v>
       </c>
       <c r="AE13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>8.6128608624427005E-2</v>
       </c>
       <c r="AF13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.3356336701614802</v>
       </c>
       <c r="AG13" s="1">
         <f t="shared" si="1"/>
-        <v>1.1402173189573699</v>
+        <v>1.8046290424445104</v>
       </c>
       <c r="AH13" s="1">
-        <f t="shared" si="5"/>
-        <v>1.3089537036346754</v>
+        <f t="shared" si="9"/>
+        <v>2.1405331413286022</v>
       </c>
       <c r="AI13" s="1">
         <f t="shared" si="2"/>
@@ -2691,8 +3197,32 @@
         <f t="shared" si="2"/>
         <v>0.64234270767861934</v>
       </c>
+      <c r="AL13" s="1">
+        <f t="shared" si="2"/>
+        <v>5.8205134229438373</v>
+      </c>
+      <c r="AM13" s="1">
+        <f t="shared" si="3"/>
+        <v>1.2829436688739972</v>
+      </c>
+      <c r="AN13" s="1">
+        <f t="shared" si="4"/>
+        <v>1.1404251828842733</v>
+      </c>
+      <c r="AO13" s="1">
+        <f t="shared" si="4"/>
+        <v>4.079304606152296</v>
+      </c>
+      <c r="AP13" s="1">
+        <f t="shared" si="5"/>
+        <v>0.77327145019994337</v>
+      </c>
+      <c r="AQ13" s="1">
+        <f t="shared" si="6"/>
+        <v>1.6959387124034226</v>
+      </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2738,6 +3268,24 @@
       <c r="O14">
         <v>0.74645348105126252</v>
       </c>
+      <c r="P14">
+        <v>7.6167164792397291</v>
+      </c>
+      <c r="Q14">
+        <v>1.3069559822221397</v>
+      </c>
+      <c r="R14">
+        <v>1.1348517725106617</v>
+      </c>
+      <c r="S14">
+        <v>15.777224366847957</v>
+      </c>
+      <c r="T14">
+        <v>1.2982005350717256</v>
+      </c>
+      <c r="U14">
+        <v>1.6310902495972543</v>
+      </c>
       <c r="Y14" s="2">
         <v>1</v>
       </c>
@@ -2751,27 +3299,27 @@
         <v>100</v>
       </c>
       <c r="AC14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.8795102434323242E-2</v>
       </c>
       <c r="AD14" s="2">
-        <f t="shared" ref="AD14:AF14" si="7">AVERAGE(H5,H11)</f>
+        <f t="shared" ref="AD14:AF14" si="11">AVERAGE(H5,H11)</f>
         <v>2.7796260779966244E-2</v>
       </c>
       <c r="AE14" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.6365129847331097E-2</v>
       </c>
       <c r="AF14" s="2">
-        <f t="shared" si="7"/>
-        <v>0.91845184657956302</v>
+        <f t="shared" si="11"/>
+        <v>0.67486444922395816</v>
       </c>
       <c r="AG14" s="2">
         <f t="shared" si="1"/>
         <v>1.7751228556474941</v>
       </c>
       <c r="AH14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.070451811949221</v>
       </c>
       <c r="AI14" s="2">
@@ -2786,8 +3334,32 @@
         <f t="shared" si="2"/>
         <v>0.36053435798788636</v>
       </c>
+      <c r="AL14" s="2">
+        <f t="shared" si="2"/>
+        <v>9.7007275433230653</v>
+      </c>
+      <c r="AM14" s="2">
+        <f t="shared" si="3"/>
+        <v>1.2483225759307204</v>
+      </c>
+      <c r="AN14" s="2">
+        <f t="shared" si="4"/>
+        <v>0.6914182839970211</v>
+      </c>
+      <c r="AO14" s="2">
+        <f t="shared" si="4"/>
+        <v>8.4025303817002897</v>
+      </c>
+      <c r="AP14" s="2">
+        <f t="shared" si="5"/>
+        <v>0.731698471530844</v>
+      </c>
+      <c r="AQ14" s="2">
+        <f t="shared" si="6"/>
+        <v>1.4519354365042176</v>
+      </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2832,6 +3404,24 @@
       </c>
       <c r="O15">
         <v>0.93649312143056229</v>
+      </c>
+      <c r="P15">
+        <v>4.634480079653553</v>
+      </c>
+      <c r="Q15">
+        <v>1.3279019865245392</v>
+      </c>
+      <c r="R15">
+        <v>1.2857232892166264</v>
+      </c>
+      <c r="S15">
+        <v>2.2356649322980893</v>
+      </c>
+      <c r="T15">
+        <v>1.336818593952056</v>
+      </c>
+      <c r="U15">
+        <v>1.5488733646955861</v>
       </c>
       <c r="Y15" s="1">
         <v>1</v>
@@ -2850,15 +3440,15 @@
         <v>0.22191448631139654</v>
       </c>
       <c r="AD15" s="1">
-        <f t="shared" ref="AD15:AF15" si="8">AVERAGE(H6,H12)</f>
+        <f t="shared" ref="AD15:AF15" si="12">AVERAGE(H6,H12)</f>
         <v>0.26401312170395269</v>
       </c>
       <c r="AE15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.15335188999965108</v>
       </c>
       <c r="AF15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.5151877025790086</v>
       </c>
       <c r="AG15" s="1">
@@ -2866,7 +3456,7 @@
         <v>1.4262679056956662</v>
       </c>
       <c r="AH15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.560264053223118</v>
       </c>
       <c r="AI15" s="1">
@@ -2881,8 +3471,32 @@
         <f t="shared" si="2"/>
         <v>0.92508371062223593</v>
       </c>
+      <c r="AL15" s="1">
+        <f t="shared" si="2"/>
+        <v>3.9754834564471269</v>
+      </c>
+      <c r="AM15" s="1">
+        <f t="shared" si="3"/>
+        <v>1.3840211136874361</v>
+      </c>
+      <c r="AN15" s="1">
+        <f t="shared" si="4"/>
+        <v>1.1500364298951644</v>
+      </c>
+      <c r="AO15" s="1">
+        <f t="shared" si="4"/>
+        <v>2.0650724974611587</v>
+      </c>
+      <c r="AP15" s="1">
+        <f t="shared" si="5"/>
+        <v>1.20564180455486</v>
+      </c>
+      <c r="AQ15" s="1">
+        <f t="shared" si="6"/>
+        <v>1.9001644612461104</v>
+      </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2928,6 +3542,24 @@
       <c r="O16">
         <v>0.86898724047251086</v>
       </c>
+      <c r="P16">
+        <v>10.922251100146184</v>
+      </c>
+      <c r="Q16">
+        <v>1.5915753853605483</v>
+      </c>
+      <c r="R16">
+        <v>1.3034695734668564</v>
+      </c>
+      <c r="S16">
+        <v>8.5764037072012442</v>
+      </c>
+      <c r="T16">
+        <v>1.5759346820284075</v>
+      </c>
+      <c r="U16">
+        <v>1.5338621613843297</v>
+      </c>
       <c r="Y16" s="2">
         <v>1</v>
       </c>
@@ -2941,19 +3573,19 @@
         <v>100</v>
       </c>
       <c r="AC16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.13697772051619456</v>
       </c>
       <c r="AD16" s="2">
-        <f t="shared" ref="AD16:AF16" si="9">AVERAGE(H7,H13)</f>
+        <f t="shared" ref="AD16:AF16" si="13">AVERAGE(H7,H13)</f>
         <v>0.17168410142202084</v>
       </c>
       <c r="AE16" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>9.1631050421084922E-2</v>
       </c>
       <c r="AF16" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.0352778735180426</v>
       </c>
       <c r="AG16" s="2">
@@ -2961,7 +3593,7 @@
         <v>1.2582279641595804</v>
       </c>
       <c r="AH16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.4559172118827153</v>
       </c>
       <c r="AI16" s="2">
@@ -2970,14 +3602,38 @@
       </c>
       <c r="AJ16" s="2">
         <f t="shared" si="2"/>
-        <v>0.9766949821495764</v>
+        <v>0.7216409962245981</v>
       </c>
       <c r="AK16" s="2">
         <f t="shared" si="2"/>
         <v>0.73200527510155355</v>
       </c>
+      <c r="AL16" s="2">
+        <f t="shared" si="2"/>
+        <v>6.7770162237313611</v>
+      </c>
+      <c r="AM16" s="2">
+        <f t="shared" si="3"/>
+        <v>1.3726113717885717</v>
+      </c>
+      <c r="AN16" s="2">
+        <f t="shared" si="4"/>
+        <v>1.1164527918587872</v>
+      </c>
+      <c r="AO16" s="2">
+        <f t="shared" si="4"/>
+        <v>0.50835289923728522</v>
+      </c>
+      <c r="AP16" s="2">
+        <f t="shared" si="5"/>
+        <v>1.0842488056840243</v>
+      </c>
+      <c r="AQ16" s="2">
+        <f t="shared" si="6"/>
+        <v>1.6293547381439208</v>
+      </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -3022,6 +3678,21 @@
       </c>
       <c r="O17">
         <v>0.63645228792668607</v>
+      </c>
+      <c r="Q17">
+        <v>1.7423646248573852</v>
+      </c>
+      <c r="R17">
+        <v>1.0216992631389292</v>
+      </c>
+      <c r="S17">
+        <v>6.3650532564704498</v>
+      </c>
+      <c r="T17">
+        <v>1.108450083452273</v>
+      </c>
+      <c r="U17">
+        <v>1.5805521675138725</v>
       </c>
       <c r="Y17" s="1">
         <v>1</v>
@@ -3040,39 +3711,63 @@
         <v>0.43975412260751356</v>
       </c>
       <c r="AD17" s="1">
-        <f t="shared" ref="AD17:AF17" si="10">AVERAGE(H38,H39)</f>
+        <f t="shared" ref="AD17:AF17" si="14">AVERAGE(H38,H39)</f>
         <v>0.70246176157041873</v>
       </c>
       <c r="AE17" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1.0756831382274579</v>
       </c>
       <c r="AF17" s="1">
-        <f t="shared" si="10"/>
-        <v>1.1509076088370243</v>
+        <f t="shared" si="14"/>
+        <v>1.4445532069407205</v>
       </c>
       <c r="AG17" s="1">
-        <f t="shared" ref="AG17" si="11">AVERAGE(K38,K39)</f>
+        <f t="shared" ref="AG17" si="15">AVERAGE(K38,K39)</f>
         <v>0.7945449780924736</v>
       </c>
       <c r="AH17" s="1">
-        <f t="shared" ref="AH17" si="12">AVERAGE(L38,L39)</f>
-        <v>0.86453672197037856</v>
+        <f t="shared" ref="AH17" si="16">AVERAGE(L38,L39)</f>
+        <v>0.50444432981007503</v>
       </c>
       <c r="AI17" s="1">
-        <f t="shared" ref="AI17" si="13">AVERAGE(M38,M39)</f>
+        <f t="shared" ref="AI17" si="17">AVERAGE(M38,M39)</f>
         <v>0.23926063639344258</v>
       </c>
       <c r="AJ17" s="1">
-        <f t="shared" ref="AJ17:AK17" si="14">AVERAGE(N38,N39)</f>
-        <v>0.7490131546172839</v>
+        <f t="shared" ref="AJ17:AL17" si="18">AVERAGE(N38,N39)</f>
+        <v>0.45768003756241538</v>
       </c>
       <c r="AK17" s="1">
-        <f t="shared" si="14"/>
-        <v>2.0942468629100706</v>
+        <f t="shared" si="18"/>
+        <v>2.3941961331334198</v>
+      </c>
+      <c r="AL17" s="1">
+        <f t="shared" si="18"/>
+        <v>1.334213206554137</v>
+      </c>
+      <c r="AM17" s="1">
+        <f t="shared" ref="AM17" si="19">AVERAGE(Q38,Q39)</f>
+        <v>1.1979970707621002</v>
+      </c>
+      <c r="AN17" s="1">
+        <f t="shared" ref="AN17:AO17" si="20">AVERAGE(R38,R39)</f>
+        <v>0.83963836653704171</v>
+      </c>
+      <c r="AO17" s="1">
+        <f t="shared" si="20"/>
+        <v>0.45727439341970511</v>
+      </c>
+      <c r="AP17" s="1">
+        <f t="shared" ref="AP17" si="21">AVERAGE(T38,T39)</f>
+        <v>1.0997193891698318</v>
+      </c>
+      <c r="AQ17" s="1">
+        <f t="shared" ref="AQ17" si="22">AVERAGE(U38,U39)</f>
+        <v>1.2132175735887718</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -3117,6 +3812,24 @@
       </c>
       <c r="O18">
         <v>0.58676578985738082</v>
+      </c>
+      <c r="P18">
+        <v>13.115349928408747</v>
+      </c>
+      <c r="Q18">
+        <v>1.4547757791561182</v>
+      </c>
+      <c r="R18">
+        <v>1.0142502897744492</v>
+      </c>
+      <c r="S18">
+        <v>10.423247744905193</v>
+      </c>
+      <c r="T18">
+        <v>0.84670439266016706</v>
+      </c>
+      <c r="U18">
+        <v>1.3278679261564312</v>
       </c>
       <c r="Y18" s="2">
         <v>2</v>
@@ -3135,11 +3848,11 @@
         <v>0.27930108691509004</v>
       </c>
       <c r="AD18" s="2">
-        <f t="shared" ref="AD18:AE18" si="15">AVERAGE(H14,H20)</f>
+        <f t="shared" ref="AD18:AE18" si="23">AVERAGE(H14,H20)</f>
         <v>0.24241527159586684</v>
       </c>
       <c r="AE18" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.1888209658547422</v>
       </c>
       <c r="AF18" s="2">
@@ -3147,27 +3860,51 @@
         <v>1.0905732372959951</v>
       </c>
       <c r="AG18" s="2">
-        <f t="shared" ref="AG18:AH23" si="16">AVERAGE(K14,K20)</f>
+        <f t="shared" ref="AG18:AH23" si="24">AVERAGE(K14,K20)</f>
         <v>1.1297236354088531</v>
       </c>
       <c r="AH18" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>1.1101855114849379</v>
       </c>
       <c r="AI18" s="2">
-        <f t="shared" ref="AI18:AI23" si="17">AVERAGE(M14,M20)</f>
+        <f t="shared" ref="AI18:AI23" si="25">AVERAGE(M14,M20)</f>
         <v>2.6385282184657592</v>
       </c>
       <c r="AJ18" s="2">
-        <f t="shared" ref="AJ18:AK23" si="18">AVERAGE(N14,N20)</f>
+        <f t="shared" ref="AJ18:AL23" si="26">AVERAGE(N14,N20)</f>
         <v>0.91667691089407499</v>
       </c>
       <c r="AK18" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0.82118064825162418</v>
       </c>
+      <c r="AL18" s="2">
+        <f t="shared" si="26"/>
+        <v>4.5137506305707422</v>
+      </c>
+      <c r="AM18" s="2">
+        <f t="shared" ref="AM18:AM23" si="27">AVERAGE(Q14,Q20)</f>
+        <v>1.145435438527366</v>
+      </c>
+      <c r="AN18" s="2">
+        <f t="shared" ref="AN18:AO23" si="28">AVERAGE(R14,R20)</f>
+        <v>1.1337801912353984</v>
+      </c>
+      <c r="AO18" s="2">
+        <f t="shared" si="28"/>
+        <v>8.7958445349215619</v>
+      </c>
+      <c r="AP18" s="2">
+        <f t="shared" ref="AP18:AP23" si="29">AVERAGE(T14,T20)</f>
+        <v>1.2261061904118424</v>
+      </c>
+      <c r="AQ18" s="2">
+        <f t="shared" ref="AQ18:AQ22" si="30">AVERAGE(U14,U20)</f>
+        <v>1.5366745723182986</v>
+      </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -3201,6 +3938,9 @@
       <c r="K19">
         <v>1.8863469062099185</v>
       </c>
+      <c r="L19">
+        <v>2.210574367601235</v>
+      </c>
       <c r="M19">
         <v>4.2289359840814358</v>
       </c>
@@ -3210,6 +3950,24 @@
       <c r="O19">
         <v>0.52922167553637034</v>
       </c>
+      <c r="P19">
+        <v>2.6200033507030085</v>
+      </c>
+      <c r="Q19">
+        <v>2.3702807125921543</v>
+      </c>
+      <c r="R19">
+        <v>1.1208694498586407</v>
+      </c>
+      <c r="S19">
+        <v>7.6117697228833823</v>
+      </c>
+      <c r="T19">
+        <v>1.0907175357493206</v>
+      </c>
+      <c r="U19">
+        <v>2.3002329374187518</v>
+      </c>
       <c r="Y19" s="1">
         <v>2</v>
       </c>
@@ -3223,43 +3981,67 @@
         <v>0.1</v>
       </c>
       <c r="AC19" s="1">
-        <f t="shared" ref="AC19:AC22" si="19">AVERAGE(G15,G21)</f>
+        <f t="shared" ref="AC19:AC22" si="31">AVERAGE(G15,G21)</f>
         <v>0.22085908751344979</v>
       </c>
       <c r="AD19" s="1">
-        <f t="shared" ref="AD19:AF19" si="20">AVERAGE(H15,H21)</f>
+        <f t="shared" ref="AD19:AF19" si="32">AVERAGE(H15,H21)</f>
         <v>0.21812191431598543</v>
       </c>
       <c r="AE19" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>0.13627493483230119</v>
       </c>
       <c r="AF19" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>1.415147955479829</v>
       </c>
       <c r="AG19" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>1.2087700411049518</v>
       </c>
       <c r="AH19" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>1.3372643045164261</v>
       </c>
       <c r="AI19" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>3.321257053728127</v>
       </c>
       <c r="AJ19" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0.94341164831948365</v>
       </c>
       <c r="AK19" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>1.0976574130798702</v>
       </c>
+      <c r="AL19" s="1">
+        <f t="shared" si="26"/>
+        <v>4.2989485557131975</v>
+      </c>
+      <c r="AM19" s="1">
+        <f t="shared" si="27"/>
+        <v>1.2551496057349349</v>
+      </c>
+      <c r="AN19" s="1">
+        <f t="shared" si="28"/>
+        <v>1.2545515608731379</v>
+      </c>
+      <c r="AO19" s="1">
+        <f t="shared" si="28"/>
+        <v>4.1833638274386269</v>
+      </c>
+      <c r="AP19" s="1">
+        <f t="shared" si="29"/>
+        <v>1.2908570496960237</v>
+      </c>
+      <c r="AQ19" s="1">
+        <f t="shared" si="30"/>
+        <v>1.4700264481451009</v>
+      </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -3305,6 +4087,24 @@
       <c r="O20">
         <v>0.89590781545198572</v>
       </c>
+      <c r="P20">
+        <v>1.410784781901756</v>
+      </c>
+      <c r="Q20">
+        <v>0.98391489483259198</v>
+      </c>
+      <c r="R20">
+        <v>1.1327086099601351</v>
+      </c>
+      <c r="S20">
+        <v>1.8144647029951662</v>
+      </c>
+      <c r="T20">
+        <v>1.154011845751959</v>
+      </c>
+      <c r="U20">
+        <v>1.4422588950393431</v>
+      </c>
       <c r="Y20" s="2">
         <v>2</v>
       </c>
@@ -3318,23 +4118,23 @@
         <v>0.1</v>
       </c>
       <c r="AC20" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>0.16337488611861595</v>
       </c>
       <c r="AD20" s="2">
-        <f t="shared" ref="AD20:AF20" si="21">AVERAGE(H16,H22)</f>
+        <f t="shared" ref="AD20:AF20" si="33">AVERAGE(H16,H22)</f>
         <v>0.19599452955587818</v>
       </c>
       <c r="AE20" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>6.3003950349280233E-2</v>
       </c>
       <c r="AF20" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>1.3599372596995611</v>
       </c>
       <c r="AG20" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>1.5398208274816398</v>
       </c>
       <c r="AH20" s="2">
@@ -3342,19 +4142,43 @@
         <v>1.7354225139602659</v>
       </c>
       <c r="AI20" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>3.3311485643501024</v>
       </c>
       <c r="AJ20" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>1.0586271449060682</v>
       </c>
       <c r="AK20" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>1.0068759742371862</v>
       </c>
+      <c r="AL20" s="2">
+        <f t="shared" si="26"/>
+        <v>8.0410661454847325</v>
+      </c>
+      <c r="AM20" s="2">
+        <f t="shared" si="27"/>
+        <v>1.5155777809543021</v>
+      </c>
+      <c r="AN20" s="2">
+        <f t="shared" si="28"/>
+        <v>1.3644116475996233</v>
+      </c>
+      <c r="AO20" s="2">
+        <f t="shared" si="28"/>
+        <v>6.022911316722408</v>
+      </c>
+      <c r="AP20" s="2">
+        <f t="shared" si="29"/>
+        <v>1.4560524738366454</v>
+      </c>
+      <c r="AQ20" s="2">
+        <f t="shared" si="30"/>
+        <v>1.7409766645306408</v>
+      </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -3400,6 +4224,24 @@
       <c r="O21">
         <v>1.2588217047291779</v>
       </c>
+      <c r="P21">
+        <v>3.9634170317728428</v>
+      </c>
+      <c r="Q21">
+        <v>1.1823972249453309</v>
+      </c>
+      <c r="R21">
+        <v>1.2233798325296497</v>
+      </c>
+      <c r="S21">
+        <v>6.1310627225791645</v>
+      </c>
+      <c r="T21">
+        <v>1.2448955054399915</v>
+      </c>
+      <c r="U21">
+        <v>1.3911795315946156</v>
+      </c>
       <c r="Y21" s="1">
         <v>2</v>
       </c>
@@ -3413,43 +4255,67 @@
         <v>100</v>
       </c>
       <c r="AC21" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>0.12963411529321747</v>
       </c>
       <c r="AD21" s="1">
-        <f t="shared" ref="AD21:AF21" si="22">AVERAGE(H17,H23)</f>
+        <f t="shared" ref="AD21:AF21" si="34">AVERAGE(H17,H23)</f>
         <v>9.4315670842440733E-2</v>
       </c>
       <c r="AE21" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>5.1677304875675387E-2</v>
       </c>
       <c r="AF21" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>1.2640734939470093</v>
       </c>
       <c r="AG21" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>1.3679858145441006</v>
       </c>
       <c r="AH21" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>1.4473653326976006</v>
       </c>
       <c r="AI21" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>3.1105258098499262</v>
       </c>
       <c r="AJ21" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0.88894838955450683</v>
       </c>
       <c r="AK21" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0.68295217148269982</v>
       </c>
+      <c r="AL21" s="1">
+        <f t="shared" si="26"/>
+        <v>4.2322195295693401</v>
+      </c>
+      <c r="AM21" s="1">
+        <f t="shared" si="27"/>
+        <v>1.7095915913986168</v>
+      </c>
+      <c r="AN21" s="1">
+        <f t="shared" si="28"/>
+        <v>1.0152081759698477</v>
+      </c>
+      <c r="AO21" s="1">
+        <f t="shared" si="28"/>
+        <v>4.6795106060315792</v>
+      </c>
+      <c r="AP21" s="1">
+        <f t="shared" si="29"/>
+        <v>1.3770780707431136</v>
+      </c>
+      <c r="AQ21" s="1">
+        <f t="shared" si="30"/>
+        <v>1.4849370255736856</v>
+      </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -3495,6 +4361,24 @@
       <c r="O22">
         <v>1.1447647080018615</v>
       </c>
+      <c r="P22">
+        <v>5.1598811908232802</v>
+      </c>
+      <c r="Q22">
+        <v>1.439580176548056</v>
+      </c>
+      <c r="R22">
+        <v>1.4253537217323902</v>
+      </c>
+      <c r="S22">
+        <v>3.4694189262435713</v>
+      </c>
+      <c r="T22">
+        <v>1.3361702656448833</v>
+      </c>
+      <c r="U22">
+        <v>1.9480911676769519</v>
+      </c>
       <c r="Y22" s="2">
         <v>2</v>
       </c>
@@ -3508,43 +4392,67 @@
         <v>100</v>
       </c>
       <c r="AC22" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>5.5260211196447917E-2</v>
       </c>
       <c r="AD22" s="2">
-        <f t="shared" ref="AD22:AF22" si="23">AVERAGE(H18,H24)</f>
+        <f t="shared" ref="AD22:AF22" si="35">AVERAGE(H18,H24)</f>
         <v>5.6507458970582056E-2</v>
       </c>
       <c r="AE22" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>2.4985972357239698E-2</v>
       </c>
       <c r="AF22" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>1.2531501122598296</v>
       </c>
       <c r="AG22" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>1.5985591831447235</v>
       </c>
       <c r="AH22" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>1.5831381667373383</v>
       </c>
       <c r="AI22" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>3.868854937153742</v>
       </c>
       <c r="AJ22" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0.85747944008125865</v>
       </c>
       <c r="AK22" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0.67047110371765961</v>
       </c>
+      <c r="AL22" s="2">
+        <f t="shared" si="26"/>
+        <v>13.699456829856565</v>
+      </c>
+      <c r="AM22" s="2">
+        <f t="shared" si="27"/>
+        <v>1.7105211156869393</v>
+      </c>
+      <c r="AN22" s="2">
+        <f t="shared" si="28"/>
+        <v>1.0038981196661996</v>
+      </c>
+      <c r="AO22" s="2">
+        <f t="shared" si="28"/>
+        <v>8.0868639889298652</v>
+      </c>
+      <c r="AP22" s="2">
+        <f t="shared" si="29"/>
+        <v>0.94317367396726137</v>
+      </c>
+      <c r="AQ22" s="2">
+        <f t="shared" si="30"/>
+        <v>1.3278679261564312</v>
+      </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -3589,6 +4497,24 @@
       </c>
       <c r="O23">
         <v>0.72945205503871369</v>
+      </c>
+      <c r="P23">
+        <v>4.2322195295693401</v>
+      </c>
+      <c r="Q23">
+        <v>1.6768185579398482</v>
+      </c>
+      <c r="R23">
+        <v>1.0087170888007662</v>
+      </c>
+      <c r="S23">
+        <v>2.9939679555927095</v>
+      </c>
+      <c r="T23">
+        <v>1.6457060580339542</v>
+      </c>
+      <c r="U23">
+        <v>1.3893218836334986</v>
       </c>
       <c r="Y23" s="1">
         <v>2</v>
@@ -3607,39 +4533,63 @@
         <v>0.22237345437896094</v>
       </c>
       <c r="AD23" s="1">
-        <f t="shared" ref="AD23:AF23" si="24">AVERAGE(H19,H25)</f>
+        <f t="shared" ref="AD23:AF23" si="36">AVERAGE(H19,H25)</f>
         <v>0.22553175642055184</v>
       </c>
       <c r="AE23" s="1">
+        <f t="shared" si="36"/>
+        <v>8.8449849718028439E-2</v>
+      </c>
+      <c r="AF23" s="1">
+        <f t="shared" si="36"/>
+        <v>1.4358394154985801</v>
+      </c>
+      <c r="AG23" s="1">
         <f t="shared" si="24"/>
-        <v>8.8449849718028439E-2</v>
-      </c>
-      <c r="AF23" s="1">
+        <v>1.5068883615521056</v>
+      </c>
+      <c r="AH23" s="1">
         <f t="shared" si="24"/>
-        <v>1.4358394154985801</v>
-      </c>
-      <c r="AG23" s="1">
-        <f t="shared" si="16"/>
-        <v>1.5068883615521056</v>
-      </c>
-      <c r="AH23" s="1">
-        <f t="shared" si="16"/>
-        <v>1.3885451094852912</v>
+        <v>1.7995597385432631</v>
       </c>
       <c r="AI23" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>3.4723306521597181</v>
       </c>
       <c r="AJ23" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0.87125692653746234</v>
       </c>
       <c r="AK23" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0.77836948155500241</v>
       </c>
+      <c r="AL23" s="1">
+        <f t="shared" si="26"/>
+        <v>1.9733005205021996</v>
+      </c>
+      <c r="AM23" s="1">
+        <f t="shared" si="27"/>
+        <v>1.8342104333149112</v>
+      </c>
+      <c r="AN23" s="1">
+        <f t="shared" si="28"/>
+        <v>1.1726532786013055</v>
+      </c>
+      <c r="AO23" s="1">
+        <f t="shared" si="28"/>
+        <v>4.7336477125314955</v>
+      </c>
+      <c r="AP23" s="1">
+        <f t="shared" si="29"/>
+        <v>1.1709218988588681</v>
+      </c>
+      <c r="AQ23" s="1">
+        <f>AVERAGE(U19,U25)</f>
+        <v>1.8120075100450619</v>
+      </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -3684,6 +4634,21 @@
       </c>
       <c r="O24">
         <v>0.75417641757793852</v>
+      </c>
+      <c r="P24">
+        <v>14.283563731304382</v>
+      </c>
+      <c r="Q24">
+        <v>1.9662664522177604</v>
+      </c>
+      <c r="R24">
+        <v>0.99354594955795006</v>
+      </c>
+      <c r="S24">
+        <v>5.7504802329545379</v>
+      </c>
+      <c r="T24">
+        <v>1.0396429552743556</v>
       </c>
       <c r="Y24" s="2">
         <v>2</v>
@@ -3702,39 +4667,63 @@
         <v>0.6019702754798083</v>
       </c>
       <c r="AD24" s="1">
-        <f t="shared" ref="AD24:AF24" si="25">AVERAGE(H40:H41)</f>
+        <f t="shared" ref="AD24:AF24" si="37">AVERAGE(H40:H41)</f>
         <v>1.1382086029351339</v>
       </c>
       <c r="AE24" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>1.475942836910664</v>
       </c>
       <c r="AF24" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>1.3457210912533966</v>
       </c>
       <c r="AG24" s="1">
-        <f t="shared" ref="AG24" si="26">AVERAGE(K40:K41)</f>
+        <f t="shared" ref="AG24" si="38">AVERAGE(K40:K41)</f>
         <v>1.102299432142515</v>
       </c>
       <c r="AH24" s="1">
-        <f t="shared" ref="AH24" si="27">AVERAGE(L40:L41)</f>
+        <f t="shared" ref="AH24" si="39">AVERAGE(L40:L41)</f>
         <v>0.99818006677862248</v>
       </c>
       <c r="AI24" s="1">
-        <f t="shared" ref="AI24" si="28">AVERAGE(M40:M41)</f>
+        <f t="shared" ref="AI24" si="40">AVERAGE(M40:M41)</f>
         <v>0.24343073402264781</v>
       </c>
       <c r="AJ24" s="1">
-        <f t="shared" ref="AJ24:AK24" si="29">AVERAGE(N40:N41)</f>
+        <f t="shared" ref="AJ24:AL24" si="41">AVERAGE(N40:N41)</f>
         <v>0.74163298429377578</v>
       </c>
       <c r="AK24" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>1.9639046601242263</v>
       </c>
+      <c r="AL24" s="1">
+        <f t="shared" si="41"/>
+        <v>0.49043285482126653</v>
+      </c>
+      <c r="AM24" s="1">
+        <f t="shared" ref="AM24" si="42">AVERAGE(Q40:Q41)</f>
+        <v>0.94513688026609133</v>
+      </c>
+      <c r="AN24" s="1">
+        <f t="shared" ref="AN24:AO24" si="43">AVERAGE(R40:R41)</f>
+        <v>0.65285247362960908</v>
+      </c>
+      <c r="AO24" s="1">
+        <f t="shared" si="43"/>
+        <v>0.12860735319778538</v>
+      </c>
+      <c r="AP24" s="1">
+        <f t="shared" ref="AP24" si="44">AVERAGE(T40:T41)</f>
+        <v>1.0206461953165533</v>
+      </c>
+      <c r="AQ24" s="1">
+        <f t="shared" ref="AQ24" si="45">AVERAGE(U40:U41)</f>
+        <v>0.70909808079874725</v>
+      </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -3779,6 +4768,24 @@
       </c>
       <c r="O25">
         <v>1.0275172875736345</v>
+      </c>
+      <c r="P25">
+        <v>1.326597690301391</v>
+      </c>
+      <c r="Q25">
+        <v>1.2981401540376678</v>
+      </c>
+      <c r="R25">
+        <v>1.2244371073439702</v>
+      </c>
+      <c r="S25">
+        <v>1.855525702179609</v>
+      </c>
+      <c r="T25">
+        <v>1.2511262619684156</v>
+      </c>
+      <c r="U25">
+        <v>1.323782082671372</v>
       </c>
       <c r="Y25" s="1">
         <v>3</v>
@@ -3797,39 +4804,63 @@
         <v>0.83692584840771878</v>
       </c>
       <c r="AD25" s="1">
-        <f t="shared" ref="AD25:AF25" si="30">AVERAGE(H20,H26)</f>
+        <f t="shared" ref="AD25:AF25" si="46">AVERAGE(H20,H26)</f>
         <v>0.51613441224578105</v>
       </c>
       <c r="AE25" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="46"/>
         <v>0.37359239878671069</v>
       </c>
       <c r="AF25" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="46"/>
         <v>1.133546250236604</v>
       </c>
       <c r="AG25" s="1">
-        <f t="shared" ref="AG25:AG30" si="31">AVERAGE(K20,K26)</f>
+        <f t="shared" ref="AG25:AG30" si="47">AVERAGE(K20,K26)</f>
         <v>0.9291707546041359</v>
       </c>
       <c r="AH25" s="1">
-        <f t="shared" ref="AH25:AH30" si="32">AVERAGE(L20,L26)</f>
+        <f t="shared" ref="AH25:AH30" si="48">AVERAGE(L20,L26)</f>
         <v>1.0959569522272021</v>
       </c>
       <c r="AI25" s="1">
-        <f t="shared" ref="AI25:AI30" si="33">AVERAGE(M20,M26)</f>
+        <f t="shared" ref="AI25:AI30" si="49">AVERAGE(M20,M26)</f>
         <v>1.9968828097524098</v>
       </c>
       <c r="AJ25" s="1">
-        <f t="shared" ref="AJ25:AK30" si="34">AVERAGE(N20,N26)</f>
+        <f t="shared" ref="AJ25:AL30" si="50">AVERAGE(N20,N26)</f>
         <v>1.0294091327086803</v>
       </c>
       <c r="AK25" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>1.0140327400319715</v>
       </c>
+      <c r="AL25" s="1">
+        <f t="shared" si="50"/>
+        <v>1.8298881791655139</v>
+      </c>
+      <c r="AM25" s="1">
+        <f t="shared" ref="AM25:AM30" si="51">AVERAGE(Q20,Q26)</f>
+        <v>0.96780701727719243</v>
+      </c>
+      <c r="AN25" s="1">
+        <f t="shared" ref="AN25:AO30" si="52">AVERAGE(R20,R26)</f>
+        <v>1.1230233970614925</v>
+      </c>
+      <c r="AO25" s="1">
+        <f t="shared" si="52"/>
+        <v>3.7980893102576792</v>
+      </c>
+      <c r="AP25" s="1">
+        <f t="shared" ref="AP25:AP30" si="53">AVERAGE(T20,T26)</f>
+        <v>1.0509653791798921</v>
+      </c>
+      <c r="AQ25" s="1">
+        <f t="shared" ref="AQ25:AQ30" si="54">AVERAGE(U20,U26)</f>
+        <v>1.3669025711795393</v>
+      </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
@@ -3874,6 +4905,24 @@
       </c>
       <c r="O26">
         <v>1.1321576646119575</v>
+      </c>
+      <c r="P26">
+        <v>2.2489915764292721</v>
+      </c>
+      <c r="Q26">
+        <v>0.95169913972179276</v>
+      </c>
+      <c r="R26">
+        <v>1.1133381841628498</v>
+      </c>
+      <c r="S26">
+        <v>5.7817139175201921</v>
+      </c>
+      <c r="T26">
+        <v>0.94791891260782535</v>
+      </c>
+      <c r="U26">
+        <v>1.2915462473197352</v>
       </c>
       <c r="Y26" s="2">
         <v>3</v>
@@ -3892,39 +4941,63 @@
         <v>0.88906574141031514</v>
       </c>
       <c r="AD26" s="1">
-        <f t="shared" ref="AD26:AF26" si="35">AVERAGE(H21,H27)</f>
+        <f t="shared" ref="AD26:AF26" si="55">AVERAGE(H21,H27)</f>
         <v>0.53805620654963449</v>
       </c>
       <c r="AE26" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>0.47156440373431685</v>
       </c>
       <c r="AF26" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>1.1360657053878203</v>
       </c>
       <c r="AG26" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="47"/>
         <v>0.98302999437149985</v>
       </c>
       <c r="AH26" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="48"/>
         <v>1.0753036525473896</v>
       </c>
       <c r="AI26" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="49"/>
         <v>2.044715658827942</v>
       </c>
       <c r="AJ26" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>1.0003377847410699</v>
       </c>
       <c r="AK26" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>1.219141227283858</v>
       </c>
+      <c r="AL26" s="1">
+        <f t="shared" si="50"/>
+        <v>2.9579373144719501</v>
+      </c>
+      <c r="AM26" s="1">
+        <f t="shared" si="51"/>
+        <v>0.99441675087374604</v>
+      </c>
+      <c r="AN26" s="1">
+        <f t="shared" si="52"/>
+        <v>1.0477641148893924</v>
+      </c>
+      <c r="AO26" s="1">
+        <f t="shared" si="52"/>
+        <v>4.8693365713263947</v>
+      </c>
+      <c r="AP26" s="1">
+        <f t="shared" si="53"/>
+        <v>1.0344078372605778</v>
+      </c>
+      <c r="AQ26" s="1">
+        <f t="shared" si="54"/>
+        <v>1.1985936717641343</v>
+      </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
@@ -3970,6 +5043,24 @@
       <c r="O27">
         <v>1.1794607498385383</v>
       </c>
+      <c r="P27">
+        <v>1.9524575971710572</v>
+      </c>
+      <c r="Q27">
+        <v>0.80643627680216123</v>
+      </c>
+      <c r="R27">
+        <v>0.87214839724913495</v>
+      </c>
+      <c r="S27">
+        <v>3.6076104200736245</v>
+      </c>
+      <c r="T27">
+        <v>0.82392016908116417</v>
+      </c>
+      <c r="U27">
+        <v>1.0060078119336533</v>
+      </c>
       <c r="Y27" s="1">
         <v>3</v>
       </c>
@@ -3983,43 +5074,67 @@
         <v>0.1</v>
       </c>
       <c r="AC27" s="1">
-        <f t="shared" ref="AC27:AC30" si="36">AVERAGE(G28,G34)</f>
+        <f t="shared" ref="AC27:AC30" si="56">AVERAGE(G28,G34)</f>
         <v>0.77349240843444211</v>
       </c>
       <c r="AD27" s="2">
-        <f t="shared" ref="AD27:AF27" si="37">AVERAGE(H22,H28)</f>
+        <f t="shared" ref="AD27:AF27" si="57">AVERAGE(H22,H28)</f>
         <v>0.51408662747209355</v>
       </c>
       <c r="AE27" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>0.20558275279760085</v>
       </c>
       <c r="AF27" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>1.3130085215076766</v>
       </c>
       <c r="AG27" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="47"/>
         <v>1.3166591601294111</v>
       </c>
       <c r="AH27" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="48"/>
         <v>1.6048547370966033</v>
       </c>
       <c r="AI27" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="49"/>
         <v>2.2018103798807949</v>
       </c>
       <c r="AJ27" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>1.2415476513426187</v>
       </c>
       <c r="AK27" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>1.241794918641522</v>
       </c>
+      <c r="AL27" s="2">
+        <f t="shared" si="50"/>
+        <v>3.649664822490803</v>
+      </c>
+      <c r="AM27" s="2">
+        <f t="shared" si="51"/>
+        <v>1.3522702057341176</v>
+      </c>
+      <c r="AN27" s="2">
+        <f t="shared" si="52"/>
+        <v>1.4419081851414963</v>
+      </c>
+      <c r="AO27" s="2">
+        <f t="shared" si="52"/>
+        <v>4.3215118925545069</v>
+      </c>
+      <c r="AP27" s="2">
+        <f t="shared" si="53"/>
+        <v>1.3141353504477231</v>
+      </c>
+      <c r="AQ27" s="2">
+        <f t="shared" si="54"/>
+        <v>1.6662007628818123</v>
+      </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -4065,6 +5180,24 @@
       <c r="O28">
         <v>1.3388251292811826</v>
       </c>
+      <c r="P28">
+        <v>2.1394484541583254</v>
+      </c>
+      <c r="Q28">
+        <v>1.2649602349201789</v>
+      </c>
+      <c r="R28">
+        <v>1.4584626485506025</v>
+      </c>
+      <c r="S28">
+        <v>5.1736048588654429</v>
+      </c>
+      <c r="T28">
+        <v>1.2921004352505627</v>
+      </c>
+      <c r="U28">
+        <v>1.3843103580866725</v>
+      </c>
       <c r="Y28" s="2">
         <v>3</v>
       </c>
@@ -4078,43 +5211,67 @@
         <v>100</v>
       </c>
       <c r="AC28" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>0.93402301270494181</v>
       </c>
       <c r="AD28" s="1">
-        <f t="shared" ref="AD28:AF28" si="38">AVERAGE(H23,H29)</f>
+        <f t="shared" ref="AD28:AF28" si="58">AVERAGE(H23,H29)</f>
         <v>0.43607198777638512</v>
       </c>
       <c r="AE28" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>0.28988112132334559</v>
       </c>
       <c r="AF28" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>1.1112712545796222</v>
       </c>
       <c r="AG28" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="47"/>
         <v>1.0792750305655159</v>
       </c>
       <c r="AH28" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="48"/>
         <v>1.0303390005359256</v>
       </c>
       <c r="AI28" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="49"/>
         <v>2.2368980777764977</v>
       </c>
       <c r="AJ28" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>1.10946070332214</v>
       </c>
       <c r="AK28" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>1.0516402437500112</v>
       </c>
+      <c r="AL28" s="1">
+        <f t="shared" si="50"/>
+        <v>2.8286578241277054</v>
+      </c>
+      <c r="AM28" s="1">
+        <f t="shared" si="51"/>
+        <v>1.2893340382233074</v>
+      </c>
+      <c r="AN28" s="1">
+        <f t="shared" si="52"/>
+        <v>1.0449366563440261</v>
+      </c>
+      <c r="AO28" s="1">
+        <f t="shared" si="52"/>
+        <v>4.8434507828983726</v>
+      </c>
+      <c r="AP28" s="1">
+        <f t="shared" si="53"/>
+        <v>1.3314700445780927</v>
+      </c>
+      <c r="AQ28" s="1">
+        <f t="shared" si="54"/>
+        <v>1.1875293965239428</v>
+      </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
@@ -4160,6 +5317,24 @@
       <c r="O29">
         <v>1.3738284324613088</v>
       </c>
+      <c r="P29">
+        <v>1.4250961186860709</v>
+      </c>
+      <c r="Q29">
+        <v>0.90184951850676631</v>
+      </c>
+      <c r="R29">
+        <v>1.081156223887286</v>
+      </c>
+      <c r="S29">
+        <v>6.6929336102040358</v>
+      </c>
+      <c r="T29">
+        <v>1.0172340311222314</v>
+      </c>
+      <c r="U29">
+        <v>0.98573690941438707</v>
+      </c>
       <c r="Y29" s="1">
         <v>3</v>
       </c>
@@ -4173,43 +5348,67 @@
         <v>100</v>
       </c>
       <c r="AC29" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>1.1062600377687439</v>
       </c>
       <c r="AD29" s="1">
-        <f t="shared" ref="AD29:AF29" si="39">AVERAGE(H24,H30)</f>
+        <f t="shared" ref="AD29:AF29" si="59">AVERAGE(H24,H30)</f>
         <v>0.50089439794615143</v>
       </c>
       <c r="AE29" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="59"/>
         <v>0.45185114985562475</v>
       </c>
       <c r="AF29" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="59"/>
         <v>0.97256148899428219</v>
       </c>
       <c r="AG29" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="47"/>
         <v>1.4118457109943106</v>
       </c>
       <c r="AH29" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="48"/>
         <v>1.3702389340535137</v>
       </c>
       <c r="AI29" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="49"/>
         <v>2.7411453314870191</v>
       </c>
       <c r="AJ29" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>0.83649795856630793</v>
       </c>
       <c r="AK29" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>1.0384748601724922</v>
       </c>
+      <c r="AL29" s="1">
+        <f t="shared" si="50"/>
+        <v>8.2490343514983131</v>
+      </c>
+      <c r="AM29" s="1">
+        <f t="shared" si="51"/>
+        <v>1.3528347857080107</v>
+      </c>
+      <c r="AN29" s="1">
+        <f t="shared" si="52"/>
+        <v>0.8837750884931026</v>
+      </c>
+      <c r="AO29" s="1">
+        <f t="shared" si="52"/>
+        <v>4.379233894330655</v>
+      </c>
+      <c r="AP29" s="1">
+        <f t="shared" si="53"/>
+        <v>0.92897807874885352</v>
+      </c>
+      <c r="AQ29" s="1">
+        <f t="shared" si="54"/>
+        <v>0.83515965945674353</v>
+      </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -4255,6 +5454,24 @@
       <c r="O30">
         <v>1.3227733027670459</v>
       </c>
+      <c r="P30">
+        <v>2.2145049716922443</v>
+      </c>
+      <c r="Q30">
+        <v>0.73940311919826107</v>
+      </c>
+      <c r="R30">
+        <v>0.77400422742825514</v>
+      </c>
+      <c r="S30">
+        <v>3.0079875557067717</v>
+      </c>
+      <c r="T30">
+        <v>0.81831320222335147</v>
+      </c>
+      <c r="U30">
+        <v>0.83515965945674353</v>
+      </c>
       <c r="Y30" s="2">
         <v>3</v>
       </c>
@@ -4268,43 +5485,67 @@
         <v>100</v>
       </c>
       <c r="AC30" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>1.0045900495800446</v>
       </c>
       <c r="AD30" s="2">
-        <f t="shared" ref="AD30:AF30" si="40">AVERAGE(H25,H31)</f>
+        <f t="shared" ref="AD30:AF30" si="60">AVERAGE(H25,H31)</f>
         <v>0.57185909214126418</v>
       </c>
       <c r="AE30" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>0.47242294654253225</v>
       </c>
       <c r="AF30" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>1.096127060858995</v>
       </c>
       <c r="AG30" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="47"/>
         <v>1.018324253350315</v>
       </c>
       <c r="AH30" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="48"/>
         <v>1.1677899470865736</v>
       </c>
       <c r="AI30" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="49"/>
         <v>1.7959217877054126</v>
       </c>
       <c r="AJ30" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>0.90269132262090368</v>
       </c>
       <c r="AK30" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>1.2845861378643186</v>
       </c>
+      <c r="AL30" s="2">
+        <f t="shared" si="50"/>
+        <v>1.9191808412966997</v>
+      </c>
+      <c r="AM30" s="2">
+        <f t="shared" si="51"/>
+        <v>1.0767478872644225</v>
+      </c>
+      <c r="AN30" s="2">
+        <f t="shared" si="52"/>
+        <v>1.0113456625648929</v>
+      </c>
+      <c r="AO30" s="2">
+        <f t="shared" si="52"/>
+        <v>2.1861838007791969</v>
+      </c>
+      <c r="AP30" s="2">
+        <f t="shared" si="53"/>
+        <v>1.1276609214368043</v>
+      </c>
+      <c r="AQ30" s="2">
+        <f t="shared" si="54"/>
+        <v>1.1295002638718219</v>
+      </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -4349,6 +5590,24 @@
       </c>
       <c r="O31">
         <v>1.5416549881550026</v>
+      </c>
+      <c r="P31">
+        <v>2.5117639922920088</v>
+      </c>
+      <c r="Q31">
+        <v>0.85535562049117719</v>
+      </c>
+      <c r="R31">
+        <v>0.79825421778581573</v>
+      </c>
+      <c r="S31">
+        <v>2.5168418993787851</v>
+      </c>
+      <c r="T31">
+        <v>1.004195580905193</v>
+      </c>
+      <c r="U31">
+        <v>0.9352184450722717</v>
       </c>
       <c r="Y31" s="1">
         <v>3</v>
@@ -4367,39 +5626,63 @@
         <v>0.51962577460668224</v>
       </c>
       <c r="AD31" s="1">
-        <f t="shared" ref="AD31:AF31" si="41">AVERAGE(H42:H43)</f>
+        <f t="shared" ref="AD31:AF31" si="61">AVERAGE(H42:H43)</f>
         <v>0.94641451009635436</v>
       </c>
       <c r="AE31" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="61"/>
         <v>0.94794813781524201</v>
       </c>
       <c r="AF31" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="61"/>
         <v>1.4612955836560211</v>
       </c>
       <c r="AG31" s="1">
-        <f t="shared" ref="AG31" si="42">AVERAGE(K42:K43)</f>
+        <f t="shared" ref="AG31" si="62">AVERAGE(K42:K43)</f>
         <v>1.2405818075985968</v>
       </c>
       <c r="AH31" s="1">
-        <f t="shared" ref="AH31" si="43">AVERAGE(L42:L43)</f>
+        <f t="shared" ref="AH31" si="63">AVERAGE(L42:L43)</f>
         <v>1.0873787247169562</v>
       </c>
       <c r="AI31" s="1">
-        <f t="shared" ref="AI31" si="44">AVERAGE(M42:M43)</f>
+        <f t="shared" ref="AI31" si="64">AVERAGE(M42:M43)</f>
         <v>0.22492706442374549</v>
       </c>
       <c r="AJ31" s="1">
-        <f t="shared" ref="AJ31:AK31" si="45">AVERAGE(N42:N43)</f>
+        <f t="shared" ref="AJ31:AL31" si="65">AVERAGE(N42:N43)</f>
         <v>0.90654897380449695</v>
       </c>
       <c r="AK31" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="65"/>
         <v>1.5236789665252861</v>
       </c>
+      <c r="AL31" s="1">
+        <f t="shared" si="65"/>
+        <v>1.0912542213796448</v>
+      </c>
+      <c r="AM31" s="1">
+        <f t="shared" ref="AM31" si="66">AVERAGE(Q42:Q43)</f>
+        <v>1.1485870922396402</v>
+      </c>
+      <c r="AN31" s="1">
+        <f t="shared" ref="AN31:AO31" si="67">AVERAGE(R42:R43)</f>
+        <v>0.8368618071946059</v>
+      </c>
+      <c r="AO31" s="1">
+        <f t="shared" si="67"/>
+        <v>0.4747217608765153</v>
+      </c>
+      <c r="AP31" s="1">
+        <f t="shared" ref="AP31" si="68">AVERAGE(T42:T43)</f>
+        <v>1.048639635639516</v>
+      </c>
+      <c r="AQ31" s="1">
+        <f t="shared" ref="AQ31" si="69">AVERAGE(U42:U43)</f>
+        <v>0.94916404974348123</v>
+      </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
@@ -4445,8 +5728,26 @@
       <c r="O32">
         <v>1.7650804371358415</v>
       </c>
+      <c r="P32">
+        <v>1.1510975935833945</v>
+      </c>
+      <c r="Q32">
+        <v>0.78382707641085536</v>
+      </c>
+      <c r="R32">
+        <v>0.94748301741199736</v>
+      </c>
+      <c r="S32">
+        <v>5.1509468224893258</v>
+      </c>
+      <c r="T32">
+        <v>0.98569141690627093</v>
+      </c>
+      <c r="U32">
+        <v>0.92726269800338401</v>
+      </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -4492,8 +5793,26 @@
       <c r="O33">
         <v>1.4750415949418572</v>
       </c>
+      <c r="P33">
+        <v>0.40780769781208032</v>
+      </c>
+      <c r="Q33">
+        <v>0.88348903692419423</v>
+      </c>
+      <c r="R33">
+        <v>0.88794287082524781</v>
+      </c>
+      <c r="S33">
+        <v>1.8203855931569863</v>
+      </c>
+      <c r="T33">
+        <v>0.93909942383843292</v>
+      </c>
+      <c r="U33">
+        <v>0.96086087493976635</v>
+      </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
@@ -4539,8 +5858,26 @@
       <c r="O34">
         <v>1.3017862153325095</v>
       </c>
+      <c r="P34">
+        <v>2.1648515964174004</v>
+      </c>
+      <c r="Q34">
+        <v>0.84635545468929896</v>
+      </c>
+      <c r="R34">
+        <v>0.99757508737361855</v>
+      </c>
+      <c r="S34">
+        <v>2.4768770067723742</v>
+      </c>
+      <c r="T34">
+        <v>0.9492374376697964</v>
+      </c>
+      <c r="U34">
+        <v>1.0940229192107442</v>
+      </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
@@ -4586,8 +5923,26 @@
       <c r="O35">
         <v>1.3052533695477215</v>
       </c>
+      <c r="P35">
+        <v>0.45231243305567564</v>
+      </c>
+      <c r="Q35">
+        <v>0.88712512703683299</v>
+      </c>
+      <c r="R35">
+        <v>1.0525198790935091</v>
+      </c>
+      <c r="S35">
+        <v>6.1329602683866087</v>
+      </c>
+      <c r="T35">
+        <v>1.0417763338992814</v>
+      </c>
+      <c r="U35">
+        <v>1.1710709496567417</v>
+      </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
@@ -4633,8 +5988,26 @@
       <c r="O36">
         <v>2.1290171575209387</v>
       </c>
+      <c r="P36">
+        <v>2.8129953374380494</v>
+      </c>
+      <c r="Q36">
+        <v>0.84533893643191493</v>
+      </c>
+      <c r="R36">
+        <v>1.0412758579226908</v>
+      </c>
+      <c r="S36">
+        <v>3.6663971941626636</v>
+      </c>
+      <c r="T36">
+        <v>0.81250320617463756</v>
+      </c>
+      <c r="U36">
+        <v>0.98504084191866126</v>
+      </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
@@ -4680,8 +6053,26 @@
       <c r="O37">
         <v>2.1090908038826788</v>
       </c>
+      <c r="P37">
+        <v>2.2104702792713389</v>
+      </c>
+      <c r="Q37">
+        <v>0.81386172580014404</v>
+      </c>
+      <c r="R37">
+        <v>0.8807737595846975</v>
+      </c>
+      <c r="S37">
+        <v>2.8499614604674632</v>
+      </c>
+      <c r="T37">
+        <v>0.86887048339203421</v>
+      </c>
+      <c r="U37">
+        <v>0.99112771155239388</v>
+      </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -4727,8 +6118,26 @@
       <c r="O38">
         <v>2.0942468629100706</v>
       </c>
+      <c r="P38">
+        <v>0.33482699433333185</v>
+      </c>
+      <c r="Q38">
+        <v>0.94285083733563757</v>
+      </c>
+      <c r="R38">
+        <v>0.66306545110531656</v>
+      </c>
+      <c r="S38">
+        <v>0.45727439341970511</v>
+      </c>
+      <c r="T38">
+        <v>1.1159207470566954</v>
+      </c>
+      <c r="U38">
+        <v>0.89850071486047089</v>
+      </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -4756,14 +6165,41 @@
       <c r="I39">
         <v>0.58538418200609266</v>
       </c>
+      <c r="J39">
+        <v>1.738198805044417</v>
+      </c>
       <c r="K39">
         <v>0.52541729784120095</v>
       </c>
+      <c r="L39">
+        <v>0.14435193764977156</v>
+      </c>
       <c r="M39">
         <v>0.27380328358513756</v>
       </c>
+      <c r="N39">
+        <v>0.16634692050754682</v>
+      </c>
+      <c r="O39">
+        <v>2.6941454033567687</v>
+      </c>
+      <c r="P39">
+        <v>2.3335994187749423</v>
+      </c>
+      <c r="Q39">
+        <v>1.4531433041885629</v>
+      </c>
+      <c r="R39">
+        <v>1.0162112819687668</v>
+      </c>
+      <c r="T39">
+        <v>1.0835180312829682</v>
+      </c>
+      <c r="U39">
+        <v>1.5279344323170725</v>
+      </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2</v>
       </c>
@@ -4809,8 +6245,26 @@
       <c r="O40">
         <v>2.061101011968927</v>
       </c>
+      <c r="P40">
+        <v>0.67453564763134544</v>
+      </c>
+      <c r="Q40">
+        <v>0.95488402028482833</v>
+      </c>
+      <c r="R40">
+        <v>0.67189235484921228</v>
+      </c>
+      <c r="S40">
+        <v>0.14525941376316523</v>
+      </c>
+      <c r="T40">
+        <v>1.0408699804155095</v>
+      </c>
+      <c r="U40">
+        <v>0.69648892037729104</v>
+      </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2</v>
       </c>
@@ -4856,8 +6310,26 @@
       <c r="O41">
         <v>1.8667083082795257</v>
       </c>
+      <c r="P41">
+        <v>0.30633006201118762</v>
+      </c>
+      <c r="Q41">
+        <v>0.93538974024735422</v>
+      </c>
+      <c r="R41">
+        <v>0.63381259241000598</v>
+      </c>
+      <c r="S41">
+        <v>0.1119552926324055</v>
+      </c>
+      <c r="T41">
+        <v>1.0004224102175974</v>
+      </c>
+      <c r="U41">
+        <v>0.72170724122020335</v>
+      </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3</v>
       </c>
@@ -4903,8 +6375,26 @@
       <c r="O42">
         <v>1.3549445127435906</v>
       </c>
+      <c r="P42">
+        <v>1.0398942820097052</v>
+      </c>
+      <c r="Q42">
+        <v>0.98408286490481145</v>
+      </c>
+      <c r="R42">
+        <v>0.71951666676486725</v>
+      </c>
+      <c r="S42">
+        <v>0.514328712318744</v>
+      </c>
+      <c r="T42">
+        <v>0.94849080354992898</v>
+      </c>
+      <c r="U42">
+        <v>0.852337180323813</v>
+      </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3</v>
       </c>
@@ -4949,11 +6439,101 @@
       </c>
       <c r="O43">
         <v>1.6924134203069816</v>
+      </c>
+      <c r="P43">
+        <v>1.1426141607495843</v>
+      </c>
+      <c r="Q43">
+        <v>1.3130913195744689</v>
+      </c>
+      <c r="R43">
+        <v>0.95420694762434466</v>
+      </c>
+      <c r="S43">
+        <v>0.43511480943428654</v>
+      </c>
+      <c r="T43">
+        <v>1.1487884677291031</v>
+      </c>
+      <c r="U43">
+        <v>1.0459909191631493</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2:J43">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:L43">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:N43">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O43">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P43">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:Q43">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2:R43">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -4965,7 +6545,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:L43">
+  <conditionalFormatting sqref="S2:S43">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -4977,7 +6557,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:N43">
+  <conditionalFormatting sqref="T2:T43">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -4989,7 +6569,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O43">
+  <conditionalFormatting sqref="U2:U43">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -5012,20 +6592,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B02CF51-5187-4B53-8E13-4B1ED98A1456}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
         <v>57</v>
@@ -5046,22 +6626,40 @@
         <v>59</v>
       </c>
       <c r="I1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" t="s">
         <v>65</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>66</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>67</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>68</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>69</v>
       </c>
+      <c r="Q1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R1" t="s">
+        <v>71</v>
+      </c>
+      <c r="S1" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5101,8 +6699,26 @@
       <c r="M2">
         <v>0.59270541525781351</v>
       </c>
+      <c r="N2">
+        <v>1.2263343001798233</v>
+      </c>
+      <c r="O2">
+        <v>1.2168804552907593</v>
+      </c>
+      <c r="P2">
+        <v>1.0881252499755343</v>
+      </c>
+      <c r="Q2">
+        <v>4.7680141385956301</v>
+      </c>
+      <c r="R2">
+        <v>1.3206554242342938</v>
+      </c>
+      <c r="S2">
+        <v>1.775904410536842</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5142,8 +6758,26 @@
       <c r="M3">
         <v>0.36019036976329022</v>
       </c>
+      <c r="N3">
+        <v>2.7126751313851676</v>
+      </c>
+      <c r="O3">
+        <v>1.1149484885736585</v>
+      </c>
+      <c r="P3">
+        <v>0.87530313745179245</v>
+      </c>
+      <c r="Q3">
+        <v>14.650704682267241</v>
+      </c>
+      <c r="R3">
+        <v>0.84610265720959876</v>
+      </c>
+      <c r="S3">
+        <v>1.6541493137080805</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5169,10 +6803,10 @@
         <v>1.3356336701614802</v>
       </c>
       <c r="I4">
-        <v>1.1402173189573699</v>
+        <v>1.8046290424445104</v>
       </c>
       <c r="J4">
-        <v>1.3089537036346754</v>
+        <v>2.1405331413286022</v>
       </c>
       <c r="K4">
         <v>2.8919807210453046</v>
@@ -5183,8 +6817,26 @@
       <c r="M4">
         <v>0.64234270767861934</v>
       </c>
+      <c r="N4">
+        <v>5.8205134229438373</v>
+      </c>
+      <c r="O4">
+        <v>1.2829436688739972</v>
+      </c>
+      <c r="P4">
+        <v>1.1404251828842733</v>
+      </c>
+      <c r="Q4">
+        <v>4.079304606152296</v>
+      </c>
+      <c r="R4">
+        <v>0.77327145019994337</v>
+      </c>
+      <c r="S4">
+        <v>1.6959387124034226</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -5207,7 +6859,7 @@
         <v>1.6365129847331097E-2</v>
       </c>
       <c r="H5">
-        <v>0.91845184657956302</v>
+        <v>0.67486444922395816</v>
       </c>
       <c r="I5">
         <v>1.7751228556474941</v>
@@ -5224,8 +6876,26 @@
       <c r="M5">
         <v>0.36053435798788636</v>
       </c>
+      <c r="N5">
+        <v>9.7007275433230653</v>
+      </c>
+      <c r="O5">
+        <v>1.2483225759307204</v>
+      </c>
+      <c r="P5">
+        <v>0.6914182839970211</v>
+      </c>
+      <c r="Q5">
+        <v>8.4025303817002897</v>
+      </c>
+      <c r="R5">
+        <v>0.731698471530844</v>
+      </c>
+      <c r="S5">
+        <v>1.4519354365042176</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -5265,8 +6935,26 @@
       <c r="M6">
         <v>0.92508371062223593</v>
       </c>
+      <c r="N6">
+        <v>3.9754834564471269</v>
+      </c>
+      <c r="O6">
+        <v>1.3840211136874361</v>
+      </c>
+      <c r="P6">
+        <v>1.1500364298951644</v>
+      </c>
+      <c r="Q6">
+        <v>2.0650724974611587</v>
+      </c>
+      <c r="R6">
+        <v>1.20564180455486</v>
+      </c>
+      <c r="S6">
+        <v>1.9001644612461104</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -5301,13 +6989,31 @@
         <v>1.729379967522114</v>
       </c>
       <c r="L7">
-        <v>0.9766949821495764</v>
+        <v>0.7216409962245981</v>
       </c>
       <c r="M7">
         <v>0.73200527510155355</v>
       </c>
+      <c r="N7">
+        <v>6.7770162237313611</v>
+      </c>
+      <c r="O7">
+        <v>1.3726113717885717</v>
+      </c>
+      <c r="P7">
+        <v>1.1164527918587872</v>
+      </c>
+      <c r="Q7">
+        <v>0.50835289923728522</v>
+      </c>
+      <c r="R7">
+        <v>1.0842488056840243</v>
+      </c>
+      <c r="S7">
+        <v>1.6293547381439208</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -5330,25 +7036,43 @@
         <v>1.0756831382274579</v>
       </c>
       <c r="H8">
-        <v>1.1509076088370243</v>
+        <v>1.4445532069407205</v>
       </c>
       <c r="I8">
         <v>0.7945449780924736</v>
       </c>
       <c r="J8">
-        <v>0.86453672197037856</v>
+        <v>0.50444432981007503</v>
       </c>
       <c r="K8">
         <v>0.23926063639344258</v>
       </c>
       <c r="L8">
-        <v>0.7490131546172839</v>
+        <v>0.45768003756241538</v>
       </c>
       <c r="M8">
-        <v>2.0942468629100706</v>
+        <v>2.3941961331334198</v>
+      </c>
+      <c r="N8">
+        <v>1.334213206554137</v>
+      </c>
+      <c r="O8">
+        <v>1.1979970707621002</v>
+      </c>
+      <c r="P8">
+        <v>0.83963836653704171</v>
+      </c>
+      <c r="Q8">
+        <v>0.45727439341970511</v>
+      </c>
+      <c r="R8">
+        <v>1.0997193891698318</v>
+      </c>
+      <c r="S8">
+        <v>1.2132175735887718</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -5388,8 +7112,26 @@
       <c r="M9">
         <v>0.82118064825162418</v>
       </c>
+      <c r="N9">
+        <v>4.5137506305707422</v>
+      </c>
+      <c r="O9">
+        <v>1.145435438527366</v>
+      </c>
+      <c r="P9">
+        <v>1.1337801912353984</v>
+      </c>
+      <c r="Q9">
+        <v>8.7958445349215619</v>
+      </c>
+      <c r="R9">
+        <v>1.2261061904118424</v>
+      </c>
+      <c r="S9">
+        <v>1.5366745723182986</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -5429,8 +7171,26 @@
       <c r="M10">
         <v>1.0976574130798702</v>
       </c>
+      <c r="N10">
+        <v>4.2989485557131975</v>
+      </c>
+      <c r="O10">
+        <v>1.2551496057349349</v>
+      </c>
+      <c r="P10">
+        <v>1.2545515608731379</v>
+      </c>
+      <c r="Q10">
+        <v>4.1833638274386269</v>
+      </c>
+      <c r="R10">
+        <v>1.2908570496960237</v>
+      </c>
+      <c r="S10">
+        <v>1.4700264481451009</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -5470,8 +7230,26 @@
       <c r="M11">
         <v>1.0068759742371862</v>
       </c>
+      <c r="N11">
+        <v>8.0410661454847325</v>
+      </c>
+      <c r="O11">
+        <v>1.5155777809543021</v>
+      </c>
+      <c r="P11">
+        <v>1.3644116475996233</v>
+      </c>
+      <c r="Q11">
+        <v>6.022911316722408</v>
+      </c>
+      <c r="R11">
+        <v>1.4560524738366454</v>
+      </c>
+      <c r="S11">
+        <v>1.7409766645306408</v>
+      </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -5511,8 +7289,26 @@
       <c r="M12">
         <v>0.68295217148269982</v>
       </c>
+      <c r="N12">
+        <v>4.2322195295693401</v>
+      </c>
+      <c r="O12">
+        <v>1.7095915913986168</v>
+      </c>
+      <c r="P12">
+        <v>1.0152081759698477</v>
+      </c>
+      <c r="Q12">
+        <v>4.6795106060315792</v>
+      </c>
+      <c r="R12">
+        <v>1.3770780707431136</v>
+      </c>
+      <c r="S12">
+        <v>1.4849370255736856</v>
+      </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -5552,8 +7348,26 @@
       <c r="M13">
         <v>0.67047110371765961</v>
       </c>
+      <c r="N13">
+        <v>13.699456829856565</v>
+      </c>
+      <c r="O13">
+        <v>1.7105211156869393</v>
+      </c>
+      <c r="P13">
+        <v>1.0038981196661996</v>
+      </c>
+      <c r="Q13">
+        <v>8.0868639889298652</v>
+      </c>
+      <c r="R13">
+        <v>0.94317367396726137</v>
+      </c>
+      <c r="S13">
+        <v>1.3278679261564312</v>
+      </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -5582,7 +7396,7 @@
         <v>1.5068883615521056</v>
       </c>
       <c r="J14">
-        <v>1.3885451094852912</v>
+        <v>1.7995597385432631</v>
       </c>
       <c r="K14">
         <v>3.4723306521597181</v>
@@ -5593,8 +7407,26 @@
       <c r="M14">
         <v>0.77836948155500241</v>
       </c>
+      <c r="N14">
+        <v>1.9733005205021996</v>
+      </c>
+      <c r="O14">
+        <v>1.8342104333149112</v>
+      </c>
+      <c r="P14">
+        <v>1.1726532786013055</v>
+      </c>
+      <c r="Q14">
+        <v>4.7336477125314955</v>
+      </c>
+      <c r="R14">
+        <v>1.1709218988588681</v>
+      </c>
+      <c r="S14">
+        <v>1.8120075100450619</v>
+      </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -5634,8 +7466,26 @@
       <c r="M15">
         <v>1.9639046601242263</v>
       </c>
+      <c r="N15">
+        <v>0.49043285482126653</v>
+      </c>
+      <c r="O15">
+        <v>0.94513688026609133</v>
+      </c>
+      <c r="P15">
+        <v>0.65285247362960908</v>
+      </c>
+      <c r="Q15">
+        <v>0.12860735319778538</v>
+      </c>
+      <c r="R15">
+        <v>1.0206461953165533</v>
+      </c>
+      <c r="S15">
+        <v>0.70909808079874725</v>
+      </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -5675,8 +7525,26 @@
       <c r="M16">
         <v>1.0140327400319715</v>
       </c>
+      <c r="N16">
+        <v>1.8298881791655139</v>
+      </c>
+      <c r="O16">
+        <v>0.96780701727719243</v>
+      </c>
+      <c r="P16">
+        <v>1.1230233970614925</v>
+      </c>
+      <c r="Q16">
+        <v>3.7980893102576792</v>
+      </c>
+      <c r="R16">
+        <v>1.0509653791798921</v>
+      </c>
+      <c r="S16">
+        <v>1.3669025711795393</v>
+      </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -5716,8 +7584,26 @@
       <c r="M17">
         <v>1.219141227283858</v>
       </c>
+      <c r="N17">
+        <v>2.9579373144719501</v>
+      </c>
+      <c r="O17">
+        <v>0.99441675087374604</v>
+      </c>
+      <c r="P17">
+        <v>1.0477641148893924</v>
+      </c>
+      <c r="Q17">
+        <v>4.8693365713263947</v>
+      </c>
+      <c r="R17">
+        <v>1.0344078372605778</v>
+      </c>
+      <c r="S17">
+        <v>1.1985936717641343</v>
+      </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
@@ -5757,8 +7643,26 @@
       <c r="M18">
         <v>1.241794918641522</v>
       </c>
+      <c r="N18">
+        <v>3.649664822490803</v>
+      </c>
+      <c r="O18">
+        <v>1.3522702057341176</v>
+      </c>
+      <c r="P18">
+        <v>1.4419081851414963</v>
+      </c>
+      <c r="Q18">
+        <v>4.3215118925545069</v>
+      </c>
+      <c r="R18">
+        <v>1.3141353504477231</v>
+      </c>
+      <c r="S18">
+        <v>1.6662007628818123</v>
+      </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
@@ -5798,8 +7702,26 @@
       <c r="M19">
         <v>1.0516402437500112</v>
       </c>
+      <c r="N19">
+        <v>2.8286578241277054</v>
+      </c>
+      <c r="O19">
+        <v>1.2893340382233074</v>
+      </c>
+      <c r="P19">
+        <v>1.0449366563440261</v>
+      </c>
+      <c r="Q19">
+        <v>4.8434507828983726</v>
+      </c>
+      <c r="R19">
+        <v>1.3314700445780927</v>
+      </c>
+      <c r="S19">
+        <v>1.1875293965239428</v>
+      </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -5839,8 +7761,26 @@
       <c r="M20">
         <v>1.0384748601724922</v>
       </c>
+      <c r="N20">
+        <v>8.2490343514983131</v>
+      </c>
+      <c r="O20">
+        <v>1.3528347857080107</v>
+      </c>
+      <c r="P20">
+        <v>0.8837750884931026</v>
+      </c>
+      <c r="Q20">
+        <v>4.379233894330655</v>
+      </c>
+      <c r="R20">
+        <v>0.92897807874885352</v>
+      </c>
+      <c r="S20">
+        <v>0.83515965945674353</v>
+      </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3</v>
       </c>
@@ -5880,8 +7820,26 @@
       <c r="M21">
         <v>1.2845861378643186</v>
       </c>
+      <c r="N21">
+        <v>1.9191808412966997</v>
+      </c>
+      <c r="O21">
+        <v>1.0767478872644225</v>
+      </c>
+      <c r="P21">
+        <v>1.0113456625648929</v>
+      </c>
+      <c r="Q21">
+        <v>2.1861838007791969</v>
+      </c>
+      <c r="R21">
+        <v>1.1276609214368043</v>
+      </c>
+      <c r="S21">
+        <v>1.1295002638718219</v>
+      </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -5920,6 +7878,24 @@
       </c>
       <c r="M22">
         <v>1.5236789665252861</v>
+      </c>
+      <c r="N22">
+        <v>1.0912542213796448</v>
+      </c>
+      <c r="O22">
+        <v>1.1485870922396402</v>
+      </c>
+      <c r="P22">
+        <v>0.8368618071946059</v>
+      </c>
+      <c r="Q22">
+        <v>0.4747217608765153</v>
+      </c>
+      <c r="R22">
+        <v>1.048639635639516</v>
+      </c>
+      <c r="S22">
+        <v>0.94916404974348123</v>
       </c>
     </row>
   </sheetData>

--- a/HNM qPCR Summary.xlsx
+++ b/HNM qPCR Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/spet4768_ox_ac_uk/Documents/Desktop/Results/HNM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="591" documentId="11_F25DC773A252ABDACC1048A9519B73345BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AAA3D2A-4247-43D2-B2A5-78C4368C8E33}"/>
+  <xr:revisionPtr revIDLastSave="637" documentId="11_F25DC773A252ABDACC1048A9519B73345BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2D07E80-4E19-4765-809F-E126D97B1B03}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="80">
   <si>
     <t>Round</t>
   </si>
@@ -259,6 +259,27 @@
   <si>
     <t>ERN1</t>
   </si>
+  <si>
+    <t>Insulin</t>
+  </si>
+  <si>
+    <t>200uM</t>
+  </si>
+  <si>
+    <t>800uM</t>
+  </si>
+  <si>
+    <t>OPLA</t>
+  </si>
+  <si>
+    <t>POLA</t>
+  </si>
+  <si>
+    <t>FA_Type</t>
+  </si>
+  <si>
+    <t>FA_Amount</t>
+  </si>
 </sst>
 </file>
 
@@ -348,7 +369,43 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1827,13 +1884,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4773263E-B173-4791-B48F-23559BC8A877}" name="Table2" displayName="Table2" ref="Y10:AQ31" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
-  <autoFilter ref="Y10:AQ31" xr:uid="{4773263E-B173-4791-B48F-23559BC8A877}"/>
-  <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{C30DE3D8-9591-4260-A464-CE42CEC9CF71}" name="Round" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{FD9B6DD4-A438-4D7E-ABB5-48EE35BAFC47}" name="Condition" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{1141554C-9B32-495F-9E28-9CE85D42E522}" name="Fat" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{FF34C0D3-B7DB-467D-A6A7-A9939D9328EC}" name="Insulin (nM)" dataDxfId="15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4773263E-B173-4791-B48F-23559BC8A877}" name="Table2" displayName="Table2" ref="Y10:AR31" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21" totalsRowBorderDxfId="20">
+  <autoFilter ref="Y10:AR31" xr:uid="{4773263E-B173-4791-B48F-23559BC8A877}"/>
+  <tableColumns count="20">
+    <tableColumn id="1" xr3:uid="{C30DE3D8-9591-4260-A464-CE42CEC9CF71}" name="Round" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{FD9B6DD4-A438-4D7E-ABB5-48EE35BAFC47}" name="Condition" dataDxfId="18"/>
+    <tableColumn id="20" xr3:uid="{731DE63C-0214-4607-BDF4-32DB17A43762}" name="FA_Amount" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{1141554C-9B32-495F-9E28-9CE85D42E522}" name="FA_Type" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{FF34C0D3-B7DB-467D-A6A7-A9939D9328EC}" name="Insulin" dataDxfId="15"/>
     <tableColumn id="6" xr3:uid="{3DAF0E04-39D7-4A07-9C37-0202A2849C98}" name="B2M" dataDxfId="14"/>
     <tableColumn id="7" xr3:uid="{6C32B31E-66A2-48D6-BC85-7E0C8E55327D}" name="YWHAZ" dataDxfId="13"/>
     <tableColumn id="8" xr3:uid="{C1151B84-B188-4F45-95ED-03793DD4A76F}" name="HMBS" dataDxfId="12"/>
@@ -2117,10 +2175,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ43"/>
+  <dimension ref="A1:AR43"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Y10" sqref="Y10:AQ31"/>
+    <sheetView topLeftCell="N1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Y10" sqref="Y10:AR31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2130,11 +2188,11 @@
     <col min="4" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="9" max="9" width="9.85546875" customWidth="1"/>
-    <col min="26" max="26" width="19" customWidth="1"/>
-    <col min="27" max="27" width="22.85546875" customWidth="1"/>
+    <col min="26" max="27" width="19" customWidth="1"/>
+    <col min="28" max="28" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2199,7 +2257,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2264,7 +2322,7 @@
         <v>1.7092050951429778</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2329,7 +2387,7 @@
         <v>1.6541493137080805</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2394,7 +2452,7 @@
         <v>1.6959387124034226</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2459,7 +2517,7 @@
         <v>1.4519354365042176</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2524,7 +2582,7 @@
         <v>1.5098393738353117</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2583,7 +2641,7 @@
         <v>0.83210641234325189</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2648,7 +2706,7 @@
         <v>1.8426037259307064</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2707,7 +2765,7 @@
         <v>0.43518577850554258</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2769,58 +2827,61 @@
         <v>61</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="AB10" s="3" t="s">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="AC10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AD10" s="3" t="s">
+      <c r="AE10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AE10" s="3" t="s">
+      <c r="AF10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AF10" s="3" t="s">
+      <c r="AG10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AG10" s="3" t="s">
+      <c r="AH10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AH10" s="3" t="s">
+      <c r="AI10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AI10" s="3" t="s">
+      <c r="AJ10" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AJ10" s="3" t="s">
+      <c r="AK10" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AK10" s="3" t="s">
+      <c r="AL10" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AL10" s="3" t="s">
+      <c r="AM10" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="AM10" s="3" t="s">
+      <c r="AN10" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AN10" s="3" t="s">
+      <c r="AO10" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AO10" s="3" t="s">
+      <c r="AP10" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="AP10" s="3" t="s">
+      <c r="AQ10" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AQ10" s="3" t="s">
+      <c r="AR10" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2882,73 +2943,76 @@
         <v>49</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB11" s="1">
+        <v>74</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC11" s="1">
         <v>0.1</v>
       </c>
-      <c r="AC11" s="1">
+      <c r="AD11" s="1">
         <f>AVERAGE(G2,G8)</f>
         <v>0.28689521037102911</v>
       </c>
-      <c r="AD11" s="1">
-        <f t="shared" ref="AD11:AF11" si="0">AVERAGE(H2,H8)</f>
+      <c r="AE11" s="1">
+        <f t="shared" ref="AE11:AG11" si="0">AVERAGE(H2,H8)</f>
         <v>0.27022615466399769</v>
       </c>
-      <c r="AE11" s="1">
+      <c r="AF11" s="1">
         <f t="shared" si="0"/>
         <v>0.19612937569316419</v>
       </c>
-      <c r="AF11" s="1">
+      <c r="AG11" s="1">
         <f t="shared" si="0"/>
         <v>1.2794798519850634</v>
       </c>
-      <c r="AG11" s="1">
-        <f t="shared" ref="AG11:AG16" si="1">AVERAGE(K2,K8)</f>
+      <c r="AH11" s="1">
+        <f t="shared" ref="AH11:AH16" si="1">AVERAGE(K2,K8)</f>
         <v>1.364815209035438</v>
       </c>
-      <c r="AH11" s="1">
+      <c r="AI11" s="1">
         <f>AVERAGE(L2,L8)</f>
         <v>1.2503922596802464</v>
       </c>
-      <c r="AI11" s="1">
-        <f t="shared" ref="AI11:AL16" si="2">AVERAGE(M2,M8)</f>
+      <c r="AJ11" s="1">
+        <f t="shared" ref="AJ11:AM16" si="2">AVERAGE(M2,M8)</f>
         <v>1.4688734660120928</v>
       </c>
-      <c r="AJ11" s="1">
+      <c r="AK11" s="1">
         <f t="shared" si="2"/>
         <v>0.97273622747228605</v>
       </c>
-      <c r="AK11" s="1">
+      <c r="AL11" s="1">
         <f t="shared" si="2"/>
         <v>0.59270541525781351</v>
       </c>
-      <c r="AL11" s="1">
+      <c r="AM11" s="1">
         <f t="shared" si="2"/>
         <v>1.2263343001798233</v>
       </c>
-      <c r="AM11" s="1">
-        <f t="shared" ref="AM11:AM16" si="3">AVERAGE(Q2,Q8)</f>
+      <c r="AN11" s="1">
+        <f t="shared" ref="AN11:AN16" si="3">AVERAGE(Q2,Q8)</f>
         <v>1.2168804552907593</v>
       </c>
-      <c r="AN11" s="1">
-        <f t="shared" ref="AN11:AO16" si="4">AVERAGE(R2,R8)</f>
+      <c r="AO11" s="1">
+        <f t="shared" ref="AO11:AP16" si="4">AVERAGE(R2,R8)</f>
         <v>1.0881252499755343</v>
       </c>
-      <c r="AO11" s="1">
+      <c r="AP11" s="1">
         <f t="shared" si="4"/>
         <v>4.7680141385956301</v>
       </c>
-      <c r="AP11" s="1">
-        <f t="shared" ref="AP11:AP16" si="5">AVERAGE(T2,T8)</f>
+      <c r="AQ11" s="1">
+        <f t="shared" ref="AQ11:AQ16" si="5">AVERAGE(T2,T8)</f>
         <v>1.3206554242342938</v>
       </c>
-      <c r="AQ11" s="1">
-        <f t="shared" ref="AQ11:AQ16" si="6">AVERAGE(U2,U8)</f>
+      <c r="AR11" s="1">
+        <f t="shared" ref="AR11:AR16" si="6">AVERAGE(U2,U8)</f>
         <v>1.775904410536842</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -3019,73 +3083,76 @@
         <v>51</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB12" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC12" s="2">
         <v>0.1</v>
       </c>
-      <c r="AC12" s="2">
-        <f t="shared" ref="AC12:AC16" si="7">AVERAGE(G3,G9)</f>
+      <c r="AD12" s="2">
+        <f t="shared" ref="AD12:AD16" si="7">AVERAGE(G3,G9)</f>
         <v>0.15008787518795649</v>
       </c>
-      <c r="AD12" s="2">
-        <f t="shared" ref="AD12:AF12" si="8">AVERAGE(H3,H9)</f>
+      <c r="AE12" s="2">
+        <f t="shared" ref="AE12:AG12" si="8">AVERAGE(H3,H9)</f>
         <v>0.16684891915212</v>
       </c>
-      <c r="AE12" s="2">
+      <c r="AF12" s="2">
         <f t="shared" si="8"/>
         <v>9.7389984722547618E-2</v>
       </c>
-      <c r="AF12" s="2">
+      <c r="AG12" s="2">
         <f t="shared" si="8"/>
         <v>0.99248119230965992</v>
       </c>
-      <c r="AG12" s="2">
+      <c r="AH12" s="2">
         <f t="shared" si="1"/>
         <v>1.2911876173328276</v>
       </c>
-      <c r="AH12" s="2">
-        <f t="shared" ref="AH12:AH16" si="9">AVERAGE(L3,L9)</f>
+      <c r="AI12" s="2">
+        <f t="shared" ref="AI12:AI16" si="9">AVERAGE(L3,L9)</f>
         <v>1.1855098231618446</v>
       </c>
-      <c r="AI12" s="2">
+      <c r="AJ12" s="2">
         <f t="shared" si="2"/>
         <v>3.2136268395560537</v>
       </c>
-      <c r="AJ12" s="2">
+      <c r="AK12" s="2">
         <f t="shared" si="2"/>
         <v>0.83115914538677271</v>
       </c>
-      <c r="AK12" s="2">
+      <c r="AL12" s="2">
         <f t="shared" si="2"/>
         <v>0.36019036976329022</v>
       </c>
-      <c r="AL12" s="2">
+      <c r="AM12" s="2">
         <f t="shared" si="2"/>
         <v>2.7126751313851676</v>
       </c>
-      <c r="AM12" s="2">
+      <c r="AN12" s="2">
         <f t="shared" si="3"/>
         <v>1.1149484885736585</v>
       </c>
-      <c r="AN12" s="2">
+      <c r="AO12" s="2">
         <f t="shared" si="4"/>
         <v>0.87530313745179245</v>
       </c>
-      <c r="AO12" s="2">
+      <c r="AP12" s="2">
         <f t="shared" si="4"/>
         <v>14.650704682267241</v>
       </c>
-      <c r="AP12" s="2">
+      <c r="AQ12" s="2">
         <f t="shared" si="5"/>
         <v>0.84610265720959876</v>
       </c>
-      <c r="AQ12" s="2">
+      <c r="AR12" s="2">
         <f t="shared" si="6"/>
         <v>1.6541493137080805</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -3156,73 +3223,76 @@
         <v>52</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB13" s="1">
+        <v>75</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC13" s="1">
         <v>0.1</v>
       </c>
-      <c r="AC13" s="1">
+      <c r="AD13" s="1">
         <f t="shared" si="7"/>
         <v>0.13597041129199006</v>
       </c>
-      <c r="AD13" s="1">
-        <f t="shared" ref="AD13:AF13" si="10">AVERAGE(H4,H10)</f>
+      <c r="AE13" s="1">
+        <f t="shared" ref="AE13:AG13" si="10">AVERAGE(H4,H10)</f>
         <v>0.15209349657235291</v>
       </c>
-      <c r="AE13" s="1">
+      <c r="AF13" s="1">
         <f t="shared" si="10"/>
         <v>8.6128608624427005E-2</v>
       </c>
-      <c r="AF13" s="1">
+      <c r="AG13" s="1">
         <f t="shared" si="10"/>
         <v>1.3356336701614802</v>
       </c>
-      <c r="AG13" s="1">
+      <c r="AH13" s="1">
         <f t="shared" si="1"/>
         <v>1.8046290424445104</v>
       </c>
-      <c r="AH13" s="1">
+      <c r="AI13" s="1">
         <f t="shared" si="9"/>
         <v>2.1405331413286022</v>
       </c>
-      <c r="AI13" s="1">
+      <c r="AJ13" s="1">
         <f t="shared" si="2"/>
         <v>2.8919807210453046</v>
       </c>
-      <c r="AJ13" s="1">
+      <c r="AK13" s="1">
         <f t="shared" si="2"/>
         <v>1.0621808912414208</v>
       </c>
-      <c r="AK13" s="1">
+      <c r="AL13" s="1">
         <f t="shared" si="2"/>
         <v>0.64234270767861934</v>
       </c>
-      <c r="AL13" s="1">
+      <c r="AM13" s="1">
         <f t="shared" si="2"/>
         <v>5.8205134229438373</v>
       </c>
-      <c r="AM13" s="1">
+      <c r="AN13" s="1">
         <f t="shared" si="3"/>
         <v>1.2829436688739972</v>
       </c>
-      <c r="AN13" s="1">
+      <c r="AO13" s="1">
         <f t="shared" si="4"/>
         <v>1.1404251828842733</v>
       </c>
-      <c r="AO13" s="1">
+      <c r="AP13" s="1">
         <f t="shared" si="4"/>
         <v>4.079304606152296</v>
       </c>
-      <c r="AP13" s="1">
+      <c r="AQ13" s="1">
         <f t="shared" si="5"/>
         <v>0.77327145019994337</v>
       </c>
-      <c r="AQ13" s="1">
+      <c r="AR13" s="1">
         <f t="shared" si="6"/>
         <v>1.6959387124034226</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -3292,74 +3362,77 @@
       <c r="Z14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AA14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB14" s="2">
+      <c r="AA14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC14" s="2">
         <v>100</v>
       </c>
-      <c r="AC14" s="2">
+      <c r="AD14" s="2">
         <f t="shared" si="7"/>
         <v>3.8795102434323242E-2</v>
       </c>
-      <c r="AD14" s="2">
-        <f t="shared" ref="AD14:AF14" si="11">AVERAGE(H5,H11)</f>
+      <c r="AE14" s="2">
+        <f t="shared" ref="AE14:AG14" si="11">AVERAGE(H5,H11)</f>
         <v>2.7796260779966244E-2</v>
       </c>
-      <c r="AE14" s="2">
+      <c r="AF14" s="2">
         <f t="shared" si="11"/>
         <v>1.6365129847331097E-2</v>
       </c>
-      <c r="AF14" s="2">
+      <c r="AG14" s="2">
         <f t="shared" si="11"/>
         <v>0.67486444922395816</v>
       </c>
-      <c r="AG14" s="2">
+      <c r="AH14" s="2">
         <f t="shared" si="1"/>
         <v>1.7751228556474941</v>
       </c>
-      <c r="AH14" s="2">
+      <c r="AI14" s="2">
         <f t="shared" si="9"/>
         <v>1.070451811949221</v>
       </c>
-      <c r="AI14" s="2">
+      <c r="AJ14" s="2">
         <f t="shared" si="2"/>
         <v>1.5397977344434768</v>
       </c>
-      <c r="AJ14" s="2">
+      <c r="AK14" s="2">
         <f t="shared" si="2"/>
         <v>0.94926648905807165</v>
       </c>
-      <c r="AK14" s="2">
+      <c r="AL14" s="2">
         <f t="shared" si="2"/>
         <v>0.36053435798788636</v>
       </c>
-      <c r="AL14" s="2">
+      <c r="AM14" s="2">
         <f t="shared" si="2"/>
         <v>9.7007275433230653</v>
       </c>
-      <c r="AM14" s="2">
+      <c r="AN14" s="2">
         <f t="shared" si="3"/>
         <v>1.2483225759307204</v>
       </c>
-      <c r="AN14" s="2">
+      <c r="AO14" s="2">
         <f t="shared" si="4"/>
         <v>0.6914182839970211</v>
       </c>
-      <c r="AO14" s="2">
+      <c r="AP14" s="2">
         <f t="shared" si="4"/>
         <v>8.4025303817002897</v>
       </c>
-      <c r="AP14" s="2">
+      <c r="AQ14" s="2">
         <f t="shared" si="5"/>
         <v>0.731698471530844</v>
       </c>
-      <c r="AQ14" s="2">
+      <c r="AR14" s="2">
         <f t="shared" si="6"/>
         <v>1.4519354365042176</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -3429,74 +3502,77 @@
       <c r="Z15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AA15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB15" s="1">
+      <c r="AA15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC15" s="1">
         <v>100</v>
       </c>
-      <c r="AC15" s="1">
+      <c r="AD15" s="1">
         <f>AVERAGE(G6,G12)</f>
         <v>0.22191448631139654</v>
       </c>
-      <c r="AD15" s="1">
-        <f t="shared" ref="AD15:AF15" si="12">AVERAGE(H6,H12)</f>
+      <c r="AE15" s="1">
+        <f t="shared" ref="AE15:AG15" si="12">AVERAGE(H6,H12)</f>
         <v>0.26401312170395269</v>
       </c>
-      <c r="AE15" s="1">
+      <c r="AF15" s="1">
         <f t="shared" si="12"/>
         <v>0.15335188999965108</v>
       </c>
-      <c r="AF15" s="1">
+      <c r="AG15" s="1">
         <f t="shared" si="12"/>
         <v>1.5151877025790086</v>
       </c>
-      <c r="AG15" s="1">
+      <c r="AH15" s="1">
         <f t="shared" si="1"/>
         <v>1.4262679056956662</v>
       </c>
-      <c r="AH15" s="1">
+      <c r="AI15" s="1">
         <f t="shared" si="9"/>
         <v>1.560264053223118</v>
       </c>
-      <c r="AI15" s="1">
+      <c r="AJ15" s="1">
         <f t="shared" si="2"/>
         <v>2.9824770261212641</v>
       </c>
-      <c r="AJ15" s="1">
+      <c r="AK15" s="1">
         <f t="shared" si="2"/>
         <v>0.80597582966421888</v>
       </c>
-      <c r="AK15" s="1">
+      <c r="AL15" s="1">
         <f t="shared" si="2"/>
         <v>0.92508371062223593</v>
       </c>
-      <c r="AL15" s="1">
+      <c r="AM15" s="1">
         <f t="shared" si="2"/>
         <v>3.9754834564471269</v>
       </c>
-      <c r="AM15" s="1">
+      <c r="AN15" s="1">
         <f t="shared" si="3"/>
         <v>1.3840211136874361</v>
       </c>
-      <c r="AN15" s="1">
+      <c r="AO15" s="1">
         <f t="shared" si="4"/>
         <v>1.1500364298951644</v>
       </c>
-      <c r="AO15" s="1">
+      <c r="AP15" s="1">
         <f t="shared" si="4"/>
         <v>2.0650724974611587</v>
       </c>
-      <c r="AP15" s="1">
+      <c r="AQ15" s="1">
         <f t="shared" si="5"/>
         <v>1.20564180455486</v>
       </c>
-      <c r="AQ15" s="1">
+      <c r="AR15" s="1">
         <f t="shared" si="6"/>
         <v>1.9001644612461104</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -3566,74 +3642,77 @@
       <c r="Z16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AA16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB16" s="2">
+      <c r="AA16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC16" s="2">
         <v>100</v>
       </c>
-      <c r="AC16" s="2">
+      <c r="AD16" s="2">
         <f t="shared" si="7"/>
         <v>0.13697772051619456</v>
       </c>
-      <c r="AD16" s="2">
-        <f t="shared" ref="AD16:AF16" si="13">AVERAGE(H7,H13)</f>
+      <c r="AE16" s="2">
+        <f t="shared" ref="AE16:AG16" si="13">AVERAGE(H7,H13)</f>
         <v>0.17168410142202084</v>
       </c>
-      <c r="AE16" s="2">
+      <c r="AF16" s="2">
         <f t="shared" si="13"/>
         <v>9.1631050421084922E-2</v>
       </c>
-      <c r="AF16" s="2">
+      <c r="AG16" s="2">
         <f t="shared" si="13"/>
         <v>1.0352778735180426</v>
       </c>
-      <c r="AG16" s="2">
+      <c r="AH16" s="2">
         <f t="shared" si="1"/>
         <v>1.2582279641595804</v>
       </c>
-      <c r="AH16" s="2">
+      <c r="AI16" s="2">
         <f t="shared" si="9"/>
         <v>1.4559172118827153</v>
       </c>
-      <c r="AI16" s="2">
+      <c r="AJ16" s="2">
         <f t="shared" si="2"/>
         <v>1.729379967522114</v>
       </c>
-      <c r="AJ16" s="2">
+      <c r="AK16" s="2">
         <f t="shared" si="2"/>
         <v>0.7216409962245981</v>
       </c>
-      <c r="AK16" s="2">
+      <c r="AL16" s="2">
         <f t="shared" si="2"/>
         <v>0.73200527510155355</v>
       </c>
-      <c r="AL16" s="2">
+      <c r="AM16" s="2">
         <f t="shared" si="2"/>
         <v>6.7770162237313611</v>
       </c>
-      <c r="AM16" s="2">
+      <c r="AN16" s="2">
         <f t="shared" si="3"/>
         <v>1.3726113717885717</v>
       </c>
-      <c r="AN16" s="2">
+      <c r="AO16" s="2">
         <f t="shared" si="4"/>
         <v>1.1164527918587872</v>
       </c>
-      <c r="AO16" s="2">
+      <c r="AP16" s="2">
         <f t="shared" si="4"/>
         <v>0.50835289923728522</v>
       </c>
-      <c r="AP16" s="2">
+      <c r="AQ16" s="2">
         <f t="shared" si="5"/>
         <v>1.0842488056840243</v>
       </c>
-      <c r="AQ16" s="2">
+      <c r="AR16" s="2">
         <f t="shared" si="6"/>
         <v>1.6293547381439208</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -3701,73 +3780,76 @@
         <v>55</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB17" s="1">
+        <v>74</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC17" s="1">
         <v>0.1</v>
       </c>
-      <c r="AC17" s="1">
+      <c r="AD17" s="1">
         <f>AVERAGE(G38,G39)</f>
         <v>0.43975412260751356</v>
       </c>
-      <c r="AD17" s="1">
-        <f t="shared" ref="AD17:AF17" si="14">AVERAGE(H38,H39)</f>
+      <c r="AE17" s="1">
+        <f t="shared" ref="AE17:AG17" si="14">AVERAGE(H38,H39)</f>
         <v>0.70246176157041873</v>
       </c>
-      <c r="AE17" s="1">
+      <c r="AF17" s="1">
         <f t="shared" si="14"/>
         <v>1.0756831382274579</v>
       </c>
-      <c r="AF17" s="1">
+      <c r="AG17" s="1">
         <f t="shared" si="14"/>
         <v>1.4445532069407205</v>
       </c>
-      <c r="AG17" s="1">
-        <f t="shared" ref="AG17" si="15">AVERAGE(K38,K39)</f>
+      <c r="AH17" s="1">
+        <f t="shared" ref="AH17" si="15">AVERAGE(K38,K39)</f>
         <v>0.7945449780924736</v>
       </c>
-      <c r="AH17" s="1">
-        <f t="shared" ref="AH17" si="16">AVERAGE(L38,L39)</f>
+      <c r="AI17" s="1">
+        <f t="shared" ref="AI17" si="16">AVERAGE(L38,L39)</f>
         <v>0.50444432981007503</v>
       </c>
-      <c r="AI17" s="1">
-        <f t="shared" ref="AI17" si="17">AVERAGE(M38,M39)</f>
+      <c r="AJ17" s="1">
+        <f t="shared" ref="AJ17" si="17">AVERAGE(M38,M39)</f>
         <v>0.23926063639344258</v>
       </c>
-      <c r="AJ17" s="1">
-        <f t="shared" ref="AJ17:AL17" si="18">AVERAGE(N38,N39)</f>
+      <c r="AK17" s="1">
+        <f t="shared" ref="AK17:AM17" si="18">AVERAGE(N38,N39)</f>
         <v>0.45768003756241538</v>
       </c>
-      <c r="AK17" s="1">
+      <c r="AL17" s="1">
         <f t="shared" si="18"/>
         <v>2.3941961331334198</v>
       </c>
-      <c r="AL17" s="1">
+      <c r="AM17" s="1">
         <f t="shared" si="18"/>
         <v>1.334213206554137</v>
       </c>
-      <c r="AM17" s="1">
-        <f t="shared" ref="AM17" si="19">AVERAGE(Q38,Q39)</f>
+      <c r="AN17" s="1">
+        <f t="shared" ref="AN17" si="19">AVERAGE(Q38,Q39)</f>
         <v>1.1979970707621002</v>
       </c>
-      <c r="AN17" s="1">
-        <f t="shared" ref="AN17:AO17" si="20">AVERAGE(R38,R39)</f>
+      <c r="AO17" s="1">
+        <f t="shared" ref="AO17:AP17" si="20">AVERAGE(R38,R39)</f>
         <v>0.83963836653704171</v>
       </c>
-      <c r="AO17" s="1">
+      <c r="AP17" s="1">
         <f t="shared" si="20"/>
         <v>0.45727439341970511</v>
       </c>
-      <c r="AP17" s="1">
-        <f t="shared" ref="AP17" si="21">AVERAGE(T38,T39)</f>
+      <c r="AQ17" s="1">
+        <f t="shared" ref="AQ17" si="21">AVERAGE(T38,T39)</f>
         <v>1.0997193891698318</v>
       </c>
-      <c r="AQ17" s="1">
-        <f t="shared" ref="AQ17" si="22">AVERAGE(U38,U39)</f>
+      <c r="AR17" s="1">
+        <f t="shared" ref="AR17" si="22">AVERAGE(U38,U39)</f>
         <v>1.2132175735887718</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -3837,74 +3919,77 @@
       <c r="Z18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AA18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB18" s="2">
+      <c r="AA18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC18" s="2">
         <v>0.1</v>
       </c>
-      <c r="AC18" s="2">
+      <c r="AD18" s="2">
         <f>AVERAGE(G14,G20)</f>
         <v>0.27930108691509004</v>
       </c>
-      <c r="AD18" s="2">
-        <f t="shared" ref="AD18:AE18" si="23">AVERAGE(H14,H20)</f>
+      <c r="AE18" s="2">
+        <f t="shared" ref="AE18:AF18" si="23">AVERAGE(H14,H20)</f>
         <v>0.24241527159586684</v>
       </c>
-      <c r="AE18" s="2">
+      <c r="AF18" s="2">
         <f t="shared" si="23"/>
         <v>0.1888209658547422</v>
       </c>
-      <c r="AF18" s="2">
+      <c r="AG18" s="2">
         <f>AVERAGE(J14,J20)</f>
         <v>1.0905732372959951</v>
       </c>
-      <c r="AG18" s="2">
-        <f t="shared" ref="AG18:AH23" si="24">AVERAGE(K14,K20)</f>
+      <c r="AH18" s="2">
+        <f t="shared" ref="AH18:AI23" si="24">AVERAGE(K14,K20)</f>
         <v>1.1297236354088531</v>
       </c>
-      <c r="AH18" s="2">
+      <c r="AI18" s="2">
         <f t="shared" si="24"/>
         <v>1.1101855114849379</v>
       </c>
-      <c r="AI18" s="2">
-        <f t="shared" ref="AI18:AI23" si="25">AVERAGE(M14,M20)</f>
+      <c r="AJ18" s="2">
+        <f t="shared" ref="AJ18:AJ23" si="25">AVERAGE(M14,M20)</f>
         <v>2.6385282184657592</v>
       </c>
-      <c r="AJ18" s="2">
-        <f t="shared" ref="AJ18:AL23" si="26">AVERAGE(N14,N20)</f>
+      <c r="AK18" s="2">
+        <f t="shared" ref="AK18:AM23" si="26">AVERAGE(N14,N20)</f>
         <v>0.91667691089407499</v>
       </c>
-      <c r="AK18" s="2">
+      <c r="AL18" s="2">
         <f t="shared" si="26"/>
         <v>0.82118064825162418</v>
       </c>
-      <c r="AL18" s="2">
+      <c r="AM18" s="2">
         <f t="shared" si="26"/>
         <v>4.5137506305707422</v>
       </c>
-      <c r="AM18" s="2">
-        <f t="shared" ref="AM18:AM23" si="27">AVERAGE(Q14,Q20)</f>
+      <c r="AN18" s="2">
+        <f t="shared" ref="AN18:AN23" si="27">AVERAGE(Q14,Q20)</f>
         <v>1.145435438527366</v>
       </c>
-      <c r="AN18" s="2">
-        <f t="shared" ref="AN18:AO23" si="28">AVERAGE(R14,R20)</f>
+      <c r="AO18" s="2">
+        <f t="shared" ref="AO18:AP23" si="28">AVERAGE(R14,R20)</f>
         <v>1.1337801912353984</v>
       </c>
-      <c r="AO18" s="2">
+      <c r="AP18" s="2">
         <f t="shared" si="28"/>
         <v>8.7958445349215619</v>
       </c>
-      <c r="AP18" s="2">
-        <f t="shared" ref="AP18:AP23" si="29">AVERAGE(T14,T20)</f>
+      <c r="AQ18" s="2">
+        <f t="shared" ref="AQ18:AQ23" si="29">AVERAGE(T14,T20)</f>
         <v>1.2261061904118424</v>
       </c>
-      <c r="AQ18" s="2">
-        <f t="shared" ref="AQ18:AQ22" si="30">AVERAGE(U14,U20)</f>
+      <c r="AR18" s="2">
+        <f t="shared" ref="AR18:AR22" si="30">AVERAGE(U14,U20)</f>
         <v>1.5366745723182986</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -3974,74 +4059,77 @@
       <c r="Z19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AA19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB19" s="1">
+      <c r="AA19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC19" s="1">
         <v>0.1</v>
       </c>
-      <c r="AC19" s="1">
-        <f t="shared" ref="AC19:AC22" si="31">AVERAGE(G15,G21)</f>
+      <c r="AD19" s="1">
+        <f t="shared" ref="AD19:AD22" si="31">AVERAGE(G15,G21)</f>
         <v>0.22085908751344979</v>
       </c>
-      <c r="AD19" s="1">
-        <f t="shared" ref="AD19:AF19" si="32">AVERAGE(H15,H21)</f>
+      <c r="AE19" s="1">
+        <f t="shared" ref="AE19:AG19" si="32">AVERAGE(H15,H21)</f>
         <v>0.21812191431598543</v>
       </c>
-      <c r="AE19" s="1">
+      <c r="AF19" s="1">
         <f t="shared" si="32"/>
         <v>0.13627493483230119</v>
       </c>
-      <c r="AF19" s="1">
+      <c r="AG19" s="1">
         <f t="shared" si="32"/>
         <v>1.415147955479829</v>
       </c>
-      <c r="AG19" s="1">
+      <c r="AH19" s="1">
         <f t="shared" si="24"/>
         <v>1.2087700411049518</v>
       </c>
-      <c r="AH19" s="1">
+      <c r="AI19" s="1">
         <f t="shared" si="24"/>
         <v>1.3372643045164261</v>
       </c>
-      <c r="AI19" s="1">
+      <c r="AJ19" s="1">
         <f t="shared" si="25"/>
         <v>3.321257053728127</v>
       </c>
-      <c r="AJ19" s="1">
+      <c r="AK19" s="1">
         <f t="shared" si="26"/>
         <v>0.94341164831948365</v>
       </c>
-      <c r="AK19" s="1">
+      <c r="AL19" s="1">
         <f t="shared" si="26"/>
         <v>1.0976574130798702</v>
       </c>
-      <c r="AL19" s="1">
+      <c r="AM19" s="1">
         <f t="shared" si="26"/>
         <v>4.2989485557131975</v>
       </c>
-      <c r="AM19" s="1">
+      <c r="AN19" s="1">
         <f t="shared" si="27"/>
         <v>1.2551496057349349</v>
       </c>
-      <c r="AN19" s="1">
+      <c r="AO19" s="1">
         <f t="shared" si="28"/>
         <v>1.2545515608731379</v>
       </c>
-      <c r="AO19" s="1">
+      <c r="AP19" s="1">
         <f t="shared" si="28"/>
         <v>4.1833638274386269</v>
       </c>
-      <c r="AP19" s="1">
+      <c r="AQ19" s="1">
         <f t="shared" si="29"/>
         <v>1.2908570496960237</v>
       </c>
-      <c r="AQ19" s="1">
+      <c r="AR19" s="1">
         <f t="shared" si="30"/>
         <v>1.4700264481451009</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -4111,74 +4199,77 @@
       <c r="Z20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AA20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB20" s="2">
+      <c r="AA20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC20" s="2">
         <v>0.1</v>
       </c>
-      <c r="AC20" s="2">
+      <c r="AD20" s="2">
         <f t="shared" si="31"/>
         <v>0.16337488611861595</v>
       </c>
-      <c r="AD20" s="2">
-        <f t="shared" ref="AD20:AF20" si="33">AVERAGE(H16,H22)</f>
+      <c r="AE20" s="2">
+        <f t="shared" ref="AE20:AG20" si="33">AVERAGE(H16,H22)</f>
         <v>0.19599452955587818</v>
       </c>
-      <c r="AE20" s="2">
+      <c r="AF20" s="2">
         <f t="shared" si="33"/>
         <v>6.3003950349280233E-2</v>
       </c>
-      <c r="AF20" s="2">
+      <c r="AG20" s="2">
         <f t="shared" si="33"/>
         <v>1.3599372596995611</v>
       </c>
-      <c r="AG20" s="2">
+      <c r="AH20" s="2">
         <f t="shared" si="24"/>
         <v>1.5398208274816398</v>
       </c>
-      <c r="AH20" s="2">
+      <c r="AI20" s="2">
         <f>AVERAGE(L16,L22)</f>
         <v>1.7354225139602659</v>
       </c>
-      <c r="AI20" s="2">
+      <c r="AJ20" s="2">
         <f t="shared" si="25"/>
         <v>3.3311485643501024</v>
       </c>
-      <c r="AJ20" s="2">
+      <c r="AK20" s="2">
         <f t="shared" si="26"/>
         <v>1.0586271449060682</v>
       </c>
-      <c r="AK20" s="2">
+      <c r="AL20" s="2">
         <f t="shared" si="26"/>
         <v>1.0068759742371862</v>
       </c>
-      <c r="AL20" s="2">
+      <c r="AM20" s="2">
         <f t="shared" si="26"/>
         <v>8.0410661454847325</v>
       </c>
-      <c r="AM20" s="2">
+      <c r="AN20" s="2">
         <f t="shared" si="27"/>
         <v>1.5155777809543021</v>
       </c>
-      <c r="AN20" s="2">
+      <c r="AO20" s="2">
         <f t="shared" si="28"/>
         <v>1.3644116475996233</v>
       </c>
-      <c r="AO20" s="2">
+      <c r="AP20" s="2">
         <f t="shared" si="28"/>
         <v>6.022911316722408</v>
       </c>
-      <c r="AP20" s="2">
+      <c r="AQ20" s="2">
         <f t="shared" si="29"/>
         <v>1.4560524738366454</v>
       </c>
-      <c r="AQ20" s="2">
+      <c r="AR20" s="2">
         <f t="shared" si="30"/>
         <v>1.7409766645306408</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -4249,73 +4340,76 @@
         <v>50</v>
       </c>
       <c r="AA21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB21" s="1">
+        <v>74</v>
+      </c>
+      <c r="AB21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC21" s="1">
         <v>100</v>
       </c>
-      <c r="AC21" s="1">
+      <c r="AD21" s="1">
         <f t="shared" si="31"/>
         <v>0.12963411529321747</v>
       </c>
-      <c r="AD21" s="1">
-        <f t="shared" ref="AD21:AF21" si="34">AVERAGE(H17,H23)</f>
+      <c r="AE21" s="1">
+        <f t="shared" ref="AE21:AG21" si="34">AVERAGE(H17,H23)</f>
         <v>9.4315670842440733E-2</v>
       </c>
-      <c r="AE21" s="1">
+      <c r="AF21" s="1">
         <f t="shared" si="34"/>
         <v>5.1677304875675387E-2</v>
       </c>
-      <c r="AF21" s="1">
+      <c r="AG21" s="1">
         <f t="shared" si="34"/>
         <v>1.2640734939470093</v>
       </c>
-      <c r="AG21" s="1">
+      <c r="AH21" s="1">
         <f t="shared" si="24"/>
         <v>1.3679858145441006</v>
       </c>
-      <c r="AH21" s="1">
+      <c r="AI21" s="1">
         <f t="shared" si="24"/>
         <v>1.4473653326976006</v>
       </c>
-      <c r="AI21" s="1">
+      <c r="AJ21" s="1">
         <f t="shared" si="25"/>
         <v>3.1105258098499262</v>
       </c>
-      <c r="AJ21" s="1">
+      <c r="AK21" s="1">
         <f t="shared" si="26"/>
         <v>0.88894838955450683</v>
       </c>
-      <c r="AK21" s="1">
+      <c r="AL21" s="1">
         <f t="shared" si="26"/>
         <v>0.68295217148269982</v>
       </c>
-      <c r="AL21" s="1">
+      <c r="AM21" s="1">
         <f t="shared" si="26"/>
         <v>4.2322195295693401</v>
       </c>
-      <c r="AM21" s="1">
+      <c r="AN21" s="1">
         <f t="shared" si="27"/>
         <v>1.7095915913986168</v>
       </c>
-      <c r="AN21" s="1">
+      <c r="AO21" s="1">
         <f t="shared" si="28"/>
         <v>1.0152081759698477</v>
       </c>
-      <c r="AO21" s="1">
+      <c r="AP21" s="1">
         <f t="shared" si="28"/>
         <v>4.6795106060315792</v>
       </c>
-      <c r="AP21" s="1">
+      <c r="AQ21" s="1">
         <f t="shared" si="29"/>
         <v>1.3770780707431136</v>
       </c>
-      <c r="AQ21" s="1">
+      <c r="AR21" s="1">
         <f t="shared" si="30"/>
         <v>1.4849370255736856</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -4386,73 +4480,76 @@
         <v>53</v>
       </c>
       <c r="AA22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB22" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC22" s="2">
         <v>100</v>
       </c>
-      <c r="AC22" s="2">
+      <c r="AD22" s="2">
         <f t="shared" si="31"/>
         <v>5.5260211196447917E-2</v>
       </c>
-      <c r="AD22" s="2">
-        <f t="shared" ref="AD22:AF22" si="35">AVERAGE(H18,H24)</f>
+      <c r="AE22" s="2">
+        <f t="shared" ref="AE22:AG22" si="35">AVERAGE(H18,H24)</f>
         <v>5.6507458970582056E-2</v>
       </c>
-      <c r="AE22" s="2">
+      <c r="AF22" s="2">
         <f t="shared" si="35"/>
         <v>2.4985972357239698E-2</v>
       </c>
-      <c r="AF22" s="2">
+      <c r="AG22" s="2">
         <f t="shared" si="35"/>
         <v>1.2531501122598296</v>
       </c>
-      <c r="AG22" s="2">
+      <c r="AH22" s="2">
         <f t="shared" si="24"/>
         <v>1.5985591831447235</v>
       </c>
-      <c r="AH22" s="2">
+      <c r="AI22" s="2">
         <f t="shared" si="24"/>
         <v>1.5831381667373383</v>
       </c>
-      <c r="AI22" s="2">
+      <c r="AJ22" s="2">
         <f t="shared" si="25"/>
         <v>3.868854937153742</v>
       </c>
-      <c r="AJ22" s="2">
+      <c r="AK22" s="2">
         <f t="shared" si="26"/>
         <v>0.85747944008125865</v>
       </c>
-      <c r="AK22" s="2">
+      <c r="AL22" s="2">
         <f t="shared" si="26"/>
         <v>0.67047110371765961</v>
       </c>
-      <c r="AL22" s="2">
+      <c r="AM22" s="2">
         <f t="shared" si="26"/>
         <v>13.699456829856565</v>
       </c>
-      <c r="AM22" s="2">
+      <c r="AN22" s="2">
         <f t="shared" si="27"/>
         <v>1.7105211156869393</v>
       </c>
-      <c r="AN22" s="2">
+      <c r="AO22" s="2">
         <f t="shared" si="28"/>
         <v>1.0038981196661996</v>
       </c>
-      <c r="AO22" s="2">
+      <c r="AP22" s="2">
         <f t="shared" si="28"/>
         <v>8.0868639889298652</v>
       </c>
-      <c r="AP22" s="2">
+      <c r="AQ22" s="2">
         <f t="shared" si="29"/>
         <v>0.94317367396726137</v>
       </c>
-      <c r="AQ22" s="2">
+      <c r="AR22" s="2">
         <f t="shared" si="30"/>
         <v>1.3278679261564312</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -4523,73 +4620,76 @@
         <v>54</v>
       </c>
       <c r="AA23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB23" s="1">
+        <v>75</v>
+      </c>
+      <c r="AB23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC23" s="1">
         <v>100</v>
       </c>
-      <c r="AC23" s="1">
+      <c r="AD23" s="1">
         <f>AVERAGE(G19,G25)</f>
         <v>0.22237345437896094</v>
       </c>
-      <c r="AD23" s="1">
-        <f t="shared" ref="AD23:AF23" si="36">AVERAGE(H19,H25)</f>
+      <c r="AE23" s="1">
+        <f t="shared" ref="AE23:AG23" si="36">AVERAGE(H19,H25)</f>
         <v>0.22553175642055184</v>
       </c>
-      <c r="AE23" s="1">
+      <c r="AF23" s="1">
         <f t="shared" si="36"/>
         <v>8.8449849718028439E-2</v>
       </c>
-      <c r="AF23" s="1">
+      <c r="AG23" s="1">
         <f t="shared" si="36"/>
         <v>1.4358394154985801</v>
       </c>
-      <c r="AG23" s="1">
+      <c r="AH23" s="1">
         <f t="shared" si="24"/>
         <v>1.5068883615521056</v>
       </c>
-      <c r="AH23" s="1">
+      <c r="AI23" s="1">
         <f t="shared" si="24"/>
         <v>1.7995597385432631</v>
       </c>
-      <c r="AI23" s="1">
+      <c r="AJ23" s="1">
         <f t="shared" si="25"/>
         <v>3.4723306521597181</v>
       </c>
-      <c r="AJ23" s="1">
+      <c r="AK23" s="1">
         <f t="shared" si="26"/>
         <v>0.87125692653746234</v>
       </c>
-      <c r="AK23" s="1">
+      <c r="AL23" s="1">
         <f t="shared" si="26"/>
         <v>0.77836948155500241</v>
       </c>
-      <c r="AL23" s="1">
+      <c r="AM23" s="1">
         <f t="shared" si="26"/>
         <v>1.9733005205021996</v>
       </c>
-      <c r="AM23" s="1">
+      <c r="AN23" s="1">
         <f t="shared" si="27"/>
         <v>1.8342104333149112</v>
       </c>
-      <c r="AN23" s="1">
+      <c r="AO23" s="1">
         <f t="shared" si="28"/>
         <v>1.1726532786013055</v>
       </c>
-      <c r="AO23" s="1">
+      <c r="AP23" s="1">
         <f t="shared" si="28"/>
         <v>4.7336477125314955</v>
       </c>
-      <c r="AP23" s="1">
+      <c r="AQ23" s="1">
         <f t="shared" si="29"/>
         <v>1.1709218988588681</v>
       </c>
-      <c r="AQ23" s="1">
+      <c r="AR23" s="1">
         <f>AVERAGE(U19,U25)</f>
         <v>1.8120075100450619</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -4656,74 +4756,77 @@
       <c r="Z24" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AA24" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB24" s="2">
+      <c r="AA24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC24" s="2">
         <v>0.1</v>
       </c>
-      <c r="AC24" s="1">
+      <c r="AD24" s="1">
         <f>AVERAGE(G40:G41)</f>
         <v>0.6019702754798083</v>
       </c>
-      <c r="AD24" s="1">
-        <f t="shared" ref="AD24:AF24" si="37">AVERAGE(H40:H41)</f>
+      <c r="AE24" s="1">
+        <f t="shared" ref="AE24:AG24" si="37">AVERAGE(H40:H41)</f>
         <v>1.1382086029351339</v>
       </c>
-      <c r="AE24" s="1">
+      <c r="AF24" s="1">
         <f t="shared" si="37"/>
         <v>1.475942836910664</v>
       </c>
-      <c r="AF24" s="1">
+      <c r="AG24" s="1">
         <f t="shared" si="37"/>
         <v>1.3457210912533966</v>
       </c>
-      <c r="AG24" s="1">
-        <f t="shared" ref="AG24" si="38">AVERAGE(K40:K41)</f>
+      <c r="AH24" s="1">
+        <f t="shared" ref="AH24" si="38">AVERAGE(K40:K41)</f>
         <v>1.102299432142515</v>
       </c>
-      <c r="AH24" s="1">
-        <f t="shared" ref="AH24" si="39">AVERAGE(L40:L41)</f>
+      <c r="AI24" s="1">
+        <f t="shared" ref="AI24" si="39">AVERAGE(L40:L41)</f>
         <v>0.99818006677862248</v>
       </c>
-      <c r="AI24" s="1">
-        <f t="shared" ref="AI24" si="40">AVERAGE(M40:M41)</f>
+      <c r="AJ24" s="1">
+        <f t="shared" ref="AJ24" si="40">AVERAGE(M40:M41)</f>
         <v>0.24343073402264781</v>
       </c>
-      <c r="AJ24" s="1">
-        <f t="shared" ref="AJ24:AL24" si="41">AVERAGE(N40:N41)</f>
+      <c r="AK24" s="1">
+        <f t="shared" ref="AK24:AM24" si="41">AVERAGE(N40:N41)</f>
         <v>0.74163298429377578</v>
       </c>
-      <c r="AK24" s="1">
+      <c r="AL24" s="1">
         <f t="shared" si="41"/>
         <v>1.9639046601242263</v>
       </c>
-      <c r="AL24" s="1">
+      <c r="AM24" s="1">
         <f t="shared" si="41"/>
         <v>0.49043285482126653</v>
       </c>
-      <c r="AM24" s="1">
-        <f t="shared" ref="AM24" si="42">AVERAGE(Q40:Q41)</f>
+      <c r="AN24" s="1">
+        <f t="shared" ref="AN24" si="42">AVERAGE(Q40:Q41)</f>
         <v>0.94513688026609133</v>
       </c>
-      <c r="AN24" s="1">
-        <f t="shared" ref="AN24:AO24" si="43">AVERAGE(R40:R41)</f>
+      <c r="AO24" s="1">
+        <f t="shared" ref="AO24:AP24" si="43">AVERAGE(R40:R41)</f>
         <v>0.65285247362960908</v>
       </c>
-      <c r="AO24" s="1">
+      <c r="AP24" s="1">
         <f t="shared" si="43"/>
         <v>0.12860735319778538</v>
       </c>
-      <c r="AP24" s="1">
-        <f t="shared" ref="AP24" si="44">AVERAGE(T40:T41)</f>
+      <c r="AQ24" s="1">
+        <f t="shared" ref="AQ24" si="44">AVERAGE(T40:T41)</f>
         <v>1.0206461953165533</v>
       </c>
-      <c r="AQ24" s="1">
-        <f t="shared" ref="AQ24" si="45">AVERAGE(U40:U41)</f>
+      <c r="AR24" s="1">
+        <f t="shared" ref="AR24" si="45">AVERAGE(U40:U41)</f>
         <v>0.70909808079874725</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -4794,73 +4897,76 @@
         <v>49</v>
       </c>
       <c r="AA25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB25" s="1">
+        <v>74</v>
+      </c>
+      <c r="AB25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC25" s="1">
         <v>0.1</v>
       </c>
-      <c r="AC25" s="1">
+      <c r="AD25" s="1">
         <f>AVERAGE(G26,G32)</f>
         <v>0.83692584840771878</v>
       </c>
-      <c r="AD25" s="1">
-        <f t="shared" ref="AD25:AF25" si="46">AVERAGE(H20,H26)</f>
+      <c r="AE25" s="1">
+        <f t="shared" ref="AE25:AG25" si="46">AVERAGE(H20,H26)</f>
         <v>0.51613441224578105</v>
       </c>
-      <c r="AE25" s="1">
+      <c r="AF25" s="1">
         <f t="shared" si="46"/>
         <v>0.37359239878671069</v>
       </c>
-      <c r="AF25" s="1">
+      <c r="AG25" s="1">
         <f t="shared" si="46"/>
         <v>1.133546250236604</v>
       </c>
-      <c r="AG25" s="1">
-        <f t="shared" ref="AG25:AG30" si="47">AVERAGE(K20,K26)</f>
+      <c r="AH25" s="1">
+        <f t="shared" ref="AH25:AH30" si="47">AVERAGE(K20,K26)</f>
         <v>0.9291707546041359</v>
       </c>
-      <c r="AH25" s="1">
-        <f t="shared" ref="AH25:AH30" si="48">AVERAGE(L20,L26)</f>
+      <c r="AI25" s="1">
+        <f t="shared" ref="AI25:AI30" si="48">AVERAGE(L20,L26)</f>
         <v>1.0959569522272021</v>
       </c>
-      <c r="AI25" s="1">
-        <f t="shared" ref="AI25:AI30" si="49">AVERAGE(M20,M26)</f>
+      <c r="AJ25" s="1">
+        <f t="shared" ref="AJ25:AJ30" si="49">AVERAGE(M20,M26)</f>
         <v>1.9968828097524098</v>
       </c>
-      <c r="AJ25" s="1">
-        <f t="shared" ref="AJ25:AL30" si="50">AVERAGE(N20,N26)</f>
+      <c r="AK25" s="1">
+        <f t="shared" ref="AK25:AM30" si="50">AVERAGE(N20,N26)</f>
         <v>1.0294091327086803</v>
       </c>
-      <c r="AK25" s="1">
+      <c r="AL25" s="1">
         <f t="shared" si="50"/>
         <v>1.0140327400319715</v>
       </c>
-      <c r="AL25" s="1">
+      <c r="AM25" s="1">
         <f t="shared" si="50"/>
         <v>1.8298881791655139</v>
       </c>
-      <c r="AM25" s="1">
-        <f t="shared" ref="AM25:AM30" si="51">AVERAGE(Q20,Q26)</f>
+      <c r="AN25" s="1">
+        <f t="shared" ref="AN25:AN30" si="51">AVERAGE(Q20,Q26)</f>
         <v>0.96780701727719243</v>
       </c>
-      <c r="AN25" s="1">
-        <f t="shared" ref="AN25:AO30" si="52">AVERAGE(R20,R26)</f>
+      <c r="AO25" s="1">
+        <f t="shared" ref="AO25:AP30" si="52">AVERAGE(R20,R26)</f>
         <v>1.1230233970614925</v>
       </c>
-      <c r="AO25" s="1">
+      <c r="AP25" s="1">
         <f t="shared" si="52"/>
         <v>3.7980893102576792</v>
       </c>
-      <c r="AP25" s="1">
-        <f t="shared" ref="AP25:AP30" si="53">AVERAGE(T20,T26)</f>
+      <c r="AQ25" s="1">
+        <f t="shared" ref="AQ25:AQ30" si="53">AVERAGE(T20,T26)</f>
         <v>1.0509653791798921</v>
       </c>
-      <c r="AQ25" s="1">
-        <f t="shared" ref="AQ25:AQ30" si="54">AVERAGE(U20,U26)</f>
+      <c r="AR25" s="1">
+        <f t="shared" ref="AR25:AR30" si="54">AVERAGE(U20,U26)</f>
         <v>1.3669025711795393</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
@@ -4931,73 +5037,76 @@
         <v>51</v>
       </c>
       <c r="AA26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB26" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC26" s="2">
         <v>0.1</v>
       </c>
-      <c r="AC26" s="1">
+      <c r="AD26" s="1">
         <f>AVERAGE(G27,G33)</f>
         <v>0.88906574141031514</v>
       </c>
-      <c r="AD26" s="1">
-        <f t="shared" ref="AD26:AF26" si="55">AVERAGE(H21,H27)</f>
+      <c r="AE26" s="1">
+        <f t="shared" ref="AE26:AG26" si="55">AVERAGE(H21,H27)</f>
         <v>0.53805620654963449</v>
       </c>
-      <c r="AE26" s="1">
+      <c r="AF26" s="1">
         <f t="shared" si="55"/>
         <v>0.47156440373431685</v>
       </c>
-      <c r="AF26" s="1">
+      <c r="AG26" s="1">
         <f t="shared" si="55"/>
         <v>1.1360657053878203</v>
       </c>
-      <c r="AG26" s="1">
+      <c r="AH26" s="1">
         <f t="shared" si="47"/>
         <v>0.98302999437149985</v>
       </c>
-      <c r="AH26" s="1">
+      <c r="AI26" s="1">
         <f t="shared" si="48"/>
         <v>1.0753036525473896</v>
       </c>
-      <c r="AI26" s="1">
+      <c r="AJ26" s="1">
         <f t="shared" si="49"/>
         <v>2.044715658827942</v>
       </c>
-      <c r="AJ26" s="1">
+      <c r="AK26" s="1">
         <f t="shared" si="50"/>
         <v>1.0003377847410699</v>
       </c>
-      <c r="AK26" s="1">
+      <c r="AL26" s="1">
         <f t="shared" si="50"/>
         <v>1.219141227283858</v>
       </c>
-      <c r="AL26" s="1">
+      <c r="AM26" s="1">
         <f t="shared" si="50"/>
         <v>2.9579373144719501</v>
       </c>
-      <c r="AM26" s="1">
+      <c r="AN26" s="1">
         <f t="shared" si="51"/>
         <v>0.99441675087374604</v>
       </c>
-      <c r="AN26" s="1">
+      <c r="AO26" s="1">
         <f t="shared" si="52"/>
         <v>1.0477641148893924</v>
       </c>
-      <c r="AO26" s="1">
+      <c r="AP26" s="1">
         <f t="shared" si="52"/>
         <v>4.8693365713263947</v>
       </c>
-      <c r="AP26" s="1">
+      <c r="AQ26" s="1">
         <f t="shared" si="53"/>
         <v>1.0344078372605778</v>
       </c>
-      <c r="AQ26" s="1">
+      <c r="AR26" s="1">
         <f t="shared" si="54"/>
         <v>1.1985936717641343</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
@@ -5068,73 +5177,76 @@
         <v>52</v>
       </c>
       <c r="AA27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB27" s="1">
+        <v>75</v>
+      </c>
+      <c r="AB27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC27" s="1">
         <v>0.1</v>
       </c>
-      <c r="AC27" s="1">
-        <f t="shared" ref="AC27:AC30" si="56">AVERAGE(G28,G34)</f>
+      <c r="AD27" s="1">
+        <f t="shared" ref="AD27:AD30" si="56">AVERAGE(G28,G34)</f>
         <v>0.77349240843444211</v>
       </c>
-      <c r="AD27" s="2">
-        <f t="shared" ref="AD27:AF27" si="57">AVERAGE(H22,H28)</f>
+      <c r="AE27" s="2">
+        <f t="shared" ref="AE27:AG27" si="57">AVERAGE(H22,H28)</f>
         <v>0.51408662747209355</v>
       </c>
-      <c r="AE27" s="2">
+      <c r="AF27" s="2">
         <f t="shared" si="57"/>
         <v>0.20558275279760085</v>
       </c>
-      <c r="AF27" s="2">
+      <c r="AG27" s="2">
         <f t="shared" si="57"/>
         <v>1.3130085215076766</v>
       </c>
-      <c r="AG27" s="2">
+      <c r="AH27" s="2">
         <f t="shared" si="47"/>
         <v>1.3166591601294111</v>
       </c>
-      <c r="AH27" s="2">
+      <c r="AI27" s="2">
         <f t="shared" si="48"/>
         <v>1.6048547370966033</v>
       </c>
-      <c r="AI27" s="2">
+      <c r="AJ27" s="2">
         <f t="shared" si="49"/>
         <v>2.2018103798807949</v>
       </c>
-      <c r="AJ27" s="2">
+      <c r="AK27" s="2">
         <f t="shared" si="50"/>
         <v>1.2415476513426187</v>
       </c>
-      <c r="AK27" s="2">
+      <c r="AL27" s="2">
         <f t="shared" si="50"/>
         <v>1.241794918641522</v>
       </c>
-      <c r="AL27" s="2">
+      <c r="AM27" s="2">
         <f t="shared" si="50"/>
         <v>3.649664822490803</v>
       </c>
-      <c r="AM27" s="2">
+      <c r="AN27" s="2">
         <f t="shared" si="51"/>
         <v>1.3522702057341176</v>
       </c>
-      <c r="AN27" s="2">
+      <c r="AO27" s="2">
         <f t="shared" si="52"/>
         <v>1.4419081851414963</v>
       </c>
-      <c r="AO27" s="2">
+      <c r="AP27" s="2">
         <f t="shared" si="52"/>
         <v>4.3215118925545069</v>
       </c>
-      <c r="AP27" s="2">
+      <c r="AQ27" s="2">
         <f t="shared" si="53"/>
         <v>1.3141353504477231</v>
       </c>
-      <c r="AQ27" s="2">
+      <c r="AR27" s="2">
         <f t="shared" si="54"/>
         <v>1.6662007628818123</v>
       </c>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -5204,74 +5316,77 @@
       <c r="Z28" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AA28" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB28" s="2">
+      <c r="AA28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC28" s="2">
         <v>100</v>
       </c>
-      <c r="AC28" s="1">
+      <c r="AD28" s="1">
         <f t="shared" si="56"/>
         <v>0.93402301270494181</v>
       </c>
-      <c r="AD28" s="1">
-        <f t="shared" ref="AD28:AF28" si="58">AVERAGE(H23,H29)</f>
+      <c r="AE28" s="1">
+        <f t="shared" ref="AE28:AG28" si="58">AVERAGE(H23,H29)</f>
         <v>0.43607198777638512</v>
       </c>
-      <c r="AE28" s="1">
+      <c r="AF28" s="1">
         <f t="shared" si="58"/>
         <v>0.28988112132334559</v>
       </c>
-      <c r="AF28" s="1">
+      <c r="AG28" s="1">
         <f t="shared" si="58"/>
         <v>1.1112712545796222</v>
       </c>
-      <c r="AG28" s="1">
+      <c r="AH28" s="1">
         <f t="shared" si="47"/>
         <v>1.0792750305655159</v>
       </c>
-      <c r="AH28" s="1">
+      <c r="AI28" s="1">
         <f t="shared" si="48"/>
         <v>1.0303390005359256</v>
       </c>
-      <c r="AI28" s="1">
+      <c r="AJ28" s="1">
         <f t="shared" si="49"/>
         <v>2.2368980777764977</v>
       </c>
-      <c r="AJ28" s="1">
+      <c r="AK28" s="1">
         <f t="shared" si="50"/>
         <v>1.10946070332214</v>
       </c>
-      <c r="AK28" s="1">
+      <c r="AL28" s="1">
         <f t="shared" si="50"/>
         <v>1.0516402437500112</v>
       </c>
-      <c r="AL28" s="1">
+      <c r="AM28" s="1">
         <f t="shared" si="50"/>
         <v>2.8286578241277054</v>
       </c>
-      <c r="AM28" s="1">
+      <c r="AN28" s="1">
         <f t="shared" si="51"/>
         <v>1.2893340382233074</v>
       </c>
-      <c r="AN28" s="1">
+      <c r="AO28" s="1">
         <f t="shared" si="52"/>
         <v>1.0449366563440261</v>
       </c>
-      <c r="AO28" s="1">
+      <c r="AP28" s="1">
         <f t="shared" si="52"/>
         <v>4.8434507828983726</v>
       </c>
-      <c r="AP28" s="1">
+      <c r="AQ28" s="1">
         <f t="shared" si="53"/>
         <v>1.3314700445780927</v>
       </c>
-      <c r="AQ28" s="1">
+      <c r="AR28" s="1">
         <f t="shared" si="54"/>
         <v>1.1875293965239428</v>
       </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
@@ -5341,74 +5456,77 @@
       <c r="Z29" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AA29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB29" s="1">
+      <c r="AA29" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC29" s="1">
         <v>100</v>
       </c>
-      <c r="AC29" s="1">
+      <c r="AD29" s="1">
         <f t="shared" si="56"/>
         <v>1.1062600377687439</v>
       </c>
-      <c r="AD29" s="1">
-        <f t="shared" ref="AD29:AF29" si="59">AVERAGE(H24,H30)</f>
+      <c r="AE29" s="1">
+        <f t="shared" ref="AE29:AG29" si="59">AVERAGE(H24,H30)</f>
         <v>0.50089439794615143</v>
       </c>
-      <c r="AE29" s="1">
+      <c r="AF29" s="1">
         <f t="shared" si="59"/>
         <v>0.45185114985562475</v>
       </c>
-      <c r="AF29" s="1">
+      <c r="AG29" s="1">
         <f t="shared" si="59"/>
         <v>0.97256148899428219</v>
       </c>
-      <c r="AG29" s="1">
+      <c r="AH29" s="1">
         <f t="shared" si="47"/>
         <v>1.4118457109943106</v>
       </c>
-      <c r="AH29" s="1">
+      <c r="AI29" s="1">
         <f t="shared" si="48"/>
         <v>1.3702389340535137</v>
       </c>
-      <c r="AI29" s="1">
+      <c r="AJ29" s="1">
         <f t="shared" si="49"/>
         <v>2.7411453314870191</v>
       </c>
-      <c r="AJ29" s="1">
+      <c r="AK29" s="1">
         <f t="shared" si="50"/>
         <v>0.83649795856630793</v>
       </c>
-      <c r="AK29" s="1">
+      <c r="AL29" s="1">
         <f t="shared" si="50"/>
         <v>1.0384748601724922</v>
       </c>
-      <c r="AL29" s="1">
+      <c r="AM29" s="1">
         <f t="shared" si="50"/>
         <v>8.2490343514983131</v>
       </c>
-      <c r="AM29" s="1">
+      <c r="AN29" s="1">
         <f t="shared" si="51"/>
         <v>1.3528347857080107</v>
       </c>
-      <c r="AN29" s="1">
+      <c r="AO29" s="1">
         <f t="shared" si="52"/>
         <v>0.8837750884931026</v>
       </c>
-      <c r="AO29" s="1">
+      <c r="AP29" s="1">
         <f t="shared" si="52"/>
         <v>4.379233894330655</v>
       </c>
-      <c r="AP29" s="1">
+      <c r="AQ29" s="1">
         <f t="shared" si="53"/>
         <v>0.92897807874885352</v>
       </c>
-      <c r="AQ29" s="1">
+      <c r="AR29" s="1">
         <f t="shared" si="54"/>
         <v>0.83515965945674353</v>
       </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -5478,74 +5596,77 @@
       <c r="Z30" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AA30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB30" s="2">
+      <c r="AA30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC30" s="2">
         <v>100</v>
       </c>
-      <c r="AC30" s="1">
+      <c r="AD30" s="1">
         <f t="shared" si="56"/>
         <v>1.0045900495800446</v>
       </c>
-      <c r="AD30" s="2">
-        <f t="shared" ref="AD30:AF30" si="60">AVERAGE(H25,H31)</f>
+      <c r="AE30" s="2">
+        <f t="shared" ref="AE30:AG30" si="60">AVERAGE(H25,H31)</f>
         <v>0.57185909214126418</v>
       </c>
-      <c r="AE30" s="2">
+      <c r="AF30" s="2">
         <f t="shared" si="60"/>
         <v>0.47242294654253225</v>
       </c>
-      <c r="AF30" s="2">
+      <c r="AG30" s="2">
         <f t="shared" si="60"/>
         <v>1.096127060858995</v>
       </c>
-      <c r="AG30" s="2">
+      <c r="AH30" s="2">
         <f t="shared" si="47"/>
         <v>1.018324253350315</v>
       </c>
-      <c r="AH30" s="2">
+      <c r="AI30" s="2">
         <f t="shared" si="48"/>
         <v>1.1677899470865736</v>
       </c>
-      <c r="AI30" s="2">
+      <c r="AJ30" s="2">
         <f t="shared" si="49"/>
         <v>1.7959217877054126</v>
       </c>
-      <c r="AJ30" s="2">
+      <c r="AK30" s="2">
         <f t="shared" si="50"/>
         <v>0.90269132262090368</v>
       </c>
-      <c r="AK30" s="2">
+      <c r="AL30" s="2">
         <f t="shared" si="50"/>
         <v>1.2845861378643186</v>
       </c>
-      <c r="AL30" s="2">
+      <c r="AM30" s="2">
         <f t="shared" si="50"/>
         <v>1.9191808412966997</v>
       </c>
-      <c r="AM30" s="2">
+      <c r="AN30" s="2">
         <f t="shared" si="51"/>
         <v>1.0767478872644225</v>
       </c>
-      <c r="AN30" s="2">
+      <c r="AO30" s="2">
         <f t="shared" si="52"/>
         <v>1.0113456625648929</v>
       </c>
-      <c r="AO30" s="2">
+      <c r="AP30" s="2">
         <f t="shared" si="52"/>
         <v>2.1861838007791969</v>
       </c>
-      <c r="AP30" s="2">
+      <c r="AQ30" s="2">
         <f t="shared" si="53"/>
         <v>1.1276609214368043</v>
       </c>
-      <c r="AQ30" s="2">
+      <c r="AR30" s="2">
         <f t="shared" si="54"/>
         <v>1.1295002638718219</v>
       </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -5616,73 +5737,76 @@
         <v>55</v>
       </c>
       <c r="AA31" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB31" s="1">
+        <v>74</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC31" s="1">
         <v>0.1</v>
       </c>
-      <c r="AC31" s="1">
+      <c r="AD31" s="1">
         <f>AVERAGE(G42:G43)</f>
         <v>0.51962577460668224</v>
       </c>
-      <c r="AD31" s="1">
-        <f t="shared" ref="AD31:AF31" si="61">AVERAGE(H42:H43)</f>
+      <c r="AE31" s="1">
+        <f t="shared" ref="AE31:AG31" si="61">AVERAGE(H42:H43)</f>
         <v>0.94641451009635436</v>
       </c>
-      <c r="AE31" s="1">
+      <c r="AF31" s="1">
         <f t="shared" si="61"/>
         <v>0.94794813781524201</v>
       </c>
-      <c r="AF31" s="1">
+      <c r="AG31" s="1">
         <f t="shared" si="61"/>
         <v>1.4612955836560211</v>
       </c>
-      <c r="AG31" s="1">
-        <f t="shared" ref="AG31" si="62">AVERAGE(K42:K43)</f>
+      <c r="AH31" s="1">
+        <f t="shared" ref="AH31" si="62">AVERAGE(K42:K43)</f>
         <v>1.2405818075985968</v>
       </c>
-      <c r="AH31" s="1">
-        <f t="shared" ref="AH31" si="63">AVERAGE(L42:L43)</f>
+      <c r="AI31" s="1">
+        <f t="shared" ref="AI31" si="63">AVERAGE(L42:L43)</f>
         <v>1.0873787247169562</v>
       </c>
-      <c r="AI31" s="1">
-        <f t="shared" ref="AI31" si="64">AVERAGE(M42:M43)</f>
+      <c r="AJ31" s="1">
+        <f t="shared" ref="AJ31" si="64">AVERAGE(M42:M43)</f>
         <v>0.22492706442374549</v>
       </c>
-      <c r="AJ31" s="1">
-        <f t="shared" ref="AJ31:AL31" si="65">AVERAGE(N42:N43)</f>
+      <c r="AK31" s="1">
+        <f t="shared" ref="AK31:AM31" si="65">AVERAGE(N42:N43)</f>
         <v>0.90654897380449695</v>
       </c>
-      <c r="AK31" s="1">
+      <c r="AL31" s="1">
         <f t="shared" si="65"/>
         <v>1.5236789665252861</v>
       </c>
-      <c r="AL31" s="1">
+      <c r="AM31" s="1">
         <f t="shared" si="65"/>
         <v>1.0912542213796448</v>
       </c>
-      <c r="AM31" s="1">
-        <f t="shared" ref="AM31" si="66">AVERAGE(Q42:Q43)</f>
+      <c r="AN31" s="1">
+        <f t="shared" ref="AN31" si="66">AVERAGE(Q42:Q43)</f>
         <v>1.1485870922396402</v>
       </c>
-      <c r="AN31" s="1">
-        <f t="shared" ref="AN31:AO31" si="67">AVERAGE(R42:R43)</f>
+      <c r="AO31" s="1">
+        <f t="shared" ref="AO31:AP31" si="67">AVERAGE(R42:R43)</f>
         <v>0.8368618071946059</v>
       </c>
-      <c r="AO31" s="1">
+      <c r="AP31" s="1">
         <f t="shared" si="67"/>
         <v>0.4747217608765153</v>
       </c>
-      <c r="AP31" s="1">
-        <f t="shared" ref="AP31" si="68">AVERAGE(T42:T43)</f>
+      <c r="AQ31" s="1">
+        <f t="shared" ref="AQ31" si="68">AVERAGE(T42:T43)</f>
         <v>1.048639635639516</v>
       </c>
-      <c r="AQ31" s="1">
-        <f t="shared" ref="AQ31" si="69">AVERAGE(U42:U43)</f>
+      <c r="AR31" s="1">
+        <f t="shared" ref="AR31" si="69">AVERAGE(U42:U43)</f>
         <v>0.94916404974348123</v>
       </c>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
@@ -6592,15 +6716,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B02CF51-5187-4B53-8E13-4B1ED98A1456}">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6608,58 +6732,61 @@
         <v>61</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>58</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>59</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>62</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>63</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>64</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>65</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>66</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>67</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>68</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>69</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>70</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>71</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6667,58 +6794,61 @@
         <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2">
+        <v>74</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2">
         <v>0.1</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.28689521037102911</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.27022615466399769</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.19612937569316419</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1.2794798519850634</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1.364815209035438</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1.2503922596802464</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>1.4688734660120928</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>0.97273622747228605</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0.59270541525781351</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>1.2263343001798233</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>1.2168804552907593</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>1.0881252499755343</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>4.7680141385956301</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>1.3206554242342938</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>1.775904410536842</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6726,58 +6856,61 @@
         <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3">
         <v>0.1</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.15008787518795649</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.16684891915212</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>9.7389984722547618E-2</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.99248119230965992</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1.2911876173328276</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1.1855098231618446</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>3.2136268395560537</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.83115914538677271</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.36019036976329022</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>2.7126751313851676</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>1.1149484885736585</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.87530313745179245</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>14.650704682267241</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.84610265720959876</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>1.6541493137080805</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -6785,58 +6918,61 @@
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4">
         <v>0.1</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.13597041129199006</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.15209349657235291</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>8.6128608624427005E-2</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1.3356336701614802</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1.8046290424445104</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>2.1405331413286022</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>2.8919807210453046</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>1.0621808912414208</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>0.64234270767861934</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>5.8205134229438373</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>1.2829436688739972</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>1.1404251828842733</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>4.079304606152296</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>0.77327145019994337</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>1.6959387124034226</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -6844,58 +6980,61 @@
         <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5">
+        <v>74</v>
+      </c>
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5">
         <v>100</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>3.8795102434323242E-2</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>2.7796260779966244E-2</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1.6365129847331097E-2</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.67486444922395816</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1.7751228556474941</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>1.070451811949221</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1.5397977344434768</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>0.94926648905807165</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0.36053435798788636</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>9.7007275433230653</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>1.2483225759307204</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>0.6914182839970211</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>8.4025303817002897</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>0.731698471530844</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>1.4519354365042176</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -6903,58 +7042,61 @@
         <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6">
+        <v>75</v>
+      </c>
+      <c r="D6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6">
         <v>100</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.22191448631139654</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.26401312170395269</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.15335188999965108</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1.5151877025790086</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>1.4262679056956662</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>1.560264053223118</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>2.9824770261212641</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>0.80597582966421888</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>0.92508371062223593</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>3.9754834564471269</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>1.3840211136874361</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>1.1500364298951644</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>2.0650724974611587</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>1.20564180455486</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>1.9001644612461104</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -6962,58 +7104,61 @@
         <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7">
+        <v>75</v>
+      </c>
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7">
         <v>100</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.13697772051619456</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.17168410142202084</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>9.1631050421084922E-2</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1.0352778735180426</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>1.2582279641595804</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>1.4559172118827153</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>1.729379967522114</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>0.7216409962245981</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>0.73200527510155355</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>6.7770162237313611</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>1.3726113717885717</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>1.1164527918587872</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>0.50835289923728522</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>1.0842488056840243</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>1.6293547381439208</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -7021,58 +7166,61 @@
         <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8">
+        <v>74</v>
+      </c>
+      <c r="D8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8">
         <v>0.1</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.43975412260751356</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.70246176157041873</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1.0756831382274579</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1.4445532069407205</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.7945449780924736</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>0.50444432981007503</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>0.23926063639344258</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>0.45768003756241538</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>2.3941961331334198</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>1.334213206554137</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>1.1979970707621002</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>0.83963836653704171</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>0.45727439341970511</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>1.0997193891698318</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>1.2132175735887718</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -7080,58 +7228,61 @@
         <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9">
+        <v>74</v>
+      </c>
+      <c r="D9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9">
         <v>0.1</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.27930108691509004</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.24241527159586684</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.1888209658547422</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>1.0905732372959951</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>1.1297236354088531</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>1.1101855114849379</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>2.6385282184657592</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>0.91667691089407499</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>0.82118064825162418</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>4.5137506305707422</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>1.145435438527366</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>1.1337801912353984</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>8.7958445349215619</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>1.2261061904118424</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>1.5366745723182986</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -7139,58 +7290,61 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10">
+        <v>75</v>
+      </c>
+      <c r="D10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10">
         <v>0.1</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.22085908751344979</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.21812191431598543</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.13627493483230119</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>1.415147955479829</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>1.2087700411049518</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>1.3372643045164261</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>3.321257053728127</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>0.94341164831948365</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>1.0976574130798702</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>4.2989485557131975</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>1.2551496057349349</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>1.2545515608731379</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>4.1833638274386269</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>1.2908570496960237</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>1.4700264481451009</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -7198,58 +7352,61 @@
         <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11">
+        <v>75</v>
+      </c>
+      <c r="D11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11">
         <v>0.1</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.16337488611861595</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.19599452955587818</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>6.3003950349280233E-2</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>1.3599372596995611</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>1.5398208274816398</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>1.7354225139602659</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>3.3311485643501024</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>1.0586271449060682</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>1.0068759742371862</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>8.0410661454847325</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>1.5155777809543021</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>1.3644116475996233</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>6.022911316722408</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>1.4560524738366454</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>1.7409766645306408</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -7257,58 +7414,61 @@
         <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12">
+        <v>74</v>
+      </c>
+      <c r="D12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12">
         <v>100</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.12963411529321747</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>9.4315670842440733E-2</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>5.1677304875675387E-2</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>1.2640734939470093</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>1.3679858145441006</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>1.4473653326976006</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>3.1105258098499262</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>0.88894838955450683</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>0.68295217148269982</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>4.2322195295693401</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>1.7095915913986168</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>1.0152081759698477</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>4.6795106060315792</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>1.3770780707431136</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>1.4849370255736856</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -7316,58 +7476,61 @@
         <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13">
+        <v>75</v>
+      </c>
+      <c r="D13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13">
         <v>100</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>5.5260211196447917E-2</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>5.6507458970582056E-2</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>2.4985972357239698E-2</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>1.2531501122598296</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>1.5985591831447235</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>1.5831381667373383</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>3.868854937153742</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>0.85747944008125865</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>0.67047110371765961</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>13.699456829856565</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>1.7105211156869393</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>1.0038981196661996</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>8.0868639889298652</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>0.94317367396726137</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>1.3278679261564312</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -7375,58 +7538,61 @@
         <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14">
+        <v>75</v>
+      </c>
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14">
         <v>100</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>0.22237345437896094</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.22553175642055184</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>8.8449849718028439E-2</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1.4358394154985801</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>1.5068883615521056</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>1.7995597385432631</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>3.4723306521597181</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>0.87125692653746234</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>0.77836948155500241</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>1.9733005205021996</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>1.8342104333149112</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>1.1726532786013055</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>4.7336477125314955</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>1.1709218988588681</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>1.8120075100450619</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -7434,58 +7600,61 @@
         <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15">
+        <v>74</v>
+      </c>
+      <c r="D15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15">
         <v>0.1</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.6019702754798083</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>1.1382086029351339</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>1.475942836910664</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>1.3457210912533966</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>1.102299432142515</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>0.99818006677862248</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>0.24343073402264781</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>0.74163298429377578</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>1.9639046601242263</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>0.49043285482126653</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>0.94513688026609133</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>0.65285247362960908</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>0.12860735319778538</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>1.0206461953165533</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>0.70909808079874725</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -7493,58 +7662,61 @@
         <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16">
+        <v>74</v>
+      </c>
+      <c r="D16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16">
         <v>0.1</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0.83692584840771878</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.51613441224578105</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0.37359239878671069</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>1.133546250236604</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.9291707546041359</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>1.0959569522272021</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>1.9968828097524098</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>1.0294091327086803</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>1.0140327400319715</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>1.8298881791655139</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>0.96780701727719243</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>1.1230233970614925</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>3.7980893102576792</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>1.0509653791798921</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>1.3669025711795393</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -7552,58 +7724,61 @@
         <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17">
+        <v>75</v>
+      </c>
+      <c r="D17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17">
         <v>0.1</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>0.88906574141031514</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.53805620654963449</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.47156440373431685</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>1.1360657053878203</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>0.98302999437149985</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>1.0753036525473896</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>2.044715658827942</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>1.0003377847410699</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>1.219141227283858</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>2.9579373144719501</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>0.99441675087374604</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>1.0477641148893924</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>4.8693365713263947</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>1.0344078372605778</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>1.1985936717641343</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
@@ -7611,58 +7786,61 @@
         <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18">
+        <v>75</v>
+      </c>
+      <c r="D18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18">
         <v>0.1</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0.77349240843444211</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.51408662747209355</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0.20558275279760085</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>1.3130085215076766</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>1.3166591601294111</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>1.6048547370966033</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>2.2018103798807949</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>1.2415476513426187</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>1.241794918641522</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>3.649664822490803</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>1.3522702057341176</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>1.4419081851414963</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>4.3215118925545069</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>1.3141353504477231</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>1.6662007628818123</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
@@ -7670,58 +7848,61 @@
         <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19">
+        <v>74</v>
+      </c>
+      <c r="D19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19">
         <v>100</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.93402301270494181</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.43607198777638512</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>0.28988112132334559</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>1.1112712545796222</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>1.0792750305655159</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>1.0303390005359256</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>2.2368980777764977</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>1.10946070332214</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>1.0516402437500112</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>2.8286578241277054</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>1.2893340382233074</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>1.0449366563440261</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>4.8434507828983726</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>1.3314700445780927</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>1.1875293965239428</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -7729,58 +7910,61 @@
         <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20">
+        <v>75</v>
+      </c>
+      <c r="D20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20">
         <v>100</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>1.1062600377687439</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.50089439794615143</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0.45185114985562475</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.97256148899428219</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>1.4118457109943106</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>1.3702389340535137</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>2.7411453314870191</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>0.83649795856630793</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>1.0384748601724922</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>8.2490343514983131</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>1.3528347857080107</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>0.8837750884931026</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>4.379233894330655</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>0.92897807874885352</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>0.83515965945674353</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3</v>
       </c>
@@ -7788,58 +7972,61 @@
         <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21">
+        <v>75</v>
+      </c>
+      <c r="D21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21">
         <v>100</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>1.0045900495800446</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.57185909214126418</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.47242294654253225</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>1.096127060858995</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>1.018324253350315</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>1.1677899470865736</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>1.7959217877054126</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0.90269132262090368</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>1.2845861378643186</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>1.9191808412966997</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>1.0767478872644225</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>1.0113456625648929</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>2.1861838007791969</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>1.1276609214368043</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>1.1295002638718219</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -7847,54 +8034,57 @@
         <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22">
+        <v>74</v>
+      </c>
+      <c r="D22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22">
         <v>0.1</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.51962577460668224</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.94641451009635436</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.94794813781524201</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>1.4612955836560211</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>1.2405818075985968</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>1.0873787247169562</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>0.22492706442374549</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>0.90654897380449695</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>1.5236789665252861</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>1.0912542213796448</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>1.1485870922396402</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>0.8368618071946059</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>0.4747217608765153</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>1.048639635639516</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>0.94916404974348123</v>
       </c>
     </row>

--- a/HNM qPCR Summary.xlsx
+++ b/HNM qPCR Summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/spet4768_ox_ac_uk/Documents/Desktop/Results/HNM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="637" documentId="11_F25DC773A252ABDACC1048A9519B73345BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2D07E80-4E19-4765-809F-E126D97B1B03}"/>
+  <xr:revisionPtr revIDLastSave="640" documentId="11_F25DC773A252ABDACC1048A9519B73345BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60AB97E7-993C-4E48-BB07-1BF522C53A88}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="81">
   <si>
     <t>Round</t>
   </si>
@@ -279,6 +279,9 @@
   </si>
   <si>
     <t>FA_Amount</t>
+  </si>
+  <si>
+    <t>IL8</t>
   </si>
 </sst>
 </file>
@@ -6719,7 +6722,7 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6759,7 +6762,7 @@
         <v>63</v>
       </c>
       <c r="L1" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="M1" t="s">
         <v>65</v>
